--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6E9D11-F7ED-A94B-BF96-8FFDB84AB8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03708FB-0403-D649-AE54-3D5912AC7866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49480" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="462">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1274,6 +1274,138 @@
   </si>
   <si>
     <t>김예린</t>
+  </si>
+  <si>
+    <t>0hyejinpark2@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜진</t>
+  </si>
+  <si>
+    <t>5614bok@naver.com</t>
+  </si>
+  <si>
+    <t>안세진</t>
+  </si>
+  <si>
+    <t>hanhj0223@gmail.com</t>
+  </si>
+  <si>
+    <t>한형준</t>
+  </si>
+  <si>
+    <t>jmc0122@naver.com</t>
+  </si>
+  <si>
+    <t>정원혁</t>
+  </si>
+  <si>
+    <t>zo267869@naver.com</t>
+  </si>
+  <si>
+    <t>황태용</t>
+  </si>
+  <si>
+    <t>hytree22@naver.com</t>
+  </si>
+  <si>
+    <t>신하영</t>
+  </si>
+  <si>
+    <t>rbtkd0j25@gmail.com</t>
+  </si>
+  <si>
+    <t>김규상</t>
+  </si>
+  <si>
+    <t>dlgpals27@naver.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>hyj1141@naver.com</t>
+  </si>
+  <si>
+    <t>한예지</t>
+  </si>
+  <si>
+    <t>asd1231077@naver.com</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>bluessin0312@naver.com</t>
+  </si>
+  <si>
+    <t>신혜빈</t>
+  </si>
+  <si>
+    <t>jessica7096@naver.com</t>
+  </si>
+  <si>
+    <t>김보영</t>
+  </si>
+  <si>
+    <t>sdg93712426@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>신동건</t>
+  </si>
+  <si>
+    <t>csnoi@naver.com</t>
+  </si>
+  <si>
+    <t>원현서</t>
+  </si>
+  <si>
+    <t>pjw4063@naver.com</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>kuopty2758@gmail.com</t>
+  </si>
+  <si>
+    <t>강채원</t>
+  </si>
+  <si>
+    <t>lgb4750@naver.com</t>
+  </si>
+  <si>
+    <t>반도체-디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>이규빈</t>
+  </si>
+  <si>
+    <t>junesumin12@naver.com</t>
+  </si>
+  <si>
+    <t>전수민</t>
+  </si>
+  <si>
+    <t>0218mun@naver.com</t>
+  </si>
+  <si>
+    <t>강문희</t>
+  </si>
+  <si>
+    <t>seraphic_0913@naver.com</t>
+  </si>
+  <si>
+    <t>배윤서</t>
+  </si>
+  <si>
+    <t>huijeongj019@gmail.com</t>
+  </si>
+  <si>
+    <t>조희정</t>
   </si>
 </sst>
 </file>
@@ -1548,11 +1680,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM149"/>
+  <dimension ref="A1:BM170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18037,6 +18169,2316 @@
         <v>3</v>
       </c>
     </row>
+    <row r="150" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>45219.47451954861</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D150" s="1">
+        <v>20235177</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F150" s="3">
+        <v>0.47291666666569654</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H150" s="1">
+        <v>2</v>
+      </c>
+      <c r="I150" s="1">
+        <v>4</v>
+      </c>
+      <c r="J150" s="1">
+        <v>5</v>
+      </c>
+      <c r="K150" s="1">
+        <v>4</v>
+      </c>
+      <c r="L150" s="1">
+        <v>1</v>
+      </c>
+      <c r="M150" s="1">
+        <v>3</v>
+      </c>
+      <c r="N150" s="1">
+        <v>5</v>
+      </c>
+      <c r="O150" s="1">
+        <v>5</v>
+      </c>
+      <c r="P150" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>1</v>
+      </c>
+      <c r="R150" s="1">
+        <v>5</v>
+      </c>
+      <c r="S150" s="1">
+        <v>5</v>
+      </c>
+      <c r="T150" s="1">
+        <v>1</v>
+      </c>
+      <c r="U150" s="1">
+        <v>4</v>
+      </c>
+      <c r="V150" s="1">
+        <v>5</v>
+      </c>
+      <c r="W150" s="1">
+        <v>5</v>
+      </c>
+      <c r="X150" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y150" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA150" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB150" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC150" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF150" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG150" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH150" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI150" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ150" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
+        <v>45219.476680532403</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D151" s="1">
+        <v>20233525</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F151" s="3">
+        <v>0.47222222221898846</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK151" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL151" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM151" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN151" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO151" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP151" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ151" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR151" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS151" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT151" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU151" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV151" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW151" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX151" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY151" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ151" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA151" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB151" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC151" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD151" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE151" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF151" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG151" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH151" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI151" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ151" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK151" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL151" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM151" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2">
+        <v>45219.503806886569</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D152" s="1">
+        <v>20233966</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F152" s="3">
+        <v>0.49166666666860692</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL152" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM152" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2">
+        <v>45219.517792326384</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D153" s="1">
+        <v>20173057</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F153" s="3">
+        <v>0.51041666666424135</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK153" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN153" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO153" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS153" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT153" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU153" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV153" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW153" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX153" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ153" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA153" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB153" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC153" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD153" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE153" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF153" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG153" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH153" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI153" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ153" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK153" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL153" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM153" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2">
+        <v>45219.522313599533</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D154" s="1">
+        <v>20197092</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F154" s="3">
+        <v>0.5194444444423425</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK154" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM154" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN154" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO154" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP154" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ154" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR154" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS154" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT154" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU154" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV154" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW154" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY154" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ154" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA154" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB154" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC154" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD154" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE154" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF154" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG154" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH154" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI154" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ154" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK154" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL154" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2">
+        <v>45219.530236388891</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20232724</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F155" s="3">
+        <v>0.52638888888759539</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK155" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL155" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM155" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN155" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO155" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP155" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ155" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR155" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS155" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU155" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV155" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW155" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY155" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ155" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA155" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB155" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC155" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD155" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE155" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF155" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG155" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH155" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI155" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ155" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK155" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL155" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="2">
+        <v>45219.561364699075</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D156" s="1">
+        <v>20236212</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F156" s="3">
+        <v>0.55972222222044365</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H156" s="1">
+        <v>2</v>
+      </c>
+      <c r="I156" s="1">
+        <v>2</v>
+      </c>
+      <c r="J156" s="1">
+        <v>3</v>
+      </c>
+      <c r="K156" s="1">
+        <v>3</v>
+      </c>
+      <c r="L156" s="1">
+        <v>2</v>
+      </c>
+      <c r="M156" s="1">
+        <v>2</v>
+      </c>
+      <c r="N156" s="1">
+        <v>4</v>
+      </c>
+      <c r="O156" s="1">
+        <v>4</v>
+      </c>
+      <c r="P156" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>2</v>
+      </c>
+      <c r="R156" s="1">
+        <v>4</v>
+      </c>
+      <c r="S156" s="1">
+        <v>4</v>
+      </c>
+      <c r="T156" s="1">
+        <v>2</v>
+      </c>
+      <c r="U156" s="1">
+        <v>2</v>
+      </c>
+      <c r="V156" s="1">
+        <v>5</v>
+      </c>
+      <c r="W156" s="1">
+        <v>4</v>
+      </c>
+      <c r="X156" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y156" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z156" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC156" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE156" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG156" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH156" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI156" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ156" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2">
+        <v>45219.563770289351</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D157" s="1">
+        <v>20236767</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F157" s="3">
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK157" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN157" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO157" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR157" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS157" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT157" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU157" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW157" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX157" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY157" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ157" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA157" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB157" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC157" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD157" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE157" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF157" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG157" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH157" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI157" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ157" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK157" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL157" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2">
+        <v>45219.574396296295</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D158" s="1">
+        <v>20217095</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F158" s="3">
+        <v>0.56944444444525288</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM158" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS158" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ158" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA158" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB158" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC158" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD158" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE158" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF158" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG158" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH158" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI158" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ158" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK158" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL158" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM158" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2">
+        <v>45219.582661111112</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D159" s="1">
+        <v>20233804</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F159" s="3">
+        <v>0.62222222222044365</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL159" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM159" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN159" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO159" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ159" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV159" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX159" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY159" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ159" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA159" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB159" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC159" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD159" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE159" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF159" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG159" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH159" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI159" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ159" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK159" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL159" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM159" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="2">
+        <v>45219.600731284721</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D160" s="1">
+        <v>20221054</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F160" s="3">
+        <v>0.59999999999854481</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY160" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL160" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM160" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="2">
+        <v>45219.612380254628</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D161" s="1">
+        <v>20221705</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK161" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL161" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN161" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP161" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT161" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW161" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX161" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ161" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA161" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB161" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC161" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD161" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE161" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF161" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG161" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH161" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI161" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ161" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK161" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL161" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="2">
+        <v>45219.617824675923</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D162" s="1">
+        <v>20233322</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0.61666666666860692</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H162" s="1">
+        <v>3</v>
+      </c>
+      <c r="I162" s="1">
+        <v>3</v>
+      </c>
+      <c r="J162" s="1">
+        <v>3</v>
+      </c>
+      <c r="K162" s="1">
+        <v>3</v>
+      </c>
+      <c r="L162" s="1">
+        <v>3</v>
+      </c>
+      <c r="M162" s="1">
+        <v>3</v>
+      </c>
+      <c r="N162" s="1">
+        <v>3</v>
+      </c>
+      <c r="O162" s="1">
+        <v>3</v>
+      </c>
+      <c r="P162" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q162" s="1">
+        <v>3</v>
+      </c>
+      <c r="R162" s="1">
+        <v>3</v>
+      </c>
+      <c r="S162" s="1">
+        <v>3</v>
+      </c>
+      <c r="T162" s="1">
+        <v>3</v>
+      </c>
+      <c r="U162" s="1">
+        <v>3</v>
+      </c>
+      <c r="V162" s="1">
+        <v>3</v>
+      </c>
+      <c r="W162" s="1">
+        <v>3</v>
+      </c>
+      <c r="X162" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ162" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2">
+        <v>45219.617942453704</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D163" s="1">
+        <v>20202992</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0.61458333333575865</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H163" s="1">
+        <v>3</v>
+      </c>
+      <c r="I163" s="1">
+        <v>2</v>
+      </c>
+      <c r="J163" s="1">
+        <v>4</v>
+      </c>
+      <c r="K163" s="1">
+        <v>2</v>
+      </c>
+      <c r="L163" s="1">
+        <v>1</v>
+      </c>
+      <c r="M163" s="1">
+        <v>1</v>
+      </c>
+      <c r="N163" s="1">
+        <v>4</v>
+      </c>
+      <c r="O163" s="1">
+        <v>1</v>
+      </c>
+      <c r="P163" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>2</v>
+      </c>
+      <c r="R163" s="1">
+        <v>4</v>
+      </c>
+      <c r="S163" s="1">
+        <v>3</v>
+      </c>
+      <c r="T163" s="1">
+        <v>3</v>
+      </c>
+      <c r="U163" s="1">
+        <v>1</v>
+      </c>
+      <c r="V163" s="1">
+        <v>4</v>
+      </c>
+      <c r="W163" s="1">
+        <v>5</v>
+      </c>
+      <c r="X163" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y163" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z163" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA163" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB163" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD163" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE163" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG163" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH163" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI163" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ163" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="2">
+        <v>45219.649731111116</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D164" s="1">
+        <v>20233410</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0.64722222222189885</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H164" s="1">
+        <v>1</v>
+      </c>
+      <c r="I164" s="1">
+        <v>3</v>
+      </c>
+      <c r="J164" s="1">
+        <v>5</v>
+      </c>
+      <c r="K164" s="1">
+        <v>2</v>
+      </c>
+      <c r="L164" s="1">
+        <v>1</v>
+      </c>
+      <c r="M164" s="1">
+        <v>1</v>
+      </c>
+      <c r="N164" s="1">
+        <v>4</v>
+      </c>
+      <c r="O164" s="1">
+        <v>2</v>
+      </c>
+      <c r="P164" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q164" s="1">
+        <v>2</v>
+      </c>
+      <c r="R164" s="1">
+        <v>5</v>
+      </c>
+      <c r="S164" s="1">
+        <v>4</v>
+      </c>
+      <c r="T164" s="1">
+        <v>3</v>
+      </c>
+      <c r="U164" s="1">
+        <v>1</v>
+      </c>
+      <c r="V164" s="1">
+        <v>5</v>
+      </c>
+      <c r="W164" s="1">
+        <v>4</v>
+      </c>
+      <c r="X164" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y164" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA164" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB164" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD164" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE164" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH164" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI164" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="2">
+        <v>45219.651534907403</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D165" s="1">
+        <v>20232303</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0.65000000000145519</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY165" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BI165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BL165" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM165" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="2">
+        <v>45219.667727824075</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D166" s="1">
+        <v>20175420</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0.66527777777810115</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" s="1">
+        <v>1</v>
+      </c>
+      <c r="I166" s="1">
+        <v>2</v>
+      </c>
+      <c r="J166" s="1">
+        <v>6</v>
+      </c>
+      <c r="K166" s="1">
+        <v>1</v>
+      </c>
+      <c r="L166" s="1">
+        <v>1</v>
+      </c>
+      <c r="M166" s="1">
+        <v>1</v>
+      </c>
+      <c r="N166" s="1">
+        <v>5</v>
+      </c>
+      <c r="O166" s="1">
+        <v>5</v>
+      </c>
+      <c r="P166" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q166" s="1">
+        <v>2</v>
+      </c>
+      <c r="R166" s="1">
+        <v>1</v>
+      </c>
+      <c r="S166" s="1">
+        <v>5</v>
+      </c>
+      <c r="T166" s="1">
+        <v>1</v>
+      </c>
+      <c r="U166" s="1">
+        <v>3</v>
+      </c>
+      <c r="V166" s="1">
+        <v>6</v>
+      </c>
+      <c r="W166" s="1">
+        <v>6</v>
+      </c>
+      <c r="X166" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y166" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z166" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA166" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB166" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD166" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE166" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF166" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG166" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH166" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2">
+        <v>45219.684206388891</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D167" s="1">
+        <v>20236289</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0.33333333333575865</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK167" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL167" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN167" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO167" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS167" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT167" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU167" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV167" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW167" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX167" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY167" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ167" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA167" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB167" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC167" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD167" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE167" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF167" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG167" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH167" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI167" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ167" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK167" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL167" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="2">
+        <v>45219.689248831019</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D168" s="1">
+        <v>20193601</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0.68611111110658385</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H168" s="1">
+        <v>2</v>
+      </c>
+      <c r="I168" s="1">
+        <v>6</v>
+      </c>
+      <c r="J168" s="1">
+        <v>4</v>
+      </c>
+      <c r="K168" s="1">
+        <v>5</v>
+      </c>
+      <c r="L168" s="1">
+        <v>2</v>
+      </c>
+      <c r="M168" s="1">
+        <v>1</v>
+      </c>
+      <c r="N168" s="1">
+        <v>6</v>
+      </c>
+      <c r="O168" s="1">
+        <v>5</v>
+      </c>
+      <c r="P168" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q168" s="1">
+        <v>2</v>
+      </c>
+      <c r="R168" s="1">
+        <v>5</v>
+      </c>
+      <c r="S168" s="1">
+        <v>5</v>
+      </c>
+      <c r="T168" s="1">
+        <v>1</v>
+      </c>
+      <c r="U168" s="1">
+        <v>5</v>
+      </c>
+      <c r="V168" s="1">
+        <v>5</v>
+      </c>
+      <c r="W168" s="1">
+        <v>6</v>
+      </c>
+      <c r="X168" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y168" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z168" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA168" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB168" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC168" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD168" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE168" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF168" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG168" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH168" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI168" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2">
+        <v>45219.711081805552</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D169" s="1">
+        <v>20232720</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0.70902777777519077</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK169" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL169" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM169" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN169" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO169" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP169" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ169" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR169" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS169" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT169" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU169" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV169" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW169" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX169" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY169" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ169" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA169" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB169" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC169" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD169" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE169" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF169" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG169" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH169" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI169" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ169" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK169" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL169" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2">
+        <v>45219.718246527773</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D170" s="1">
+        <v>20233960</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0.71319444444088731</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK170" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL170" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM170" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN170" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO170" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP170" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ170" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR170" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS170" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT170" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU170" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV170" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW170" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX170" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY170" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ170" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA170" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB170" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC170" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD170" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE170" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF170" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG170" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH170" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI170" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ170" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK170" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL170" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM170" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03708FB-0403-D649-AE54-3D5912AC7866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B1D40-44FD-FF4B-80DE-64F14F201CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49480" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="521">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1406,6 +1406,183 @@
   </si>
   <si>
     <t>조희정</t>
+  </si>
+  <si>
+    <t>chh040817@naver.com</t>
+  </si>
+  <si>
+    <t>차현화</t>
+  </si>
+  <si>
+    <t>dong9mi24k@naver.com</t>
+  </si>
+  <si>
+    <t>이동금</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>lhj040512@naver.com</t>
+  </si>
+  <si>
+    <t>이현종</t>
+  </si>
+  <si>
+    <t>seoj07070@gmail.com</t>
+  </si>
+  <si>
+    <t>DONGZECHAO</t>
+  </si>
+  <si>
+    <t>csk331400@gmail.com</t>
+  </si>
+  <si>
+    <t>장승규</t>
+  </si>
+  <si>
+    <t>rkdgodbs7148@naver.com</t>
+  </si>
+  <si>
+    <t>강해윤</t>
+  </si>
+  <si>
+    <t>tibbit2@naver.com</t>
+  </si>
+  <si>
+    <t>AI의료융합학과</t>
+  </si>
+  <si>
+    <t>정윤재</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>qpfhslzk0323@naver.com</t>
+  </si>
+  <si>
+    <t>김윤설</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>yeji28667@naver.com</t>
+  </si>
+  <si>
+    <t>신예지</t>
+  </si>
+  <si>
+    <t>rjfrh11@naver.com</t>
+  </si>
+  <si>
+    <t>반도체전공</t>
+  </si>
+  <si>
+    <t>서무혁</t>
+  </si>
+  <si>
+    <t>han7434380@naver.com</t>
+  </si>
+  <si>
+    <t>한진우</t>
+  </si>
+  <si>
+    <t>20233824@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>안지영</t>
+  </si>
+  <si>
+    <t>dltndus004@naver.com</t>
+  </si>
+  <si>
+    <t>siyun8477@gmail.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>dltmdxo0123@naver.com</t>
+  </si>
+  <si>
+    <t>이승태</t>
+  </si>
+  <si>
+    <t>hsm3932@naver.com</t>
+  </si>
+  <si>
+    <t>허선민</t>
+  </si>
+  <si>
+    <t>judy030427@naver.com</t>
+  </si>
+  <si>
+    <t>오주영</t>
+  </si>
+  <si>
+    <t>wooyj0817@naver.com</t>
+  </si>
+  <si>
+    <t>우연정</t>
+  </si>
+  <si>
+    <t>birr040511@naver.com</t>
+  </si>
+  <si>
+    <t>오준서</t>
+  </si>
+  <si>
+    <t>zzx3488@naver.com</t>
+  </si>
+  <si>
+    <t>이인혁</t>
+  </si>
+  <si>
+    <t>dldusgh0908@gmail.com</t>
+  </si>
+  <si>
+    <t>이연호</t>
+  </si>
+  <si>
+    <t>choijoonhyuk1412@naver.com</t>
+  </si>
+  <si>
+    <t>lovechan2004@naver.com</t>
+  </si>
+  <si>
+    <t>황예찬</t>
+  </si>
+  <si>
+    <t>20232327@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학부 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">박소희 </t>
   </si>
 </sst>
 </file>
@@ -1680,11 +1857,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM170"/>
+  <dimension ref="A1:BM198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D176" sqref="D176"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20479,6 +20656,3086 @@
         <v>2</v>
       </c>
     </row>
+    <row r="171" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2">
+        <v>45219.734470358795</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20233962</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0.73333333333721384</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY171" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM171" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="2">
+        <v>45219.75254371528</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D172" s="1">
+        <v>20232426</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0.74930555555329192</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK172" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL172" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM172" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN172" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO172" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP172" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ172" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR172" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS172" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT172" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU172" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV172" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW172" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX172" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY172" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ172" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA172" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB172" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC172" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD172" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE172" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF172" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG172" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH172" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI172" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ172" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK172" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL172" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2">
+        <v>45219.757887118059</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20202513</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK173" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL173" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM173" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN173" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO173" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP173" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ173" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR173" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS173" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT173" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU173" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV173" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW173" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX173" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY173" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ173" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA173" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB173" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC173" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD173" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE173" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF173" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG173" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH173" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI173" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ173" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK173" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL173" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2">
+        <v>45219.788224918986</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D174" s="1">
+        <v>20233424</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0.78611111111240461</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK174" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL174" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM174" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN174" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO174" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP174" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ174" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR174" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS174" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT174" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU174" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV174" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW174" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX174" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY174" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ174" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA174" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB174" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC174" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD174" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE174" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF174" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG174" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH174" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI174" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ174" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK174" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL174" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM174" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2">
+        <v>45219.788275543979</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D175" s="1">
+        <v>20218001</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0.74305555555474712</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK175" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL175" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM175" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN175" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO175" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP175" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ175" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR175" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS175" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT175" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU175" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV175" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW175" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX175" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY175" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ175" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA175" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB175" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC175" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD175" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE175" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF175" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG175" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH175" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI175" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ175" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK175" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL175" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM175" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2">
+        <v>45219.802790046291</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D176" s="1">
+        <v>20203536</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F176" s="3">
+        <v>0.79652777777664596</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H176" s="1">
+        <v>3</v>
+      </c>
+      <c r="I176" s="1">
+        <v>5</v>
+      </c>
+      <c r="J176" s="1">
+        <v>3</v>
+      </c>
+      <c r="K176" s="1">
+        <v>2</v>
+      </c>
+      <c r="L176" s="1">
+        <v>3</v>
+      </c>
+      <c r="M176" s="1">
+        <v>2</v>
+      </c>
+      <c r="N176" s="1">
+        <v>5</v>
+      </c>
+      <c r="O176" s="1">
+        <v>5</v>
+      </c>
+      <c r="P176" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q176" s="1">
+        <v>6</v>
+      </c>
+      <c r="R176" s="1">
+        <v>6</v>
+      </c>
+      <c r="S176" s="1">
+        <v>4</v>
+      </c>
+      <c r="T176" s="1">
+        <v>6</v>
+      </c>
+      <c r="U176" s="1">
+        <v>5</v>
+      </c>
+      <c r="V176" s="1">
+        <v>3</v>
+      </c>
+      <c r="W176" s="1">
+        <v>3</v>
+      </c>
+      <c r="X176" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y176" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z176" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA176" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB176" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC176" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD176" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE176" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF176" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG176" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH176" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI176" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ176" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="2">
+        <v>45219.815707349539</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D177" s="1">
+        <v>20181702</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F177" s="3">
+        <v>0.81458333333284827</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H177" s="1">
+        <v>1</v>
+      </c>
+      <c r="I177" s="1">
+        <v>3</v>
+      </c>
+      <c r="J177" s="1">
+        <v>1</v>
+      </c>
+      <c r="K177" s="1">
+        <v>1</v>
+      </c>
+      <c r="L177" s="1">
+        <v>1</v>
+      </c>
+      <c r="M177" s="1">
+        <v>1</v>
+      </c>
+      <c r="N177" s="1">
+        <v>4</v>
+      </c>
+      <c r="O177" s="1">
+        <v>4</v>
+      </c>
+      <c r="P177" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q177" s="1">
+        <v>1</v>
+      </c>
+      <c r="R177" s="1">
+        <v>6</v>
+      </c>
+      <c r="S177" s="1">
+        <v>6</v>
+      </c>
+      <c r="T177" s="1">
+        <v>1</v>
+      </c>
+      <c r="U177" s="1">
+        <v>1</v>
+      </c>
+      <c r="V177" s="1">
+        <v>6</v>
+      </c>
+      <c r="W177" s="1">
+        <v>6</v>
+      </c>
+      <c r="X177" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y177" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z177" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA177" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB177" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC177" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD177" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE177" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF177" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG177" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH177" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI177" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="2">
+        <v>45219.838569328705</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D178" s="1">
+        <v>20216750</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0.83680555555474712</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H178" s="1">
+        <v>2</v>
+      </c>
+      <c r="I178" s="1">
+        <v>5</v>
+      </c>
+      <c r="J178" s="1">
+        <v>5</v>
+      </c>
+      <c r="K178" s="1">
+        <v>5</v>
+      </c>
+      <c r="L178" s="1">
+        <v>2</v>
+      </c>
+      <c r="M178" s="1">
+        <v>2</v>
+      </c>
+      <c r="N178" s="1">
+        <v>5</v>
+      </c>
+      <c r="O178" s="1">
+        <v>5</v>
+      </c>
+      <c r="P178" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q178" s="1">
+        <v>2</v>
+      </c>
+      <c r="R178" s="1">
+        <v>4</v>
+      </c>
+      <c r="S178" s="1">
+        <v>5</v>
+      </c>
+      <c r="T178" s="1">
+        <v>2</v>
+      </c>
+      <c r="U178" s="1">
+        <v>2</v>
+      </c>
+      <c r="V178" s="1">
+        <v>4</v>
+      </c>
+      <c r="W178" s="1">
+        <v>5</v>
+      </c>
+      <c r="X178" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y178" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z178" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA178" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB178" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC178" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD178" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE178" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF178" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG178" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH178" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI178" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ178" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2">
+        <v>45219.843496550922</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D179" s="1">
+        <v>20222561</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0.83750000000145519</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H179" s="1">
+        <v>4</v>
+      </c>
+      <c r="I179" s="1">
+        <v>5</v>
+      </c>
+      <c r="J179" s="1">
+        <v>4</v>
+      </c>
+      <c r="K179" s="1">
+        <v>5</v>
+      </c>
+      <c r="L179" s="1">
+        <v>2</v>
+      </c>
+      <c r="M179" s="1">
+        <v>3</v>
+      </c>
+      <c r="N179" s="1">
+        <v>3</v>
+      </c>
+      <c r="O179" s="1">
+        <v>4</v>
+      </c>
+      <c r="P179" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q179" s="1">
+        <v>2</v>
+      </c>
+      <c r="R179" s="1">
+        <v>5</v>
+      </c>
+      <c r="S179" s="1">
+        <v>2</v>
+      </c>
+      <c r="T179" s="1">
+        <v>5</v>
+      </c>
+      <c r="U179" s="1">
+        <v>2</v>
+      </c>
+      <c r="V179" s="1">
+        <v>5</v>
+      </c>
+      <c r="W179" s="1">
+        <v>5</v>
+      </c>
+      <c r="X179" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y179" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z179" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA179" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB179" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC179" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD179" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE179" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF179" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG179" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH179" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI179" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ179" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2">
+        <v>45219.886443171301</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D180" s="1">
+        <v>20226423</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0.88402777777810115</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK180" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL180" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM180" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN180" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO180" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP180" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ180" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR180" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS180" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT180" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU180" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV180" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW180" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX180" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY180" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ180" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA180" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB180" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC180" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD180" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE180" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF180" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG180" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH180" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI180" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ180" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK180" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL180" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="2">
+        <v>45219.910145046291</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D181" s="1">
+        <v>20232713</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0.90902777777955635</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY181" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL181" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM181" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="2">
+        <v>45219.91116664352</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D182" s="1">
+        <v>20232508</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0.90763888889341615</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK182" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL182" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM182" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN182" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO182" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP182" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ182" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR182" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS182" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT182" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU182" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV182" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW182" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX182" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY182" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ182" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA182" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB182" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC182" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD182" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE182" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF182" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG182" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH182" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI182" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ182" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK182" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL182" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="2">
+        <v>45219.923215960647</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D183" s="1">
+        <v>20236623</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0.42222222222335404</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H183" s="1">
+        <v>2</v>
+      </c>
+      <c r="I183" s="1">
+        <v>2</v>
+      </c>
+      <c r="J183" s="1">
+        <v>2</v>
+      </c>
+      <c r="K183" s="1">
+        <v>1</v>
+      </c>
+      <c r="L183" s="1">
+        <v>2</v>
+      </c>
+      <c r="M183" s="1">
+        <v>2</v>
+      </c>
+      <c r="N183" s="1">
+        <v>2</v>
+      </c>
+      <c r="O183" s="1">
+        <v>2</v>
+      </c>
+      <c r="P183" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q183" s="1">
+        <v>2</v>
+      </c>
+      <c r="R183" s="1">
+        <v>2</v>
+      </c>
+      <c r="S183" s="1">
+        <v>2</v>
+      </c>
+      <c r="T183" s="1">
+        <v>2</v>
+      </c>
+      <c r="U183" s="1">
+        <v>2</v>
+      </c>
+      <c r="V183" s="1">
+        <v>2</v>
+      </c>
+      <c r="W183" s="1">
+        <v>2</v>
+      </c>
+      <c r="X183" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y183" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z183" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA183" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB183" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC183" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD183" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE183" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF183" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG183" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH183" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI183" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ183" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="2">
+        <v>45219.935283275467</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D184" s="1">
+        <v>20193328</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0.93333333333430346</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H184" s="1">
+        <v>2</v>
+      </c>
+      <c r="I184" s="1">
+        <v>5</v>
+      </c>
+      <c r="J184" s="1">
+        <v>5</v>
+      </c>
+      <c r="K184" s="1">
+        <v>4</v>
+      </c>
+      <c r="L184" s="1">
+        <v>3</v>
+      </c>
+      <c r="M184" s="1">
+        <v>2</v>
+      </c>
+      <c r="N184" s="1">
+        <v>4</v>
+      </c>
+      <c r="O184" s="1">
+        <v>3</v>
+      </c>
+      <c r="P184" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q184" s="1">
+        <v>1</v>
+      </c>
+      <c r="R184" s="1">
+        <v>5</v>
+      </c>
+      <c r="S184" s="1">
+        <v>6</v>
+      </c>
+      <c r="T184" s="1">
+        <v>1</v>
+      </c>
+      <c r="U184" s="1">
+        <v>3</v>
+      </c>
+      <c r="V184" s="1">
+        <v>5</v>
+      </c>
+      <c r="W184" s="1">
+        <v>5</v>
+      </c>
+      <c r="X184" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y184" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z184" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA184" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB184" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC184" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD184" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE184" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF184" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG184" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH184" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI184" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="2">
+        <v>45219.966071828705</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D185" s="1">
+        <v>20224152</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0.46527777778101154</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H185" s="1">
+        <v>3</v>
+      </c>
+      <c r="I185" s="1">
+        <v>3</v>
+      </c>
+      <c r="J185" s="1">
+        <v>2</v>
+      </c>
+      <c r="K185" s="1">
+        <v>3</v>
+      </c>
+      <c r="L185" s="1">
+        <v>4</v>
+      </c>
+      <c r="M185" s="1">
+        <v>2</v>
+      </c>
+      <c r="N185" s="1">
+        <v>1</v>
+      </c>
+      <c r="O185" s="1">
+        <v>2</v>
+      </c>
+      <c r="P185" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q185" s="1">
+        <v>3</v>
+      </c>
+      <c r="R185" s="1">
+        <v>4</v>
+      </c>
+      <c r="S185" s="1">
+        <v>2</v>
+      </c>
+      <c r="T185" s="1">
+        <v>3</v>
+      </c>
+      <c r="U185" s="1">
+        <v>2</v>
+      </c>
+      <c r="V185" s="1">
+        <v>3</v>
+      </c>
+      <c r="W185" s="1">
+        <v>3</v>
+      </c>
+      <c r="X185" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y185" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z185" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA185" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB185" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC185" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD185" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE185" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF185" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG185" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH185" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI185" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ185" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="2">
+        <v>45219.969408275458</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D186" s="1">
+        <v>20233824</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0.96319444444088731</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK186" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL186" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM186" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN186" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO186" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP186" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ186" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR186" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS186" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT186" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU186" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV186" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW186" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX186" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY186" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ186" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA186" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB186" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC186" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD186" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE186" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF186" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG186" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH186" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI186" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ186" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK186" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL186" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="2">
+        <v>45219.971396018518</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D187" s="1">
+        <v>20232627</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0.96875</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H187" s="1">
+        <v>2</v>
+      </c>
+      <c r="I187" s="1">
+        <v>4</v>
+      </c>
+      <c r="J187" s="1">
+        <v>3</v>
+      </c>
+      <c r="K187" s="1">
+        <v>4</v>
+      </c>
+      <c r="L187" s="1">
+        <v>3</v>
+      </c>
+      <c r="M187" s="1">
+        <v>2</v>
+      </c>
+      <c r="N187" s="1">
+        <v>3</v>
+      </c>
+      <c r="O187" s="1">
+        <v>3</v>
+      </c>
+      <c r="P187" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q187" s="1">
+        <v>4</v>
+      </c>
+      <c r="R187" s="1">
+        <v>4</v>
+      </c>
+      <c r="S187" s="1">
+        <v>3</v>
+      </c>
+      <c r="T187" s="1">
+        <v>3</v>
+      </c>
+      <c r="U187" s="1">
+        <v>3</v>
+      </c>
+      <c r="V187" s="1">
+        <v>3</v>
+      </c>
+      <c r="W187" s="1">
+        <v>4</v>
+      </c>
+      <c r="X187" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y187" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z187" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA187" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB187" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC187" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD187" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE187" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF187" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG187" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH187" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI187" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ187" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="2">
+        <v>45219.976703761575</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D188" s="1">
+        <v>20236224</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0.97499999999854481</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H188" s="1">
+        <v>4</v>
+      </c>
+      <c r="I188" s="1">
+        <v>4</v>
+      </c>
+      <c r="J188" s="1">
+        <v>3</v>
+      </c>
+      <c r="K188" s="1">
+        <v>3</v>
+      </c>
+      <c r="L188" s="1">
+        <v>4</v>
+      </c>
+      <c r="M188" s="1">
+        <v>4</v>
+      </c>
+      <c r="N188" s="1">
+        <v>3</v>
+      </c>
+      <c r="O188" s="1">
+        <v>3</v>
+      </c>
+      <c r="P188" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q188" s="1">
+        <v>4</v>
+      </c>
+      <c r="R188" s="1">
+        <v>3</v>
+      </c>
+      <c r="S188" s="1">
+        <v>3</v>
+      </c>
+      <c r="T188" s="1">
+        <v>3</v>
+      </c>
+      <c r="U188" s="1">
+        <v>3</v>
+      </c>
+      <c r="V188" s="1">
+        <v>2</v>
+      </c>
+      <c r="W188" s="1">
+        <v>4</v>
+      </c>
+      <c r="X188" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y188" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z188" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA188" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB188" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC188" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD188" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE188" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF188" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG188" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH188" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI188" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ188" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>45219.98229861111</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D189" s="1">
+        <v>20202837</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F189" s="3">
+        <v>0.97986111111094942</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H189" s="1">
+        <v>5</v>
+      </c>
+      <c r="I189" s="1">
+        <v>4</v>
+      </c>
+      <c r="J189" s="1">
+        <v>4</v>
+      </c>
+      <c r="K189" s="1">
+        <v>2</v>
+      </c>
+      <c r="L189" s="1">
+        <v>5</v>
+      </c>
+      <c r="M189" s="1">
+        <v>3</v>
+      </c>
+      <c r="N189" s="1">
+        <v>3</v>
+      </c>
+      <c r="O189" s="1">
+        <v>4</v>
+      </c>
+      <c r="P189" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q189" s="1">
+        <v>5</v>
+      </c>
+      <c r="R189" s="1">
+        <v>4</v>
+      </c>
+      <c r="S189" s="1">
+        <v>4</v>
+      </c>
+      <c r="T189" s="1">
+        <v>2</v>
+      </c>
+      <c r="U189" s="1">
+        <v>5</v>
+      </c>
+      <c r="V189" s="1">
+        <v>2</v>
+      </c>
+      <c r="W189" s="1">
+        <v>4</v>
+      </c>
+      <c r="X189" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y189" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z189" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA189" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB189" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC189" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD189" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE189" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF189" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG189" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH189" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI189" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ189" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="2">
+        <v>45219.987302187496</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D190" s="1">
+        <v>20221637</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F190" s="3">
+        <v>0.98333333333721384</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H190" s="1">
+        <v>4</v>
+      </c>
+      <c r="I190" s="1">
+        <v>2</v>
+      </c>
+      <c r="J190" s="1">
+        <v>3</v>
+      </c>
+      <c r="K190" s="1">
+        <v>1</v>
+      </c>
+      <c r="L190" s="1">
+        <v>2</v>
+      </c>
+      <c r="M190" s="1">
+        <v>3</v>
+      </c>
+      <c r="N190" s="1">
+        <v>2</v>
+      </c>
+      <c r="O190" s="1">
+        <v>2</v>
+      </c>
+      <c r="P190" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q190" s="1">
+        <v>4</v>
+      </c>
+      <c r="R190" s="1">
+        <v>4</v>
+      </c>
+      <c r="S190" s="1">
+        <v>3</v>
+      </c>
+      <c r="T190" s="1">
+        <v>2</v>
+      </c>
+      <c r="U190" s="1">
+        <v>3</v>
+      </c>
+      <c r="V190" s="1">
+        <v>4</v>
+      </c>
+      <c r="W190" s="1">
+        <v>4</v>
+      </c>
+      <c r="X190" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y190" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z190" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA190" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB190" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC190" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD190" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE190" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF190" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG190" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH190" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI190" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="2">
+        <v>45219.995460949074</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D191" s="1">
+        <v>20236263</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F191" s="3">
+        <v>0.99027777777519077</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H191" s="1">
+        <v>2</v>
+      </c>
+      <c r="I191" s="1">
+        <v>4</v>
+      </c>
+      <c r="J191" s="1">
+        <v>5</v>
+      </c>
+      <c r="K191" s="1">
+        <v>4</v>
+      </c>
+      <c r="L191" s="1">
+        <v>2</v>
+      </c>
+      <c r="M191" s="1">
+        <v>2</v>
+      </c>
+      <c r="N191" s="1">
+        <v>4</v>
+      </c>
+      <c r="O191" s="1">
+        <v>5</v>
+      </c>
+      <c r="P191" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q191" s="1">
+        <v>3</v>
+      </c>
+      <c r="R191" s="1">
+        <v>4</v>
+      </c>
+      <c r="S191" s="1">
+        <v>4</v>
+      </c>
+      <c r="T191" s="1">
+        <v>2</v>
+      </c>
+      <c r="U191" s="1">
+        <v>1</v>
+      </c>
+      <c r="V191" s="1">
+        <v>4</v>
+      </c>
+      <c r="W191" s="1">
+        <v>4</v>
+      </c>
+      <c r="X191" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y191" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z191" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA191" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB191" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC191" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD191" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE191" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF191" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG191" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH191" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI191" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ191" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="2">
+        <v>45220.00267736111</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D192" s="1">
+        <v>20212986</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F192" s="3">
+        <v>6.944444467080757E-4</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H192" s="1">
+        <v>3</v>
+      </c>
+      <c r="I192" s="1">
+        <v>5</v>
+      </c>
+      <c r="J192" s="1">
+        <v>4</v>
+      </c>
+      <c r="K192" s="1">
+        <v>4</v>
+      </c>
+      <c r="L192" s="1">
+        <v>3</v>
+      </c>
+      <c r="M192" s="1">
+        <v>4</v>
+      </c>
+      <c r="N192" s="1">
+        <v>4</v>
+      </c>
+      <c r="O192" s="1">
+        <v>5</v>
+      </c>
+      <c r="P192" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q192" s="1">
+        <v>2</v>
+      </c>
+      <c r="R192" s="1">
+        <v>5</v>
+      </c>
+      <c r="S192" s="1">
+        <v>3</v>
+      </c>
+      <c r="T192" s="1">
+        <v>4</v>
+      </c>
+      <c r="U192" s="1">
+        <v>5</v>
+      </c>
+      <c r="V192" s="1">
+        <v>5</v>
+      </c>
+      <c r="W192" s="1">
+        <v>5</v>
+      </c>
+      <c r="X192" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y192" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z192" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA192" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB192" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC192" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD192" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE192" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF192" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG192" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH192" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI192" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="2">
+        <v>45220.002961238424</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D193" s="1">
+        <v>20232832</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK193" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL193" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM193" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN193" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO193" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP193" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ193" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR193" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS193" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT193" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU193" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV193" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW193" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX193" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY193" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ193" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA193" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB193" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC193" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD193" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE193" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF193" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG193" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH193" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI193" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ193" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK193" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL193" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2">
+        <v>45220.080408854163</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D194" s="1">
+        <v>20192953</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F194" s="3">
+        <v>6.8749999998544808E-2</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK194" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL194" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM194" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN194" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO194" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP194" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ194" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR194" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS194" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT194" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU194" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV194" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW194" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX194" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY194" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ194" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA194" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB194" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC194" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD194" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE194" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF194" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG194" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH194" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI194" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ194" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK194" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL194" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM194" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="2">
+        <v>45220.109306701386</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D195" s="1">
+        <v>20232738</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F195" s="3">
+        <v>0.10763888889050577</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H195" s="1">
+        <v>1</v>
+      </c>
+      <c r="I195" s="1">
+        <v>3</v>
+      </c>
+      <c r="J195" s="1">
+        <v>6</v>
+      </c>
+      <c r="K195" s="1">
+        <v>3</v>
+      </c>
+      <c r="L195" s="1">
+        <v>5</v>
+      </c>
+      <c r="M195" s="1">
+        <v>2</v>
+      </c>
+      <c r="N195" s="1">
+        <v>4</v>
+      </c>
+      <c r="O195" s="1">
+        <v>5</v>
+      </c>
+      <c r="P195" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q195" s="1">
+        <v>2</v>
+      </c>
+      <c r="R195" s="1">
+        <v>3</v>
+      </c>
+      <c r="S195" s="1">
+        <v>4</v>
+      </c>
+      <c r="T195" s="1">
+        <v>2</v>
+      </c>
+      <c r="U195" s="1">
+        <v>4</v>
+      </c>
+      <c r="V195" s="1">
+        <v>5</v>
+      </c>
+      <c r="W195" s="1">
+        <v>4</v>
+      </c>
+      <c r="X195" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y195" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z195" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA195" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB195" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC195" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD195" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE195" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF195" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG195" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH195" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI195" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ195" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="2">
+        <v>45220.18277590278</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D196" s="1">
+        <v>20232588</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F196" s="3">
+        <v>0.18055555555474712</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK196" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL196" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM196" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN196" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO196" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP196" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ196" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR196" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS196" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT196" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU196" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV196" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW196" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX196" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY196" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ196" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA196" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB196" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC196" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD196" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE196" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF196" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG196" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH196" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI196" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ196" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK196" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL196" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="2">
+        <v>45220.235932881944</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D197" s="1">
+        <v>20236646</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F197" s="3">
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL197" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP197" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS197" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ197" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA197" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB197" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC197" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD197" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE197" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF197" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG197" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH197" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI197" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ197" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK197" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL197" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM197" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="2">
+        <v>45220.313309895835</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D198" s="1">
+        <v>20232327</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F198" s="3">
+        <v>0.30833333333430346</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H198" s="1">
+        <v>3</v>
+      </c>
+      <c r="I198" s="1">
+        <v>5</v>
+      </c>
+      <c r="J198" s="1">
+        <v>3</v>
+      </c>
+      <c r="K198" s="1">
+        <v>5</v>
+      </c>
+      <c r="L198" s="1">
+        <v>4</v>
+      </c>
+      <c r="M198" s="1">
+        <v>4</v>
+      </c>
+      <c r="N198" s="1">
+        <v>4</v>
+      </c>
+      <c r="O198" s="1">
+        <v>4</v>
+      </c>
+      <c r="P198" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q198" s="1">
+        <v>3</v>
+      </c>
+      <c r="R198" s="1">
+        <v>5</v>
+      </c>
+      <c r="S198" s="1">
+        <v>2</v>
+      </c>
+      <c r="T198" s="1">
+        <v>3</v>
+      </c>
+      <c r="U198" s="1">
+        <v>4</v>
+      </c>
+      <c r="V198" s="1">
+        <v>5</v>
+      </c>
+      <c r="W198" s="1">
+        <v>5</v>
+      </c>
+      <c r="X198" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y198" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z198" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA198" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB198" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC198" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD198" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE198" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF198" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG198" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH198" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI198" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ198" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B1D40-44FD-FF4B-80DE-64F14F201CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F44043D-32B0-6E49-BD04-B3180ED8CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49480" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="601">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1583,6 +1583,246 @@
   </si>
   <si>
     <t xml:space="preserve">박소희 </t>
+  </si>
+  <si>
+    <t>nihao1375@naver.com</t>
+  </si>
+  <si>
+    <t>황지훈</t>
+  </si>
+  <si>
+    <t>jisung5549@naver.com</t>
+  </si>
+  <si>
+    <t>송지성</t>
+  </si>
+  <si>
+    <t>a01045477730@gmail.com</t>
+  </si>
+  <si>
+    <t>박윤재</t>
+  </si>
+  <si>
+    <t>nic0903930@gmail.com</t>
+  </si>
+  <si>
+    <t>나임채</t>
+  </si>
+  <si>
+    <t>cilly03@naver.com</t>
+  </si>
+  <si>
+    <t>이예랑</t>
+  </si>
+  <si>
+    <t>year0309@naver.com</t>
+  </si>
+  <si>
+    <t>박소희</t>
+  </si>
+  <si>
+    <t>dltnwlskk@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어 전공</t>
+  </si>
+  <si>
+    <t>이수진</t>
+  </si>
+  <si>
+    <t>amyson0622@naver.com</t>
+  </si>
+  <si>
+    <t>손진아</t>
+  </si>
+  <si>
+    <t>sally4417776@naver.com</t>
+  </si>
+  <si>
+    <t>안세연</t>
+  </si>
+  <si>
+    <t>chominseo1029@naver.com</t>
+  </si>
+  <si>
+    <t>조민서</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>whddlf0504@icloud.com</t>
+  </si>
+  <si>
+    <t>김종일</t>
+  </si>
+  <si>
+    <t>last5281@naver.com</t>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
+    <t>srhst1130@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>윤하은</t>
+  </si>
+  <si>
+    <t>ckckguswns@naver.com</t>
+  </si>
+  <si>
+    <t>차현준</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>ridsigdog@gmail.com</t>
+  </si>
+  <si>
+    <t>박건민</t>
+  </si>
+  <si>
+    <t>eugene3551@gmail.com</t>
+  </si>
+  <si>
+    <t>유수영</t>
+  </si>
+  <si>
+    <t>ehgus4597@gmail.com</t>
+  </si>
+  <si>
+    <t>김도현</t>
+  </si>
+  <si>
+    <t>sjb0008@naver.com</t>
+  </si>
+  <si>
+    <t>심지범</t>
+  </si>
+  <si>
+    <t>yantaijin1@naver.com</t>
+  </si>
+  <si>
+    <t>박종진</t>
+  </si>
+  <si>
+    <t>wkdtngus2001@naver.com</t>
+  </si>
+  <si>
+    <t>장수현</t>
+  </si>
+  <si>
+    <t>amielee1997@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>hayeong206@gmail.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>abcdefg76500@naver.com</t>
+  </si>
+  <si>
+    <t>노희망</t>
+  </si>
+  <si>
+    <t>eunku7188@naver.com</t>
+  </si>
+  <si>
+    <t>곽은규</t>
+  </si>
+  <si>
+    <t>limmh96@gmail.com</t>
+  </si>
+  <si>
+    <t>임민호</t>
+  </si>
+  <si>
+    <t>taeho4756@naver.com</t>
+  </si>
+  <si>
+    <t>조태호</t>
+  </si>
+  <si>
+    <t>phg1242@naver.com</t>
+  </si>
+  <si>
+    <t>박효근</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
+  </si>
+  <si>
+    <t>lsjlol1264@naver.com</t>
+  </si>
+  <si>
+    <t>이세진</t>
+  </si>
+  <si>
+    <t>qodnwnop@naver.com</t>
+  </si>
+  <si>
+    <t>이우주</t>
+  </si>
+  <si>
+    <t>tjdud6975@naver.com</t>
+  </si>
+  <si>
+    <t>청각학전공</t>
+  </si>
+  <si>
+    <t>이서영</t>
+  </si>
+  <si>
+    <t>jw011400@naver.com</t>
+  </si>
+  <si>
+    <t>안정우</t>
+  </si>
+  <si>
+    <t>dldmlcks56@naver.com</t>
+  </si>
+  <si>
+    <t>이의찬</t>
+  </si>
+  <si>
+    <t>tlswnals04@naver.com</t>
+  </si>
+  <si>
+    <t>신주민</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>odh4743@naver.com</t>
+  </si>
+  <si>
+    <t>오동훈</t>
+  </si>
+  <si>
+    <t>duaalstj9429@naver.com</t>
+  </si>
+  <si>
+    <t>염민서</t>
   </si>
 </sst>
 </file>
@@ -1857,11 +2097,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM198"/>
+  <dimension ref="A1:BM237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A199" sqref="A199:BM237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23736,6 +23976,4296 @@
         <v>3</v>
       </c>
     </row>
+    <row r="199" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="2">
+        <v>45220.359555150462</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D199" s="1">
+        <v>20172586</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F199" s="3">
+        <v>0.35763888889050577</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H199" s="1">
+        <v>2</v>
+      </c>
+      <c r="I199" s="1">
+        <v>4</v>
+      </c>
+      <c r="J199" s="1">
+        <v>3</v>
+      </c>
+      <c r="K199" s="1">
+        <v>4</v>
+      </c>
+      <c r="L199" s="1">
+        <v>2</v>
+      </c>
+      <c r="M199" s="1">
+        <v>3</v>
+      </c>
+      <c r="N199" s="1">
+        <v>3</v>
+      </c>
+      <c r="O199" s="1">
+        <v>2</v>
+      </c>
+      <c r="P199" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q199" s="1">
+        <v>1</v>
+      </c>
+      <c r="R199" s="1">
+        <v>4</v>
+      </c>
+      <c r="S199" s="1">
+        <v>3</v>
+      </c>
+      <c r="T199" s="1">
+        <v>1</v>
+      </c>
+      <c r="U199" s="1">
+        <v>3</v>
+      </c>
+      <c r="V199" s="1">
+        <v>5</v>
+      </c>
+      <c r="W199" s="1">
+        <v>5</v>
+      </c>
+      <c r="X199" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y199" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z199" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA199" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB199" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC199" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD199" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE199" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF199" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG199" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH199" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI199" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="2">
+        <v>45220.369074803239</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D200" s="1">
+        <v>20222970</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0.367361111115315</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H200" s="1">
+        <v>1</v>
+      </c>
+      <c r="I200" s="1">
+        <v>4</v>
+      </c>
+      <c r="J200" s="1">
+        <v>4</v>
+      </c>
+      <c r="K200" s="1">
+        <v>4</v>
+      </c>
+      <c r="L200" s="1">
+        <v>1</v>
+      </c>
+      <c r="M200" s="1">
+        <v>1</v>
+      </c>
+      <c r="N200" s="1">
+        <v>4</v>
+      </c>
+      <c r="O200" s="1">
+        <v>4</v>
+      </c>
+      <c r="P200" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q200" s="1">
+        <v>1</v>
+      </c>
+      <c r="R200" s="1">
+        <v>4</v>
+      </c>
+      <c r="S200" s="1">
+        <v>4</v>
+      </c>
+      <c r="T200" s="1">
+        <v>1</v>
+      </c>
+      <c r="U200" s="1">
+        <v>1</v>
+      </c>
+      <c r="V200" s="1">
+        <v>4</v>
+      </c>
+      <c r="W200" s="1">
+        <v>4</v>
+      </c>
+      <c r="X200" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y200" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z200" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA200" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB200" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC200" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD200" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE200" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF200" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG200" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH200" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI200" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="2">
+        <v>45220.397426030089</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D201" s="1">
+        <v>20232329</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0.39583333333575865</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H201" s="1">
+        <v>3</v>
+      </c>
+      <c r="I201" s="1">
+        <v>4</v>
+      </c>
+      <c r="J201" s="1">
+        <v>3</v>
+      </c>
+      <c r="K201" s="1">
+        <v>5</v>
+      </c>
+      <c r="L201" s="1">
+        <v>1</v>
+      </c>
+      <c r="M201" s="1">
+        <v>4</v>
+      </c>
+      <c r="N201" s="1">
+        <v>5</v>
+      </c>
+      <c r="O201" s="1">
+        <v>5</v>
+      </c>
+      <c r="P201" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q201" s="1">
+        <v>2</v>
+      </c>
+      <c r="R201" s="1">
+        <v>4</v>
+      </c>
+      <c r="S201" s="1">
+        <v>3</v>
+      </c>
+      <c r="T201" s="1">
+        <v>4</v>
+      </c>
+      <c r="U201" s="1">
+        <v>5</v>
+      </c>
+      <c r="V201" s="1">
+        <v>5</v>
+      </c>
+      <c r="W201" s="1">
+        <v>5</v>
+      </c>
+      <c r="X201" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y201" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z201" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA201" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB201" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC201" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD201" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE201" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF201" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG201" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH201" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI201" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ201" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="2">
+        <v>45220.406495856485</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D202" s="1">
+        <v>20222409</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F202" s="3">
+        <v>0.40486111110658385</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H202" s="1">
+        <v>5</v>
+      </c>
+      <c r="I202" s="1">
+        <v>4</v>
+      </c>
+      <c r="J202" s="1">
+        <v>4</v>
+      </c>
+      <c r="K202" s="1">
+        <v>4</v>
+      </c>
+      <c r="L202" s="1">
+        <v>3</v>
+      </c>
+      <c r="M202" s="1">
+        <v>3</v>
+      </c>
+      <c r="N202" s="1">
+        <v>4</v>
+      </c>
+      <c r="O202" s="1">
+        <v>5</v>
+      </c>
+      <c r="P202" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q202" s="1">
+        <v>5</v>
+      </c>
+      <c r="R202" s="1">
+        <v>4</v>
+      </c>
+      <c r="S202" s="1">
+        <v>3</v>
+      </c>
+      <c r="T202" s="1">
+        <v>4</v>
+      </c>
+      <c r="U202" s="1">
+        <v>4</v>
+      </c>
+      <c r="V202" s="1">
+        <v>4</v>
+      </c>
+      <c r="W202" s="1">
+        <v>4</v>
+      </c>
+      <c r="X202" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y202" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z202" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA202" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB202" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC202" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD202" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE202" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF202" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG202" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH202" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI202" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ202" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="2">
+        <v>45220.427254525464</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D203" s="1">
+        <v>20221629</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F203" s="3">
+        <v>0.42222222222335404</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H203" s="1">
+        <v>3</v>
+      </c>
+      <c r="I203" s="1">
+        <v>2</v>
+      </c>
+      <c r="J203" s="1">
+        <v>3</v>
+      </c>
+      <c r="K203" s="1">
+        <v>3</v>
+      </c>
+      <c r="L203" s="1">
+        <v>1</v>
+      </c>
+      <c r="M203" s="1">
+        <v>2</v>
+      </c>
+      <c r="N203" s="1">
+        <v>2</v>
+      </c>
+      <c r="O203" s="1">
+        <v>2</v>
+      </c>
+      <c r="P203" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q203" s="1">
+        <v>1</v>
+      </c>
+      <c r="R203" s="1">
+        <v>3</v>
+      </c>
+      <c r="S203" s="1">
+        <v>2</v>
+      </c>
+      <c r="T203" s="1">
+        <v>1</v>
+      </c>
+      <c r="U203" s="1">
+        <v>1</v>
+      </c>
+      <c r="V203" s="1">
+        <v>4</v>
+      </c>
+      <c r="W203" s="1">
+        <v>3</v>
+      </c>
+      <c r="X203" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y203" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z203" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA203" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB203" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC203" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD203" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE203" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF203" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG203" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH203" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI203" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="2">
+        <v>45220.440263564815</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D204" s="1">
+        <v>20222950</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F204" s="3">
+        <v>0.93819444444670808</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H204" s="1">
+        <v>1</v>
+      </c>
+      <c r="I204" s="1">
+        <v>5</v>
+      </c>
+      <c r="J204" s="1">
+        <v>5</v>
+      </c>
+      <c r="K204" s="1">
+        <v>5</v>
+      </c>
+      <c r="L204" s="1">
+        <v>1</v>
+      </c>
+      <c r="M204" s="1">
+        <v>1</v>
+      </c>
+      <c r="N204" s="1">
+        <v>5</v>
+      </c>
+      <c r="O204" s="1">
+        <v>5</v>
+      </c>
+      <c r="P204" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q204" s="1">
+        <v>1</v>
+      </c>
+      <c r="R204" s="1">
+        <v>5</v>
+      </c>
+      <c r="S204" s="1">
+        <v>6</v>
+      </c>
+      <c r="T204" s="1">
+        <v>1</v>
+      </c>
+      <c r="U204" s="1">
+        <v>1</v>
+      </c>
+      <c r="V204" s="1">
+        <v>5</v>
+      </c>
+      <c r="W204" s="1">
+        <v>4</v>
+      </c>
+      <c r="X204" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y204" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z204" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA204" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB204" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC204" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD204" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE204" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF204" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG204" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH204" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI204" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="2">
+        <v>45220.49192158565</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D205" s="1">
+        <v>20191529</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F205" s="3">
+        <v>0.48958333333575865</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK205" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL205" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM205" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN205" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO205" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP205" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ205" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR205" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS205" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT205" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU205" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV205" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW205" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX205" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY205" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ205" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA205" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB205" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC205" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD205" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE205" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF205" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG205" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH205" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI205" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ205" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK205" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL205" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM205" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="2">
+        <v>45220.496452187501</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D206" s="1">
+        <v>20223825</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F206" s="3">
+        <v>0.49444444444088731</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H206" s="1">
+        <v>1</v>
+      </c>
+      <c r="I206" s="1">
+        <v>6</v>
+      </c>
+      <c r="J206" s="1">
+        <v>6</v>
+      </c>
+      <c r="K206" s="1">
+        <v>3</v>
+      </c>
+      <c r="L206" s="1">
+        <v>1</v>
+      </c>
+      <c r="M206" s="1">
+        <v>1</v>
+      </c>
+      <c r="N206" s="1">
+        <v>5</v>
+      </c>
+      <c r="O206" s="1">
+        <v>4</v>
+      </c>
+      <c r="P206" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q206" s="1">
+        <v>2</v>
+      </c>
+      <c r="R206" s="1">
+        <v>6</v>
+      </c>
+      <c r="S206" s="1">
+        <v>4</v>
+      </c>
+      <c r="T206" s="1">
+        <v>2</v>
+      </c>
+      <c r="U206" s="1">
+        <v>5</v>
+      </c>
+      <c r="V206" s="1">
+        <v>5</v>
+      </c>
+      <c r="W206" s="1">
+        <v>5</v>
+      </c>
+      <c r="X206" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y206" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z206" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA206" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB206" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC206" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD206" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE206" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF206" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG206" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH206" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI206" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ206" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="2">
+        <v>45220.49777721065</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D207" s="1">
+        <v>20236257</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F207" s="3">
+        <v>0.49652777778101154</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H207" s="1">
+        <v>1</v>
+      </c>
+      <c r="I207" s="1">
+        <v>6</v>
+      </c>
+      <c r="J207" s="1">
+        <v>6</v>
+      </c>
+      <c r="K207" s="1">
+        <v>6</v>
+      </c>
+      <c r="L207" s="1">
+        <v>1</v>
+      </c>
+      <c r="M207" s="1">
+        <v>1</v>
+      </c>
+      <c r="N207" s="1">
+        <v>6</v>
+      </c>
+      <c r="O207" s="1">
+        <v>6</v>
+      </c>
+      <c r="P207" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q207" s="1">
+        <v>1</v>
+      </c>
+      <c r="R207" s="1">
+        <v>4</v>
+      </c>
+      <c r="S207" s="1">
+        <v>5</v>
+      </c>
+      <c r="T207" s="1">
+        <v>1</v>
+      </c>
+      <c r="U207" s="1">
+        <v>1</v>
+      </c>
+      <c r="V207" s="1">
+        <v>6</v>
+      </c>
+      <c r="W207" s="1">
+        <v>6</v>
+      </c>
+      <c r="X207" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y207" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z207" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA207" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB207" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC207" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD207" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE207" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF207" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG207" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH207" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI207" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="2">
+        <v>45220.503014363421</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D208" s="1">
+        <v>20233959</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F208" s="3">
+        <v>0.50069444444670808</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H208" s="1">
+        <v>2</v>
+      </c>
+      <c r="I208" s="1">
+        <v>2</v>
+      </c>
+      <c r="J208" s="1">
+        <v>5</v>
+      </c>
+      <c r="K208" s="1">
+        <v>4</v>
+      </c>
+      <c r="L208" s="1">
+        <v>2</v>
+      </c>
+      <c r="M208" s="1">
+        <v>2</v>
+      </c>
+      <c r="N208" s="1">
+        <v>4</v>
+      </c>
+      <c r="O208" s="1">
+        <v>5</v>
+      </c>
+      <c r="P208" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q208" s="1">
+        <v>2</v>
+      </c>
+      <c r="R208" s="1">
+        <v>5</v>
+      </c>
+      <c r="S208" s="1">
+        <v>4</v>
+      </c>
+      <c r="T208" s="1">
+        <v>2</v>
+      </c>
+      <c r="U208" s="1">
+        <v>2</v>
+      </c>
+      <c r="V208" s="1">
+        <v>5</v>
+      </c>
+      <c r="W208" s="1">
+        <v>4</v>
+      </c>
+      <c r="X208" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y208" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z208" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA208" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB208" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC208" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD208" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE208" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF208" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG208" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH208" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI208" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ208" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="2">
+        <v>45220.51108394676</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D209" s="1">
+        <v>20232706</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F209" s="3">
+        <v>0.50972222222480923</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK209" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL209" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM209" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN209" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO209" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP209" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ209" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR209" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS209" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT209" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU209" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV209" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW209" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX209" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY209" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF209" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL209" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM209" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2">
+        <v>45220.519507766207</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C210" s="1">
+        <v>20185121</v>
+      </c>
+      <c r="D210" s="1">
+        <v>20185121</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0.51805555555620231</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H210" s="1">
+        <v>4</v>
+      </c>
+      <c r="I210" s="1">
+        <v>4</v>
+      </c>
+      <c r="J210" s="1">
+        <v>4</v>
+      </c>
+      <c r="K210" s="1">
+        <v>4</v>
+      </c>
+      <c r="L210" s="1">
+        <v>3</v>
+      </c>
+      <c r="M210" s="1">
+        <v>3</v>
+      </c>
+      <c r="N210" s="1">
+        <v>4</v>
+      </c>
+      <c r="O210" s="1">
+        <v>4</v>
+      </c>
+      <c r="P210" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q210" s="1">
+        <v>4</v>
+      </c>
+      <c r="R210" s="1">
+        <v>4</v>
+      </c>
+      <c r="S210" s="1">
+        <v>4</v>
+      </c>
+      <c r="T210" s="1">
+        <v>4</v>
+      </c>
+      <c r="U210" s="1">
+        <v>4</v>
+      </c>
+      <c r="V210" s="1">
+        <v>4</v>
+      </c>
+      <c r="W210" s="1">
+        <v>4</v>
+      </c>
+      <c r="X210" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y210" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z210" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA210" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB210" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC210" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD210" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE210" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF210" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG210" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH210" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI210" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ210" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="2">
+        <v>45220.544310173616</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D211" s="1">
+        <v>20192104</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0.54236111111094942</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H211" s="1">
+        <v>2</v>
+      </c>
+      <c r="I211" s="1">
+        <v>2</v>
+      </c>
+      <c r="J211" s="1">
+        <v>5</v>
+      </c>
+      <c r="K211" s="1">
+        <v>3</v>
+      </c>
+      <c r="L211" s="1">
+        <v>4</v>
+      </c>
+      <c r="M211" s="1">
+        <v>2</v>
+      </c>
+      <c r="N211" s="1">
+        <v>4</v>
+      </c>
+      <c r="O211" s="1">
+        <v>3</v>
+      </c>
+      <c r="P211" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q211" s="1">
+        <v>3</v>
+      </c>
+      <c r="R211" s="1">
+        <v>3</v>
+      </c>
+      <c r="S211" s="1">
+        <v>4</v>
+      </c>
+      <c r="T211" s="1">
+        <v>2</v>
+      </c>
+      <c r="U211" s="1">
+        <v>3</v>
+      </c>
+      <c r="V211" s="1">
+        <v>4</v>
+      </c>
+      <c r="W211" s="1">
+        <v>6</v>
+      </c>
+      <c r="X211" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y211" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z211" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA211" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB211" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC211" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD211" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE211" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF211" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG211" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH211" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI211" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ211" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="2">
+        <v>45220.557841956019</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D212" s="1">
+        <v>20191066</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F212" s="3">
+        <v>0.55555555555474712</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK212" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL212" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM212" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN212" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO212" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP212" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ212" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR212" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS212" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT212" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU212" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV212" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW212" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX212" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY212" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ212" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA212" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB212" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC212" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD212" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE212" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF212" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG212" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH212" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI212" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ212" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK212" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL212" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="2">
+        <v>45220.574233506944</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D213" s="1">
+        <v>20192233</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F213" s="3">
+        <v>7.2222222224809229E-2</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H213" s="1">
+        <v>2</v>
+      </c>
+      <c r="I213" s="1">
+        <v>2</v>
+      </c>
+      <c r="J213" s="1">
+        <v>3</v>
+      </c>
+      <c r="K213" s="1">
+        <v>2</v>
+      </c>
+      <c r="L213" s="1">
+        <v>1</v>
+      </c>
+      <c r="M213" s="1">
+        <v>2</v>
+      </c>
+      <c r="N213" s="1">
+        <v>3</v>
+      </c>
+      <c r="O213" s="1">
+        <v>2</v>
+      </c>
+      <c r="P213" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q213" s="1">
+        <v>1</v>
+      </c>
+      <c r="R213" s="1">
+        <v>3</v>
+      </c>
+      <c r="S213" s="1">
+        <v>3</v>
+      </c>
+      <c r="T213" s="1">
+        <v>2</v>
+      </c>
+      <c r="U213" s="1">
+        <v>1</v>
+      </c>
+      <c r="V213" s="1">
+        <v>3</v>
+      </c>
+      <c r="W213" s="1">
+        <v>3</v>
+      </c>
+      <c r="X213" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y213" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z213" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA213" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB213" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC213" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD213" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE213" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF213" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG213" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH213" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI213" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ213" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="2">
+        <v>45220.578169398148</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D214" s="1">
+        <v>20231203</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F214" s="3">
+        <v>0.57708333333721384</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H214" s="1">
+        <v>4</v>
+      </c>
+      <c r="I214" s="1">
+        <v>5</v>
+      </c>
+      <c r="J214" s="1">
+        <v>3</v>
+      </c>
+      <c r="K214" s="1">
+        <v>6</v>
+      </c>
+      <c r="L214" s="1">
+        <v>2</v>
+      </c>
+      <c r="M214" s="1">
+        <v>3</v>
+      </c>
+      <c r="N214" s="1">
+        <v>4</v>
+      </c>
+      <c r="O214" s="1">
+        <v>4</v>
+      </c>
+      <c r="P214" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q214" s="1">
+        <v>2</v>
+      </c>
+      <c r="R214" s="1">
+        <v>5</v>
+      </c>
+      <c r="S214" s="1">
+        <v>3</v>
+      </c>
+      <c r="T214" s="1">
+        <v>3</v>
+      </c>
+      <c r="U214" s="1">
+        <v>5</v>
+      </c>
+      <c r="V214" s="1">
+        <v>3</v>
+      </c>
+      <c r="W214" s="1">
+        <v>3</v>
+      </c>
+      <c r="X214" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y214" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z214" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA214" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB214" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC214" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD214" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE214" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF214" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG214" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH214" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI214" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ214" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="2">
+        <v>45220.59228517361</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D215" s="1">
+        <v>20202816</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F215" s="3">
+        <v>0.58958333333430346</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK215" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL215" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM215" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN215" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO215" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP215" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ215" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR215" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS215" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT215" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU215" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV215" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW215" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX215" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY215" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ215" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA215" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB215" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC215" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD215" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE215" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF215" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG215" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH215" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI215" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ215" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK215" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL215" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM215" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="2">
+        <v>45220.600649687505</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D216" s="1">
+        <v>20235214</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F216" s="3">
+        <v>0.59861111111240461</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H216" s="1">
+        <v>2</v>
+      </c>
+      <c r="I216" s="1">
+        <v>4</v>
+      </c>
+      <c r="J216" s="1">
+        <v>5</v>
+      </c>
+      <c r="K216" s="1">
+        <v>4</v>
+      </c>
+      <c r="L216" s="1">
+        <v>1</v>
+      </c>
+      <c r="M216" s="1">
+        <v>1</v>
+      </c>
+      <c r="N216" s="1">
+        <v>5</v>
+      </c>
+      <c r="O216" s="1">
+        <v>5</v>
+      </c>
+      <c r="P216" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q216" s="1">
+        <v>1</v>
+      </c>
+      <c r="R216" s="1">
+        <v>5</v>
+      </c>
+      <c r="S216" s="1">
+        <v>6</v>
+      </c>
+      <c r="T216" s="1">
+        <v>2</v>
+      </c>
+      <c r="U216" s="1">
+        <v>3</v>
+      </c>
+      <c r="V216" s="1">
+        <v>5</v>
+      </c>
+      <c r="W216" s="1">
+        <v>4</v>
+      </c>
+      <c r="X216" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y216" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z216" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA216" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB216" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC216" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD216" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE216" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF216" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG216" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH216" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI216" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ216" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="2">
+        <v>45220.616416481484</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D217" s="1">
+        <v>20223208</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F217" s="3">
+        <v>0.60694444444379769</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK217" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL217" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM217" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN217" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO217" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP217" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ217" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR217" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS217" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT217" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU217" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV217" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW217" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX217" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY217" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ217" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA217" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB217" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC217" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD217" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE217" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF217" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG217" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH217" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI217" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ217" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK217" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL217" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="2">
+        <v>45220.626207499998</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D218" s="1">
+        <v>20217086</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F218" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK218" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL218" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM218" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN218" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO218" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP218" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ218" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR218" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS218" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT218" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU218" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV218" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW218" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX218" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY218" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ218" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA218" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB218" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC218" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD218" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE218" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF218" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG218" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH218" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI218" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ218" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK218" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL218" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM218" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="2">
+        <v>45220.634286030094</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D219" s="1">
+        <v>20191517</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F219" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK219" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL219" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM219" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN219" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO219" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP219" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ219" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR219" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS219" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT219" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU219" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV219" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW219" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX219" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY219" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ219" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA219" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB219" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC219" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD219" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE219" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF219" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG219" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH219" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI219" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ219" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK219" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL219" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM219" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="2">
+        <v>45220.637671608798</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D220" s="1">
+        <v>20201090</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F220" s="3">
+        <v>0.632638888884685</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK220" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL220" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM220" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN220" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO220" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP220" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ220" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR220" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS220" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT220" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU220" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV220" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW220" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX220" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY220" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ220" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA220" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB220" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC220" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD220" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE220" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF220" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG220" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH220" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI220" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ220" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK220" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL220" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM220" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="2">
+        <v>45220.666172916666</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D221" s="1">
+        <v>20217159</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F221" s="3">
+        <v>0.66249999999854481</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK221" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL221" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM221" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN221" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO221" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP221" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ221" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR221" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS221" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT221" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU221" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV221" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW221" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX221" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY221" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ221" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA221" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB221" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC221" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD221" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE221" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF221" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG221" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH221" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI221" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ221" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK221" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL221" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM221" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="2">
+        <v>45220.668857604163</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D222" s="1">
+        <v>20233430</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F222" s="3">
+        <v>0.6680555555576575</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK222" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL222" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM222" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN222" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO222" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP222" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ222" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR222" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS222" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT222" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU222" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV222" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW222" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX222" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY222" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ222" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA222" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB222" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC222" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD222" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE222" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF222" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG222" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH222" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI222" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ222" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK222" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL222" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM222" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="2">
+        <v>45220.682212615742</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D223" s="1">
+        <v>20232946</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F223" s="3">
+        <v>0.68055555555474712</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H223" s="1">
+        <v>2</v>
+      </c>
+      <c r="I223" s="1">
+        <v>5</v>
+      </c>
+      <c r="J223" s="1">
+        <v>5</v>
+      </c>
+      <c r="K223" s="1">
+        <v>3</v>
+      </c>
+      <c r="L223" s="1">
+        <v>3</v>
+      </c>
+      <c r="M223" s="1">
+        <v>1</v>
+      </c>
+      <c r="N223" s="1">
+        <v>5</v>
+      </c>
+      <c r="O223" s="1">
+        <v>4</v>
+      </c>
+      <c r="P223" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q223" s="1">
+        <v>2</v>
+      </c>
+      <c r="R223" s="1">
+        <v>5</v>
+      </c>
+      <c r="S223" s="1">
+        <v>5</v>
+      </c>
+      <c r="T223" s="1">
+        <v>1</v>
+      </c>
+      <c r="U223" s="1">
+        <v>2</v>
+      </c>
+      <c r="V223" s="1">
+        <v>5</v>
+      </c>
+      <c r="W223" s="1">
+        <v>6</v>
+      </c>
+      <c r="X223" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y223" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z223" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA223" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB223" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC223" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD223" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE223" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF223" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG223" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH223" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI223" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ223" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="2">
+        <v>45220.695662615741</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D224" s="1">
+        <v>20212601</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F224" s="3">
+        <v>0.69305555555911269</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H224" s="1">
+        <v>2</v>
+      </c>
+      <c r="I224" s="1">
+        <v>5</v>
+      </c>
+      <c r="J224" s="1">
+        <v>5</v>
+      </c>
+      <c r="K224" s="1">
+        <v>4</v>
+      </c>
+      <c r="L224" s="1">
+        <v>2</v>
+      </c>
+      <c r="M224" s="1">
+        <v>2</v>
+      </c>
+      <c r="N224" s="1">
+        <v>5</v>
+      </c>
+      <c r="O224" s="1">
+        <v>5</v>
+      </c>
+      <c r="P224" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q224" s="1">
+        <v>2</v>
+      </c>
+      <c r="R224" s="1">
+        <v>5</v>
+      </c>
+      <c r="S224" s="1">
+        <v>5</v>
+      </c>
+      <c r="T224" s="1">
+        <v>2</v>
+      </c>
+      <c r="U224" s="1">
+        <v>2</v>
+      </c>
+      <c r="V224" s="1">
+        <v>5</v>
+      </c>
+      <c r="W224" s="1">
+        <v>5</v>
+      </c>
+      <c r="X224" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y224" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z224" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA224" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB224" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC224" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD224" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE224" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF224" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG224" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH224" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI224" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ224" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="2">
+        <v>45220.700623449069</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D225" s="1">
+        <v>20232632</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F225" s="3">
+        <v>0.6993055555576575</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H225" s="1">
+        <v>2</v>
+      </c>
+      <c r="I225" s="1">
+        <v>5</v>
+      </c>
+      <c r="J225" s="1">
+        <v>6</v>
+      </c>
+      <c r="K225" s="1">
+        <v>6</v>
+      </c>
+      <c r="L225" s="1">
+        <v>2</v>
+      </c>
+      <c r="M225" s="1">
+        <v>1</v>
+      </c>
+      <c r="N225" s="1">
+        <v>5</v>
+      </c>
+      <c r="O225" s="1">
+        <v>6</v>
+      </c>
+      <c r="P225" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q225" s="1">
+        <v>2</v>
+      </c>
+      <c r="R225" s="1">
+        <v>6</v>
+      </c>
+      <c r="S225" s="1">
+        <v>6</v>
+      </c>
+      <c r="T225" s="1">
+        <v>4</v>
+      </c>
+      <c r="U225" s="1">
+        <v>1</v>
+      </c>
+      <c r="V225" s="1">
+        <v>6</v>
+      </c>
+      <c r="W225" s="1">
+        <v>6</v>
+      </c>
+      <c r="X225" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y225" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z225" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA225" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB225" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC225" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD225" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE225" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF225" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG225" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH225" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI225" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="2">
+        <v>45220.703022349539</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D226" s="1">
+        <v>20213732</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F226" s="3">
+        <v>0.70138888889050577</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H226" s="1">
+        <v>2</v>
+      </c>
+      <c r="I226" s="1">
+        <v>4</v>
+      </c>
+      <c r="J226" s="1">
+        <v>4</v>
+      </c>
+      <c r="K226" s="1">
+        <v>3</v>
+      </c>
+      <c r="L226" s="1">
+        <v>4</v>
+      </c>
+      <c r="M226" s="1">
+        <v>2</v>
+      </c>
+      <c r="N226" s="1">
+        <v>4</v>
+      </c>
+      <c r="O226" s="1">
+        <v>4</v>
+      </c>
+      <c r="P226" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q226" s="1">
+        <v>5</v>
+      </c>
+      <c r="R226" s="1">
+        <v>4</v>
+      </c>
+      <c r="S226" s="1">
+        <v>4</v>
+      </c>
+      <c r="T226" s="1">
+        <v>2</v>
+      </c>
+      <c r="U226" s="1">
+        <v>4</v>
+      </c>
+      <c r="V226" s="1">
+        <v>3</v>
+      </c>
+      <c r="W226" s="1">
+        <v>4</v>
+      </c>
+      <c r="X226" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y226" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z226" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA226" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB226" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC226" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD226" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE226" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF226" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG226" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH226" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI226" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ226" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="2">
+        <v>45220.706272673611</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D227" s="1">
+        <v>20193926</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F227" s="3">
+        <v>0.70277777777664596</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK227" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL227" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM227" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN227" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO227" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP227" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ227" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR227" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS227" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT227" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU227" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV227" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW227" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX227" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY227" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ227" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA227" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB227" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC227" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD227" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE227" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF227" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG227" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH227" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI227" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ227" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK227" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL227" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM227" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="2">
+        <v>45220.721680925926</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D228" s="1">
+        <v>20202741</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F228" s="3">
+        <v>0.71250000000145519</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK228" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL228" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM228" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN228" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO228" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP228" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ228" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR228" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS228" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT228" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU228" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV228" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW228" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX228" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY228" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ228" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA228" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB228" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC228" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD228" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE228" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF228" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG228" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH228" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI228" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ228" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK228" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL228" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM228" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="2">
+        <v>45220.765872465279</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D229" s="1">
+        <v>20182941</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F229" s="3">
+        <v>0.76319444444379769</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H229" s="1">
+        <v>5</v>
+      </c>
+      <c r="I229" s="1">
+        <v>4</v>
+      </c>
+      <c r="J229" s="1">
+        <v>4</v>
+      </c>
+      <c r="K229" s="1">
+        <v>4</v>
+      </c>
+      <c r="L229" s="1">
+        <v>2</v>
+      </c>
+      <c r="M229" s="1">
+        <v>4</v>
+      </c>
+      <c r="N229" s="1">
+        <v>4</v>
+      </c>
+      <c r="O229" s="1">
+        <v>3</v>
+      </c>
+      <c r="P229" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q229" s="1">
+        <v>4</v>
+      </c>
+      <c r="R229" s="1">
+        <v>4</v>
+      </c>
+      <c r="S229" s="1">
+        <v>4</v>
+      </c>
+      <c r="T229" s="1">
+        <v>3</v>
+      </c>
+      <c r="U229" s="1">
+        <v>3</v>
+      </c>
+      <c r="V229" s="1">
+        <v>3</v>
+      </c>
+      <c r="W229" s="1">
+        <v>4</v>
+      </c>
+      <c r="X229" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y229" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z229" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA229" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB229" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC229" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD229" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE229" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF229" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG229" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH229" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI229" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ229" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="2">
+        <v>45220.768808796296</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D230" s="1">
+        <v>20232350</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F230" s="3">
+        <v>0.76666666666278616</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H230" s="1">
+        <v>6</v>
+      </c>
+      <c r="I230" s="1">
+        <v>4</v>
+      </c>
+      <c r="J230" s="1">
+        <v>5</v>
+      </c>
+      <c r="K230" s="1">
+        <v>3</v>
+      </c>
+      <c r="L230" s="1">
+        <v>6</v>
+      </c>
+      <c r="M230" s="1">
+        <v>6</v>
+      </c>
+      <c r="N230" s="1">
+        <v>4</v>
+      </c>
+      <c r="O230" s="1">
+        <v>3</v>
+      </c>
+      <c r="P230" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q230" s="1">
+        <v>6</v>
+      </c>
+      <c r="R230" s="1">
+        <v>4</v>
+      </c>
+      <c r="S230" s="1">
+        <v>4</v>
+      </c>
+      <c r="T230" s="1">
+        <v>1</v>
+      </c>
+      <c r="U230" s="1">
+        <v>3</v>
+      </c>
+      <c r="V230" s="1">
+        <v>5</v>
+      </c>
+      <c r="W230" s="1">
+        <v>5</v>
+      </c>
+      <c r="X230" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y230" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z230" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA230" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB230" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC230" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD230" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE230" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF230" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG230" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH230" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI230" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ230" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="2">
+        <v>45220.769816990738</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D231" s="1">
+        <v>20203939</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F231" s="3">
+        <v>0.76875000000291038</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK231" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL231" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM231" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN231" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO231" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP231" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ231" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR231" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS231" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT231" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU231" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV231" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW231" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX231" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY231" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ231" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA231" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB231" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC231" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD231" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE231" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF231" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG231" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH231" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI231" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ231" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK231" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL231" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM231" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="2">
+        <v>45220.775759930555</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D232" s="1">
+        <v>20235202</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F232" s="3">
+        <v>0.76805555555620231</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK232" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL232" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM232" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN232" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO232" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP232" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ232" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR232" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS232" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT232" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU232" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV232" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW232" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX232" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY232" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ232" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA232" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB232" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC232" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD232" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE232" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF232" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG232" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH232" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI232" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ232" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK232" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL232" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM232" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="2">
+        <v>45220.798687291666</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D233" s="1">
+        <v>20173144</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F233" s="3">
+        <v>0.93125000000145519</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK233" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL233" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM233" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN233" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO233" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP233" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ233" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR233" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS233" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT233" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU233" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV233" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW233" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX233" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY233" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ233" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA233" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB233" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC233" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD233" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE233" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF233" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG233" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH233" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI233" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ233" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK233" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL233" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM233" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="2">
+        <v>45220.809323020832</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D234" s="1">
+        <v>20236740</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F234" s="3">
+        <v>0.80625000000145519</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H234" s="1">
+        <v>3</v>
+      </c>
+      <c r="I234" s="1">
+        <v>3</v>
+      </c>
+      <c r="J234" s="1">
+        <v>3</v>
+      </c>
+      <c r="K234" s="1">
+        <v>2</v>
+      </c>
+      <c r="L234" s="1">
+        <v>4</v>
+      </c>
+      <c r="M234" s="1">
+        <v>2</v>
+      </c>
+      <c r="N234" s="1">
+        <v>2</v>
+      </c>
+      <c r="O234" s="1">
+        <v>3</v>
+      </c>
+      <c r="P234" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q234" s="1">
+        <v>5</v>
+      </c>
+      <c r="R234" s="1">
+        <v>4</v>
+      </c>
+      <c r="S234" s="1">
+        <v>3</v>
+      </c>
+      <c r="T234" s="1">
+        <v>5</v>
+      </c>
+      <c r="U234" s="1">
+        <v>3</v>
+      </c>
+      <c r="V234" s="1">
+        <v>3</v>
+      </c>
+      <c r="W234" s="1">
+        <v>3</v>
+      </c>
+      <c r="X234" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y234" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z234" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA234" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB234" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC234" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD234" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE234" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF234" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG234" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH234" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI234" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ234" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="2">
+        <v>45220.815294548607</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D235" s="1">
+        <v>20201627</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F235" s="3">
+        <v>0.81319444444670808</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H235" s="1">
+        <v>2</v>
+      </c>
+      <c r="I235" s="1">
+        <v>3</v>
+      </c>
+      <c r="J235" s="1">
+        <v>4</v>
+      </c>
+      <c r="K235" s="1">
+        <v>1</v>
+      </c>
+      <c r="L235" s="1">
+        <v>1</v>
+      </c>
+      <c r="M235" s="1">
+        <v>3</v>
+      </c>
+      <c r="N235" s="1">
+        <v>5</v>
+      </c>
+      <c r="O235" s="1">
+        <v>4</v>
+      </c>
+      <c r="P235" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q235" s="1">
+        <v>4</v>
+      </c>
+      <c r="R235" s="1">
+        <v>5</v>
+      </c>
+      <c r="S235" s="1">
+        <v>4</v>
+      </c>
+      <c r="T235" s="1">
+        <v>3</v>
+      </c>
+      <c r="U235" s="1">
+        <v>3</v>
+      </c>
+      <c r="V235" s="1">
+        <v>4</v>
+      </c>
+      <c r="W235" s="1">
+        <v>6</v>
+      </c>
+      <c r="X235" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y235" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z235" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA235" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB235" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC235" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD235" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE235" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF235" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG235" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH235" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI235" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ235" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="2">
+        <v>45220.816472789353</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D236" s="1">
+        <v>20202340</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F236" s="3">
+        <v>0.81527777777955635</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H236" s="1">
+        <v>1</v>
+      </c>
+      <c r="I236" s="1">
+        <v>3</v>
+      </c>
+      <c r="J236" s="1">
+        <v>3</v>
+      </c>
+      <c r="K236" s="1">
+        <v>3</v>
+      </c>
+      <c r="L236" s="1">
+        <v>1</v>
+      </c>
+      <c r="M236" s="1">
+        <v>1</v>
+      </c>
+      <c r="N236" s="1">
+        <v>2</v>
+      </c>
+      <c r="O236" s="1">
+        <v>2</v>
+      </c>
+      <c r="P236" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q236" s="1">
+        <v>2</v>
+      </c>
+      <c r="R236" s="1">
+        <v>2</v>
+      </c>
+      <c r="S236" s="1">
+        <v>2</v>
+      </c>
+      <c r="T236" s="1">
+        <v>2</v>
+      </c>
+      <c r="U236" s="1">
+        <v>1</v>
+      </c>
+      <c r="V236" s="1">
+        <v>2</v>
+      </c>
+      <c r="W236" s="1">
+        <v>2</v>
+      </c>
+      <c r="X236" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y236" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z236" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA236" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB236" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC236" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD236" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE236" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF236" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG236" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH236" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI236" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ236" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="2">
+        <v>45220.817817488423</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D237" s="1">
+        <v>20203628</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F237" s="3">
+        <v>0.81666666666569654</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H237" s="1">
+        <v>3</v>
+      </c>
+      <c r="I237" s="1">
+        <v>3</v>
+      </c>
+      <c r="J237" s="1">
+        <v>3</v>
+      </c>
+      <c r="K237" s="1">
+        <v>3</v>
+      </c>
+      <c r="L237" s="1">
+        <v>3</v>
+      </c>
+      <c r="M237" s="1">
+        <v>3</v>
+      </c>
+      <c r="N237" s="1">
+        <v>3</v>
+      </c>
+      <c r="O237" s="1">
+        <v>3</v>
+      </c>
+      <c r="P237" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q237" s="1">
+        <v>3</v>
+      </c>
+      <c r="R237" s="1">
+        <v>3</v>
+      </c>
+      <c r="S237" s="1">
+        <v>3</v>
+      </c>
+      <c r="T237" s="1">
+        <v>3</v>
+      </c>
+      <c r="U237" s="1">
+        <v>3</v>
+      </c>
+      <c r="V237" s="1">
+        <v>3</v>
+      </c>
+      <c r="W237" s="1">
+        <v>3</v>
+      </c>
+      <c r="X237" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y237" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z237" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA237" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB237" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC237" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD237" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE237" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF237" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG237" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH237" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI237" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ237" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F44043D-32B0-6E49-BD04-B3180ED8CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E4476C-3AB3-224D-B49D-F9C40E377744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49480" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="711">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1823,6 +1823,336 @@
   </si>
   <si>
     <t>염민서</t>
+  </si>
+  <si>
+    <t>applegoose007@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터</t>
+  </si>
+  <si>
+    <t>장재훈</t>
+  </si>
+  <si>
+    <t>slugroy7@gmail.com</t>
+  </si>
+  <si>
+    <t>이수민</t>
+  </si>
+  <si>
+    <t>inhwagil40@gmail.com</t>
+  </si>
+  <si>
+    <t>길인화</t>
+  </si>
+  <si>
+    <t>heejae7942@naver.com</t>
+  </si>
+  <si>
+    <t>최희재</t>
+  </si>
+  <si>
+    <t>hyelinj27@gmail.com</t>
+  </si>
+  <si>
+    <t>진혜린</t>
+  </si>
+  <si>
+    <t>ohj09170@naver.com</t>
+  </si>
+  <si>
+    <t>오현진</t>
+  </si>
+  <si>
+    <t>pig6832@naver.com</t>
+  </si>
+  <si>
+    <t>jyn10131@naver.com</t>
+  </si>
+  <si>
+    <t>정예나</t>
+  </si>
+  <si>
+    <t>123qazwsx12@naver.com</t>
+  </si>
+  <si>
+    <t>전예진</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>onjng0918@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤정</t>
+  </si>
+  <si>
+    <t>choe0119@gmail.com</t>
+  </si>
+  <si>
+    <t>최태웅</t>
+  </si>
+  <si>
+    <t>pearlzero@naver.com</t>
+  </si>
+  <si>
+    <t>진주영</t>
+  </si>
+  <si>
+    <t>shdbsgh0305@naver.com</t>
+  </si>
+  <si>
+    <t>노윤호</t>
+  </si>
+  <si>
+    <t>qkralgus121@gmail.com</t>
+  </si>
+  <si>
+    <t>박미현</t>
+  </si>
+  <si>
+    <t>catboom5329@gmail.com</t>
+  </si>
+  <si>
+    <t>박주현</t>
+  </si>
+  <si>
+    <t>lia129@naver.com</t>
+  </si>
+  <si>
+    <t>노효은</t>
+  </si>
+  <si>
+    <t>wldodxp@naver.com</t>
+  </si>
+  <si>
+    <t>박지영</t>
+  </si>
+  <si>
+    <t>biseos4@gmail.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>xw2809@naver.com</t>
+  </si>
+  <si>
+    <t>hwangyejin2000@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>황예진</t>
+  </si>
+  <si>
+    <t>won993456@naver.com</t>
+  </si>
+  <si>
+    <t>정경원</t>
+  </si>
+  <si>
+    <t>kimyoung4808@gmail.com</t>
+  </si>
+  <si>
+    <t>김승영</t>
+  </si>
+  <si>
+    <t>mhw040414@naver.com</t>
+  </si>
+  <si>
+    <t>문희원</t>
+  </si>
+  <si>
+    <t>homelearn04@naver.com</t>
+  </si>
+  <si>
+    <t>박종욱</t>
+  </si>
+  <si>
+    <t>rhy0787@naver.com</t>
+  </si>
+  <si>
+    <t>유희영</t>
+  </si>
+  <si>
+    <t>rcn214@naver.com</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>김제승</t>
+  </si>
+  <si>
+    <t>bb2611323@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능</t>
+  </si>
+  <si>
+    <t>방유빈</t>
+  </si>
+  <si>
+    <t>0319dy@naver.com</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>sang010516@naver.com</t>
+  </si>
+  <si>
+    <t>최상은</t>
+  </si>
+  <si>
+    <t>leesave9@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학 전공</t>
+  </si>
+  <si>
+    <t>이혁재</t>
+  </si>
+  <si>
+    <t>rkdus0413@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>tlsrkdms12345@naver.com</t>
+  </si>
+  <si>
+    <t>신가은</t>
+  </si>
+  <si>
+    <t>0227jsh@naver.com</t>
+  </si>
+  <si>
+    <t>장서희</t>
+  </si>
+  <si>
+    <t>popoq2004@naver.com</t>
+  </si>
+  <si>
+    <t>박신비</t>
+  </si>
+  <si>
+    <t>tkddnjs8070@naver.com</t>
+  </si>
+  <si>
+    <t>정상원</t>
+  </si>
+  <si>
+    <t>yerin2545717@gmail.com</t>
+  </si>
+  <si>
+    <t>권예린</t>
+  </si>
+  <si>
+    <t>k01050531595@gmail.com</t>
+  </si>
+  <si>
+    <t>권승현</t>
+  </si>
+  <si>
+    <t>dufud7004@naver.com</t>
+  </si>
+  <si>
+    <t>윤여령</t>
+  </si>
+  <si>
+    <t>roy041108@gmail.com</t>
+  </si>
+  <si>
+    <t>신영훈</t>
+  </si>
+  <si>
+    <t>minjae0812@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과 빅데이터전공</t>
+  </si>
+  <si>
+    <t>주민재</t>
+  </si>
+  <si>
+    <t>jkw1391@naver.com</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>bsihyeon0707@gmail.com</t>
+  </si>
+  <si>
+    <t>박시현</t>
+  </si>
+  <si>
+    <t>sujongchoe8@gmail.com</t>
+  </si>
+  <si>
+    <t>최수종</t>
+  </si>
+  <si>
+    <t>yewonshine@naver.com</t>
+  </si>
+  <si>
+    <t>허예원</t>
+  </si>
+  <si>
+    <t>t26a1@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">신동한 </t>
+  </si>
+  <si>
+    <t>kimys20604@gmail.com</t>
+  </si>
+  <si>
+    <t>김용석</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>gmyeongju515@gmail.com</t>
+  </si>
+  <si>
+    <t>김명주</t>
+  </si>
+  <si>
+    <t>hogin0912@naver.com</t>
+  </si>
+  <si>
+    <t>신호진</t>
+  </si>
+  <si>
+    <t>kdh01270102@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">법학과 </t>
+  </si>
+  <si>
+    <t>김도훈</t>
+  </si>
+  <si>
+    <t>donghyun4147@naver.com</t>
   </si>
 </sst>
 </file>
@@ -2097,11 +2427,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM237"/>
+  <dimension ref="A1:BM290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A199" sqref="A199:BM237"/>
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28266,6 +28596,5836 @@
         <v>3</v>
       </c>
     </row>
+    <row r="238" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="2">
+        <v>45220.829939305557</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D238" s="1">
+        <v>20225243</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F238" s="3">
+        <v>0</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY238" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL238" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM238" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="2">
+        <v>45220.832905856485</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D239" s="1">
+        <v>20236151</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F239" s="3">
+        <v>0.83125000000291038</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H239" s="1">
+        <v>2</v>
+      </c>
+      <c r="I239" s="1">
+        <v>5</v>
+      </c>
+      <c r="J239" s="1">
+        <v>4</v>
+      </c>
+      <c r="K239" s="1">
+        <v>3</v>
+      </c>
+      <c r="L239" s="1">
+        <v>3</v>
+      </c>
+      <c r="M239" s="1">
+        <v>2</v>
+      </c>
+      <c r="N239" s="1">
+        <v>3</v>
+      </c>
+      <c r="O239" s="1">
+        <v>6</v>
+      </c>
+      <c r="P239" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q239" s="1">
+        <v>5</v>
+      </c>
+      <c r="R239" s="1">
+        <v>4</v>
+      </c>
+      <c r="S239" s="1">
+        <v>3</v>
+      </c>
+      <c r="T239" s="1">
+        <v>3</v>
+      </c>
+      <c r="U239" s="1">
+        <v>5</v>
+      </c>
+      <c r="V239" s="1">
+        <v>3</v>
+      </c>
+      <c r="W239" s="1">
+        <v>5</v>
+      </c>
+      <c r="X239" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y239" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z239" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA239" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB239" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC239" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD239" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE239" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF239" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG239" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH239" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI239" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ239" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="2">
+        <v>45220.84198931713</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D240" s="1">
+        <v>20236210</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F240" s="3">
+        <v>0.84027777778101154</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H240" s="1">
+        <v>2</v>
+      </c>
+      <c r="I240" s="1">
+        <v>4</v>
+      </c>
+      <c r="J240" s="1">
+        <v>4</v>
+      </c>
+      <c r="K240" s="1">
+        <v>6</v>
+      </c>
+      <c r="L240" s="1">
+        <v>1</v>
+      </c>
+      <c r="M240" s="1">
+        <v>1</v>
+      </c>
+      <c r="N240" s="1">
+        <v>4</v>
+      </c>
+      <c r="O240" s="1">
+        <v>4</v>
+      </c>
+      <c r="P240" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q240" s="1">
+        <v>3</v>
+      </c>
+      <c r="R240" s="1">
+        <v>5</v>
+      </c>
+      <c r="S240" s="1">
+        <v>4</v>
+      </c>
+      <c r="T240" s="1">
+        <v>2</v>
+      </c>
+      <c r="U240" s="1">
+        <v>4</v>
+      </c>
+      <c r="V240" s="1">
+        <v>4</v>
+      </c>
+      <c r="W240" s="1">
+        <v>6</v>
+      </c>
+      <c r="X240" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y240" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z240" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA240" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB240" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC240" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD240" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE240" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF240" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG240" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH240" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI240" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ240" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="2">
+        <v>45220.853869502316</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D241" s="1">
+        <v>20236301</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F241" s="3">
+        <v>0.84444444444670808</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H241" s="1">
+        <v>4</v>
+      </c>
+      <c r="I241" s="1">
+        <v>5</v>
+      </c>
+      <c r="J241" s="1">
+        <v>4</v>
+      </c>
+      <c r="K241" s="1">
+        <v>3</v>
+      </c>
+      <c r="L241" s="1">
+        <v>4</v>
+      </c>
+      <c r="M241" s="1">
+        <v>3</v>
+      </c>
+      <c r="N241" s="1">
+        <v>3</v>
+      </c>
+      <c r="O241" s="1">
+        <v>4</v>
+      </c>
+      <c r="P241" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q241" s="1">
+        <v>3</v>
+      </c>
+      <c r="R241" s="1">
+        <v>4</v>
+      </c>
+      <c r="S241" s="1">
+        <v>2</v>
+      </c>
+      <c r="T241" s="1">
+        <v>2</v>
+      </c>
+      <c r="U241" s="1">
+        <v>2</v>
+      </c>
+      <c r="V241" s="1">
+        <v>3</v>
+      </c>
+      <c r="W241" s="1">
+        <v>3</v>
+      </c>
+      <c r="X241" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y241" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z241" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA241" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB241" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC241" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD241" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE241" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF241" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG241" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH241" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI241" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ241" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="2">
+        <v>45220.864231504631</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D242" s="1">
+        <v>20236781</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F242" s="3">
+        <v>0.86111111110949423</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL242" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM242" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN242" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP242" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ242" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR242" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS242" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU242" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV242" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX242" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY242" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ242" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA242" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB242" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC242" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD242" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE242" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF242" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG242" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH242" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI242" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ242" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK242" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL242" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM242" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="2">
+        <v>45220.866623194444</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D243" s="1">
+        <v>20232555</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F243" s="3">
+        <v>0.86458333333575865</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H243" s="1">
+        <v>4</v>
+      </c>
+      <c r="I243" s="1">
+        <v>2</v>
+      </c>
+      <c r="J243" s="1">
+        <v>2</v>
+      </c>
+      <c r="K243" s="1">
+        <v>1</v>
+      </c>
+      <c r="L243" s="1">
+        <v>5</v>
+      </c>
+      <c r="M243" s="1">
+        <v>4</v>
+      </c>
+      <c r="N243" s="1">
+        <v>1</v>
+      </c>
+      <c r="O243" s="1">
+        <v>4</v>
+      </c>
+      <c r="P243" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q243" s="1">
+        <v>4</v>
+      </c>
+      <c r="R243" s="1">
+        <v>3</v>
+      </c>
+      <c r="S243" s="1">
+        <v>1</v>
+      </c>
+      <c r="T243" s="1">
+        <v>3</v>
+      </c>
+      <c r="U243" s="1">
+        <v>5</v>
+      </c>
+      <c r="V243" s="1">
+        <v>2</v>
+      </c>
+      <c r="W243" s="1">
+        <v>3</v>
+      </c>
+      <c r="X243" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y243" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z243" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC243" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD243" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF243" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG243" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH243" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI243" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ243" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="2">
+        <v>45220.877221076385</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D244" s="1">
+        <v>20232740</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F244" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H244" s="1">
+        <v>1</v>
+      </c>
+      <c r="I244" s="1">
+        <v>3</v>
+      </c>
+      <c r="J244" s="1">
+        <v>4</v>
+      </c>
+      <c r="K244" s="1">
+        <v>4</v>
+      </c>
+      <c r="L244" s="1">
+        <v>2</v>
+      </c>
+      <c r="M244" s="1">
+        <v>2</v>
+      </c>
+      <c r="N244" s="1">
+        <v>3</v>
+      </c>
+      <c r="O244" s="1">
+        <v>3</v>
+      </c>
+      <c r="P244" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q244" s="1">
+        <v>2</v>
+      </c>
+      <c r="R244" s="1">
+        <v>5</v>
+      </c>
+      <c r="S244" s="1">
+        <v>4</v>
+      </c>
+      <c r="T244" s="1">
+        <v>1</v>
+      </c>
+      <c r="U244" s="1">
+        <v>2</v>
+      </c>
+      <c r="V244" s="1">
+        <v>4</v>
+      </c>
+      <c r="W244" s="1">
+        <v>4</v>
+      </c>
+      <c r="X244" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y244" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z244" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA244" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB244" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC244" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD244" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE244" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF244" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG244" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH244" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI244" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ244" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="2">
+        <v>45220.899693715277</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D245" s="1">
+        <v>20233847</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F245" s="3">
+        <v>0.898611111115315</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H245" s="1">
+        <v>1</v>
+      </c>
+      <c r="I245" s="1">
+        <v>6</v>
+      </c>
+      <c r="J245" s="1">
+        <v>4</v>
+      </c>
+      <c r="K245" s="1">
+        <v>4</v>
+      </c>
+      <c r="L245" s="1">
+        <v>3</v>
+      </c>
+      <c r="M245" s="1">
+        <v>1</v>
+      </c>
+      <c r="N245" s="1">
+        <v>6</v>
+      </c>
+      <c r="O245" s="1">
+        <v>5</v>
+      </c>
+      <c r="P245" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q245" s="1">
+        <v>3</v>
+      </c>
+      <c r="R245" s="1">
+        <v>6</v>
+      </c>
+      <c r="S245" s="1">
+        <v>4</v>
+      </c>
+      <c r="T245" s="1">
+        <v>1</v>
+      </c>
+      <c r="U245" s="1">
+        <v>4</v>
+      </c>
+      <c r="V245" s="1">
+        <v>5</v>
+      </c>
+      <c r="W245" s="1">
+        <v>5</v>
+      </c>
+      <c r="X245" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y245" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z245" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA245" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB245" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC245" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD245" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE245" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF245" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG245" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH245" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI245" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ245" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="2">
+        <v>45220.902869016209</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D246" s="1">
+        <v>20233029</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F246" s="3">
+        <v>0.90000000000145519</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK246" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL246" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM246" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN246" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO246" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP246" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ246" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR246" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS246" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT246" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU246" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV246" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW246" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX246" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY246" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ246" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA246" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB246" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC246" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD246" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE246" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF246" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG246" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH246" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI246" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ246" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK246" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL246" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM246" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="2">
+        <v>45220.912526921296</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D247" s="1">
+        <v>20194132</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F247" s="3">
+        <v>0.91041666666569654</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H247" s="1">
+        <v>3</v>
+      </c>
+      <c r="I247" s="1">
+        <v>4</v>
+      </c>
+      <c r="J247" s="1">
+        <v>4</v>
+      </c>
+      <c r="K247" s="1">
+        <v>3</v>
+      </c>
+      <c r="L247" s="1">
+        <v>4</v>
+      </c>
+      <c r="M247" s="1">
+        <v>3</v>
+      </c>
+      <c r="N247" s="1">
+        <v>4</v>
+      </c>
+      <c r="O247" s="1">
+        <v>4</v>
+      </c>
+      <c r="P247" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q247" s="1">
+        <v>4</v>
+      </c>
+      <c r="R247" s="1">
+        <v>5</v>
+      </c>
+      <c r="S247" s="1">
+        <v>3</v>
+      </c>
+      <c r="T247" s="1">
+        <v>4</v>
+      </c>
+      <c r="U247" s="1">
+        <v>5</v>
+      </c>
+      <c r="V247" s="1">
+        <v>4</v>
+      </c>
+      <c r="W247" s="1">
+        <v>4</v>
+      </c>
+      <c r="X247" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y247" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z247" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA247" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB247" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC247" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD247" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE247" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF247" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG247" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI247" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ247" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="2">
+        <v>45220.912931134255</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D248" s="1">
+        <v>20232338</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F248" s="3">
+        <v>0.91041666666569654</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY248" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL248" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM248" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="2">
+        <v>45220.918710335653</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D249" s="1">
+        <v>20226176</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F249" s="3">
+        <v>0.91736111111094942</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H249" s="1">
+        <v>2</v>
+      </c>
+      <c r="I249" s="1">
+        <v>5</v>
+      </c>
+      <c r="J249" s="1">
+        <v>1</v>
+      </c>
+      <c r="K249" s="1">
+        <v>2</v>
+      </c>
+      <c r="L249" s="1">
+        <v>5</v>
+      </c>
+      <c r="M249" s="1">
+        <v>5</v>
+      </c>
+      <c r="N249" s="1">
+        <v>2</v>
+      </c>
+      <c r="O249" s="1">
+        <v>3</v>
+      </c>
+      <c r="P249" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q249" s="1">
+        <v>6</v>
+      </c>
+      <c r="R249" s="1">
+        <v>2</v>
+      </c>
+      <c r="S249" s="1">
+        <v>1</v>
+      </c>
+      <c r="T249" s="1">
+        <v>5</v>
+      </c>
+      <c r="U249" s="1">
+        <v>5</v>
+      </c>
+      <c r="V249" s="1">
+        <v>2</v>
+      </c>
+      <c r="W249" s="1">
+        <v>2</v>
+      </c>
+      <c r="X249" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y249" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z249" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB249" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC249" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD249" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE249" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF249" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG249" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH249" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI249" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ249" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="2">
+        <v>45220.929355381944</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D250" s="1">
+        <v>20216289</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F250" s="3">
+        <v>0.92847222222189885</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL250" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM250" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN250" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO250" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP250" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ250" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR250" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS250" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT250" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU250" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV250" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW250" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX250" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY250" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ250" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA250" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB250" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC250" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD250" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE250" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF250" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG250" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH250" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI250" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ250" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK250" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL250" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM250" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="2">
+        <v>45220.936691863426</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D251" s="1">
+        <v>20231710</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F251" s="3">
+        <v>0.43611111110658385</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK251" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL251" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM251" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN251" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO251" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP251" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ251" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR251" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS251" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT251" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU251" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV251" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW251" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX251" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY251" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ251" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA251" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB251" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC251" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD251" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE251" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF251" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG251" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH251" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI251" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ251" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK251" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL251" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM251" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="2">
+        <v>45220.936717627315</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D252" s="1">
+        <v>20236236</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F252" s="3">
+        <v>0.93055555555474712</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK252" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL252" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM252" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN252" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO252" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP252" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ252" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR252" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS252" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT252" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU252" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV252" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW252" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX252" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY252" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ252" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA252" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB252" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC252" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD252" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE252" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF252" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG252" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH252" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI252" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ252" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK252" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL252" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM252" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="2">
+        <v>45220.939890497684</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D253" s="1">
+        <v>20234121</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F253" s="3">
+        <v>0.93263888888759539</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK253" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL253" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM253" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN253" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO253" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP253" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ253" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR253" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS253" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT253" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU253" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV253" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW253" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX253" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY253" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ253" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA253" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB253" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC253" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD253" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE253" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF253" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG253" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH253" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI253" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ253" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK253" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL253" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM253" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="2">
+        <v>45220.956358645832</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D254" s="1">
+        <v>20232716</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F254" s="3">
+        <v>0.95486111110949423</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H254" s="1">
+        <v>1</v>
+      </c>
+      <c r="I254" s="1">
+        <v>5</v>
+      </c>
+      <c r="J254" s="1">
+        <v>6</v>
+      </c>
+      <c r="K254" s="1">
+        <v>2</v>
+      </c>
+      <c r="L254" s="1">
+        <v>1</v>
+      </c>
+      <c r="M254" s="1">
+        <v>1</v>
+      </c>
+      <c r="N254" s="1">
+        <v>5</v>
+      </c>
+      <c r="O254" s="1">
+        <v>2</v>
+      </c>
+      <c r="P254" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q254" s="1">
+        <v>3</v>
+      </c>
+      <c r="R254" s="1">
+        <v>6</v>
+      </c>
+      <c r="S254" s="1">
+        <v>4</v>
+      </c>
+      <c r="T254" s="1">
+        <v>1</v>
+      </c>
+      <c r="U254" s="1">
+        <v>4</v>
+      </c>
+      <c r="V254" s="1">
+        <v>5</v>
+      </c>
+      <c r="W254" s="1">
+        <v>5</v>
+      </c>
+      <c r="X254" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y254" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z254" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA254" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB254" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC254" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD254" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE254" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF254" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG254" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH254" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI254" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ254" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="2">
+        <v>45220.962144490739</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D255" s="1">
+        <v>20212727</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F255" s="3">
+        <v>0.95833333333575865</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H255" s="1">
+        <v>5</v>
+      </c>
+      <c r="I255" s="1">
+        <v>5</v>
+      </c>
+      <c r="J255" s="1">
+        <v>4</v>
+      </c>
+      <c r="K255" s="1">
+        <v>5</v>
+      </c>
+      <c r="L255" s="1">
+        <v>4</v>
+      </c>
+      <c r="M255" s="1">
+        <v>4</v>
+      </c>
+      <c r="N255" s="1">
+        <v>4</v>
+      </c>
+      <c r="O255" s="1">
+        <v>5</v>
+      </c>
+      <c r="P255" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q255" s="1">
+        <v>3</v>
+      </c>
+      <c r="R255" s="1">
+        <v>5</v>
+      </c>
+      <c r="S255" s="1">
+        <v>4</v>
+      </c>
+      <c r="T255" s="1">
+        <v>3</v>
+      </c>
+      <c r="U255" s="1">
+        <v>5</v>
+      </c>
+      <c r="V255" s="1">
+        <v>4</v>
+      </c>
+      <c r="W255" s="1">
+        <v>5</v>
+      </c>
+      <c r="X255" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y255" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z255" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA255" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB255" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC255" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD255" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE255" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF255" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG255" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH255" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI255" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ255" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="2">
+        <v>45220.964323703709</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D256" s="1">
+        <v>20235171</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F256" s="3">
+        <v>0.93194444444088731</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H256" s="1">
+        <v>4</v>
+      </c>
+      <c r="I256" s="1">
+        <v>3</v>
+      </c>
+      <c r="J256" s="1">
+        <v>4</v>
+      </c>
+      <c r="K256" s="1">
+        <v>4</v>
+      </c>
+      <c r="L256" s="1">
+        <v>5</v>
+      </c>
+      <c r="M256" s="1">
+        <v>2</v>
+      </c>
+      <c r="N256" s="1">
+        <v>4</v>
+      </c>
+      <c r="O256" s="1">
+        <v>3</v>
+      </c>
+      <c r="P256" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q256" s="1">
+        <v>2</v>
+      </c>
+      <c r="R256" s="1">
+        <v>5</v>
+      </c>
+      <c r="S256" s="1">
+        <v>4</v>
+      </c>
+      <c r="T256" s="1">
+        <v>6</v>
+      </c>
+      <c r="U256" s="1">
+        <v>4</v>
+      </c>
+      <c r="V256" s="1">
+        <v>4</v>
+      </c>
+      <c r="W256" s="1">
+        <v>4</v>
+      </c>
+      <c r="X256" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y256" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z256" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA256" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB256" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC256" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD256" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE256" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF256" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG256" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH256" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI256" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ256" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="2">
+        <v>45220.968931793977</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D257" s="1">
+        <v>20202554</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F257" s="3">
+        <v>0.96805555555329192</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H257" s="1">
+        <v>1</v>
+      </c>
+      <c r="I257" s="1">
+        <v>6</v>
+      </c>
+      <c r="J257" s="1">
+        <v>6</v>
+      </c>
+      <c r="K257" s="1">
+        <v>6</v>
+      </c>
+      <c r="L257" s="1">
+        <v>1</v>
+      </c>
+      <c r="M257" s="1">
+        <v>1</v>
+      </c>
+      <c r="N257" s="1">
+        <v>6</v>
+      </c>
+      <c r="O257" s="1">
+        <v>6</v>
+      </c>
+      <c r="P257" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q257" s="1">
+        <v>1</v>
+      </c>
+      <c r="R257" s="1">
+        <v>6</v>
+      </c>
+      <c r="S257" s="1">
+        <v>6</v>
+      </c>
+      <c r="T257" s="1">
+        <v>1</v>
+      </c>
+      <c r="U257" s="1">
+        <v>1</v>
+      </c>
+      <c r="V257" s="1">
+        <v>6</v>
+      </c>
+      <c r="W257" s="1">
+        <v>6</v>
+      </c>
+      <c r="X257" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y257" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z257" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA257" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB257" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC257" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD257" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE257" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF257" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG257" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH257" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI257" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ257" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="2">
+        <v>45220.974396041667</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D258" s="1">
+        <v>20192241</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F258" s="3">
+        <v>0.97013888889341615</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK258" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL258" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM258" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN258" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO258" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP258" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ258" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR258" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS258" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT258" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU258" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV258" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW258" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX258" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY258" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ258" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA258" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB258" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC258" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD258" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE258" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF258" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG258" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH258" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI258" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ258" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK258" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL258" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM258" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="2">
+        <v>45220.995175868055</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D259" s="1">
+        <v>20181095</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F259" s="3">
+        <v>0.98750000000291038</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK259" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL259" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM259" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN259" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO259" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP259" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ259" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR259" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS259" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT259" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU259" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV259" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW259" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX259" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY259" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ259" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA259" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB259" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC259" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD259" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE259" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF259" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG259" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH259" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI259" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ259" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK259" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL259" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM259" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="2">
+        <v>45221.003339247683</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D260" s="1">
+        <v>20233709</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F260" s="3">
+        <v>2.7777777795563452E-3</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H260" s="1">
+        <v>3</v>
+      </c>
+      <c r="I260" s="1">
+        <v>3</v>
+      </c>
+      <c r="J260" s="1">
+        <v>3</v>
+      </c>
+      <c r="K260" s="1">
+        <v>3</v>
+      </c>
+      <c r="L260" s="1">
+        <v>3</v>
+      </c>
+      <c r="M260" s="1">
+        <v>3</v>
+      </c>
+      <c r="N260" s="1">
+        <v>3</v>
+      </c>
+      <c r="O260" s="1">
+        <v>3</v>
+      </c>
+      <c r="P260" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q260" s="1">
+        <v>3</v>
+      </c>
+      <c r="R260" s="1">
+        <v>3</v>
+      </c>
+      <c r="S260" s="1">
+        <v>3</v>
+      </c>
+      <c r="T260" s="1">
+        <v>3</v>
+      </c>
+      <c r="U260" s="1">
+        <v>3</v>
+      </c>
+      <c r="V260" s="1">
+        <v>3</v>
+      </c>
+      <c r="W260" s="1">
+        <v>3</v>
+      </c>
+      <c r="X260" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y260" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z260" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA260" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB260" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC260" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD260" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE260" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF260" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG260" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH260" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI260" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ260" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="2">
+        <v>45221.014913009261</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D261" s="1">
+        <v>20231610</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F261" s="3">
+        <v>1.0416666664241347E-2</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H261" s="1">
+        <v>3</v>
+      </c>
+      <c r="I261" s="1">
+        <v>3</v>
+      </c>
+      <c r="J261" s="1">
+        <v>4</v>
+      </c>
+      <c r="K261" s="1">
+        <v>2</v>
+      </c>
+      <c r="L261" s="1">
+        <v>3</v>
+      </c>
+      <c r="M261" s="1">
+        <v>5</v>
+      </c>
+      <c r="N261" s="1">
+        <v>2</v>
+      </c>
+      <c r="O261" s="1">
+        <v>4</v>
+      </c>
+      <c r="P261" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q261" s="1">
+        <v>4</v>
+      </c>
+      <c r="R261" s="1">
+        <v>4</v>
+      </c>
+      <c r="S261" s="1">
+        <v>2</v>
+      </c>
+      <c r="T261" s="1">
+        <v>4</v>
+      </c>
+      <c r="U261" s="1">
+        <v>4</v>
+      </c>
+      <c r="V261" s="1">
+        <v>4</v>
+      </c>
+      <c r="W261" s="1">
+        <v>3</v>
+      </c>
+      <c r="X261" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y261" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z261" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA261" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB261" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC261" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD261" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE261" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF261" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG261" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH261" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI261" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ261" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="2">
+        <v>45221.029402858796</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D262" s="1">
+        <v>20235170</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F262" s="3">
+        <v>2.7777777781011537E-2</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK262" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL262" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM262" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN262" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO262" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP262" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ262" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR262" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS262" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT262" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU262" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV262" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW262" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX262" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY262" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ262" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA262" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB262" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC262" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD262" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE262" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF262" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG262" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH262" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI262" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ262" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK262" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL262" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM262" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="2">
+        <v>45221.063825868056</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D263" s="1">
+        <v>20213827</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F263" s="3">
+        <v>6.1111111106583849E-2</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H263" s="1">
+        <v>2</v>
+      </c>
+      <c r="I263" s="1">
+        <v>4</v>
+      </c>
+      <c r="J263" s="1">
+        <v>4</v>
+      </c>
+      <c r="K263" s="1">
+        <v>4</v>
+      </c>
+      <c r="L263" s="1">
+        <v>1</v>
+      </c>
+      <c r="M263" s="1">
+        <v>2</v>
+      </c>
+      <c r="N263" s="1">
+        <v>5</v>
+      </c>
+      <c r="O263" s="1">
+        <v>4</v>
+      </c>
+      <c r="P263" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q263" s="1">
+        <v>2</v>
+      </c>
+      <c r="R263" s="1">
+        <v>6</v>
+      </c>
+      <c r="S263" s="1">
+        <v>4</v>
+      </c>
+      <c r="T263" s="1">
+        <v>2</v>
+      </c>
+      <c r="U263" s="1">
+        <v>2</v>
+      </c>
+      <c r="V263" s="1">
+        <v>5</v>
+      </c>
+      <c r="W263" s="1">
+        <v>5</v>
+      </c>
+      <c r="X263" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y263" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z263" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA263" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB263" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC263" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD263" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE263" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF263" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG263" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH263" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI263" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ263" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="2">
+        <v>45221.230945567135</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D264" s="1">
+        <v>20232932</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F264" s="3">
+        <v>0.22986111111094942</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL264" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM264" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="2">
+        <v>45221.350986458332</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D265" s="1">
+        <v>20236729</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F265" s="3">
+        <v>0.34583333333284827</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK265" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL265" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM265" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN265" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO265" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP265" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ265" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR265" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS265" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT265" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU265" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV265" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW265" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX265" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY265" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ265" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA265" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB265" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC265" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD265" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE265" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF265" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG265" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH265" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI265" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ265" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK265" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL265" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM265" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="2">
+        <v>45221.360976064811</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D266" s="1">
+        <v>20225116</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F266" s="3">
+        <v>0.36041666666278616</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK266" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL266" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM266" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN266" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO266" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP266" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ266" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR266" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS266" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT266" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU266" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV266" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW266" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX266" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY266" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ266" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA266" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB266" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC266" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD266" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE266" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF266" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG266" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH266" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI266" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ266" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK266" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL266" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM266" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="2">
+        <v>45221.420891956019</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D267" s="1">
+        <v>20202851</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F267" s="3">
+        <v>0.41874999999708962</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H267" s="1">
+        <v>2</v>
+      </c>
+      <c r="I267" s="1">
+        <v>4</v>
+      </c>
+      <c r="J267" s="1">
+        <v>3</v>
+      </c>
+      <c r="K267" s="1">
+        <v>4</v>
+      </c>
+      <c r="L267" s="1">
+        <v>2</v>
+      </c>
+      <c r="M267" s="1">
+        <v>2</v>
+      </c>
+      <c r="N267" s="1">
+        <v>4</v>
+      </c>
+      <c r="O267" s="1">
+        <v>4</v>
+      </c>
+      <c r="P267" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q267" s="1">
+        <v>2</v>
+      </c>
+      <c r="R267" s="1">
+        <v>6</v>
+      </c>
+      <c r="S267" s="1">
+        <v>4</v>
+      </c>
+      <c r="T267" s="1">
+        <v>1</v>
+      </c>
+      <c r="U267" s="1">
+        <v>3</v>
+      </c>
+      <c r="V267" s="1">
+        <v>5</v>
+      </c>
+      <c r="W267" s="1">
+        <v>5</v>
+      </c>
+      <c r="X267" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y267" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z267" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA267" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB267" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC267" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD267" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE267" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF267" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG267" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH267" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI267" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ267" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="2">
+        <v>45221.423124328707</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D268" s="1">
+        <v>20181088</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F268" s="3">
+        <v>0.42083333333721384</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H268" s="1">
+        <v>4</v>
+      </c>
+      <c r="I268" s="1">
+        <v>2</v>
+      </c>
+      <c r="J268" s="1">
+        <v>4</v>
+      </c>
+      <c r="K268" s="1">
+        <v>3</v>
+      </c>
+      <c r="L268" s="1">
+        <v>1</v>
+      </c>
+      <c r="M268" s="1">
+        <v>1</v>
+      </c>
+      <c r="N268" s="1">
+        <v>4</v>
+      </c>
+      <c r="O268" s="1">
+        <v>5</v>
+      </c>
+      <c r="P268" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q268" s="1">
+        <v>2</v>
+      </c>
+      <c r="R268" s="1">
+        <v>4</v>
+      </c>
+      <c r="S268" s="1">
+        <v>4</v>
+      </c>
+      <c r="T268" s="1">
+        <v>4</v>
+      </c>
+      <c r="U268" s="1">
+        <v>1</v>
+      </c>
+      <c r="V268" s="1">
+        <v>4</v>
+      </c>
+      <c r="W268" s="1">
+        <v>4</v>
+      </c>
+      <c r="X268" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y268" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z268" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA268" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB268" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC268" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD268" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE268" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF268" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG268" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH268" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI268" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ268" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="2">
+        <v>45221.43544818287</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D269" s="1">
+        <v>20236168</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F269" s="3">
+        <v>0.43333333333430346</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H269" s="1">
+        <v>2</v>
+      </c>
+      <c r="I269" s="1">
+        <v>3</v>
+      </c>
+      <c r="J269" s="1">
+        <v>4</v>
+      </c>
+      <c r="K269" s="1">
+        <v>3</v>
+      </c>
+      <c r="L269" s="1">
+        <v>4</v>
+      </c>
+      <c r="M269" s="1">
+        <v>2</v>
+      </c>
+      <c r="N269" s="1">
+        <v>4</v>
+      </c>
+      <c r="O269" s="1">
+        <v>4</v>
+      </c>
+      <c r="P269" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q269" s="1">
+        <v>2</v>
+      </c>
+      <c r="R269" s="1">
+        <v>4</v>
+      </c>
+      <c r="S269" s="1">
+        <v>4</v>
+      </c>
+      <c r="T269" s="1">
+        <v>2</v>
+      </c>
+      <c r="U269" s="1">
+        <v>1</v>
+      </c>
+      <c r="V269" s="1">
+        <v>5</v>
+      </c>
+      <c r="W269" s="1">
+        <v>5</v>
+      </c>
+      <c r="X269" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y269" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z269" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA269" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB269" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC269" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD269" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE269" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF269" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG269" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH269" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI269" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ269" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="2">
+        <v>45221.438035613421</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D270" s="1">
+        <v>20217037</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F270" s="3">
+        <v>0.35833333333721384</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK270" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL270" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM270" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN270" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO270" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP270" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ270" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR270" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS270" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT270" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU270" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV270" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW270" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX270" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY270" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ270" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA270" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB270" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC270" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD270" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE270" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF270" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG270" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH270" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI270" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ270" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK270" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL270" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM270" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="2">
+        <v>45221.456478182867</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D271" s="1">
+        <v>20233843</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F271" s="3">
+        <v>0.45277777777664596</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H271" s="1">
+        <v>1</v>
+      </c>
+      <c r="I271" s="1">
+        <v>5</v>
+      </c>
+      <c r="J271" s="1">
+        <v>5</v>
+      </c>
+      <c r="K271" s="1">
+        <v>5</v>
+      </c>
+      <c r="L271" s="1">
+        <v>3</v>
+      </c>
+      <c r="M271" s="1">
+        <v>1</v>
+      </c>
+      <c r="N271" s="1">
+        <v>5</v>
+      </c>
+      <c r="O271" s="1">
+        <v>6</v>
+      </c>
+      <c r="P271" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q271" s="1">
+        <v>1</v>
+      </c>
+      <c r="R271" s="1">
+        <v>6</v>
+      </c>
+      <c r="S271" s="1">
+        <v>5</v>
+      </c>
+      <c r="T271" s="1">
+        <v>1</v>
+      </c>
+      <c r="U271" s="1">
+        <v>1</v>
+      </c>
+      <c r="V271" s="1">
+        <v>6</v>
+      </c>
+      <c r="W271" s="1">
+        <v>6</v>
+      </c>
+      <c r="X271" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y271" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z271" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA271" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB271" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC271" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD271" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE271" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF271" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG271" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH271" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI271" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ271" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="2">
+        <v>45221.463502824074</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D272" s="1">
+        <v>20236239</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F272" s="3">
+        <v>0.461111111115315</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H272" s="1">
+        <v>5</v>
+      </c>
+      <c r="I272" s="1">
+        <v>5</v>
+      </c>
+      <c r="J272" s="1">
+        <v>4</v>
+      </c>
+      <c r="K272" s="1">
+        <v>5</v>
+      </c>
+      <c r="L272" s="1">
+        <v>2</v>
+      </c>
+      <c r="M272" s="1">
+        <v>4</v>
+      </c>
+      <c r="N272" s="1">
+        <v>4</v>
+      </c>
+      <c r="O272" s="1">
+        <v>2</v>
+      </c>
+      <c r="P272" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q272" s="1">
+        <v>2</v>
+      </c>
+      <c r="R272" s="1">
+        <v>5</v>
+      </c>
+      <c r="S272" s="1">
+        <v>3</v>
+      </c>
+      <c r="T272" s="1">
+        <v>4</v>
+      </c>
+      <c r="U272" s="1">
+        <v>2</v>
+      </c>
+      <c r="V272" s="1">
+        <v>4</v>
+      </c>
+      <c r="W272" s="1">
+        <v>4</v>
+      </c>
+      <c r="X272" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y272" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z272" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA272" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB272" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC272" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD272" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE272" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF272" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG272" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH272" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI272" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ272" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="2">
+        <v>45221.470520081013</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D273" s="1">
+        <v>20191536</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F273" s="3">
+        <v>0.45833333333575865</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK273" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL273" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM273" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN273" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO273" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP273" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ273" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR273" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS273" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT273" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU273" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV273" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW273" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX273" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY273" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ273" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA273" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB273" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC273" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD273" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE273" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF273" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG273" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH273" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI273" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ273" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK273" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL273" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM273" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="2">
+        <v>45221.476997152778</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D274" s="1">
+        <v>20232909</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F274" s="3">
+        <v>0.45833333333575865</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H274" s="1">
+        <v>3</v>
+      </c>
+      <c r="I274" s="1">
+        <v>5</v>
+      </c>
+      <c r="J274" s="1">
+        <v>4</v>
+      </c>
+      <c r="K274" s="1">
+        <v>3</v>
+      </c>
+      <c r="L274" s="1">
+        <v>5</v>
+      </c>
+      <c r="M274" s="1">
+        <v>6</v>
+      </c>
+      <c r="N274" s="1">
+        <v>3</v>
+      </c>
+      <c r="O274" s="1">
+        <v>5</v>
+      </c>
+      <c r="P274" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q274" s="1">
+        <v>3</v>
+      </c>
+      <c r="R274" s="1">
+        <v>5</v>
+      </c>
+      <c r="S274" s="1">
+        <v>3</v>
+      </c>
+      <c r="T274" s="1">
+        <v>4</v>
+      </c>
+      <c r="U274" s="1">
+        <v>6</v>
+      </c>
+      <c r="V274" s="1">
+        <v>4</v>
+      </c>
+      <c r="W274" s="1">
+        <v>5</v>
+      </c>
+      <c r="X274" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y274" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z274" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA274" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB274" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC274" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD274" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE274" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF274" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG274" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH274" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI274" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ274" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="2">
+        <v>45221.485320983797</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D275" s="1">
+        <v>20232102</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F275" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H275" s="1">
+        <v>2</v>
+      </c>
+      <c r="I275" s="1">
+        <v>4</v>
+      </c>
+      <c r="J275" s="1">
+        <v>4</v>
+      </c>
+      <c r="K275" s="1">
+        <v>4</v>
+      </c>
+      <c r="L275" s="1">
+        <v>2</v>
+      </c>
+      <c r="M275" s="1">
+        <v>2</v>
+      </c>
+      <c r="N275" s="1">
+        <v>4</v>
+      </c>
+      <c r="O275" s="1">
+        <v>4</v>
+      </c>
+      <c r="P275" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q275" s="1">
+        <v>2</v>
+      </c>
+      <c r="R275" s="1">
+        <v>4</v>
+      </c>
+      <c r="S275" s="1">
+        <v>4</v>
+      </c>
+      <c r="T275" s="1">
+        <v>2</v>
+      </c>
+      <c r="U275" s="1">
+        <v>2</v>
+      </c>
+      <c r="V275" s="1">
+        <v>4</v>
+      </c>
+      <c r="W275" s="1">
+        <v>4</v>
+      </c>
+      <c r="X275" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y275" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z275" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA275" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB275" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC275" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD275" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE275" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF275" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG275" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH275" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI275" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ275" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="2">
+        <v>45221.492623124999</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D276" s="1">
+        <v>20236269</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F276" s="3">
+        <v>0.49166666666860692</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY276" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BI276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BL276" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM276" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="2">
+        <v>45221.501465752313</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D277" s="1">
+        <v>20235199</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F277" s="3">
+        <v>0.49930555555329192</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H277" s="1">
+        <v>4</v>
+      </c>
+      <c r="I277" s="1">
+        <v>4</v>
+      </c>
+      <c r="J277" s="1">
+        <v>4</v>
+      </c>
+      <c r="K277" s="1">
+        <v>4</v>
+      </c>
+      <c r="L277" s="1">
+        <v>1</v>
+      </c>
+      <c r="M277" s="1">
+        <v>3</v>
+      </c>
+      <c r="N277" s="1">
+        <v>4</v>
+      </c>
+      <c r="O277" s="1">
+        <v>5</v>
+      </c>
+      <c r="P277" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q277" s="1">
+        <v>1</v>
+      </c>
+      <c r="R277" s="1">
+        <v>5</v>
+      </c>
+      <c r="S277" s="1">
+        <v>5</v>
+      </c>
+      <c r="T277" s="1">
+        <v>5</v>
+      </c>
+      <c r="U277" s="1">
+        <v>4</v>
+      </c>
+      <c r="V277" s="1">
+        <v>5</v>
+      </c>
+      <c r="W277" s="1">
+        <v>5</v>
+      </c>
+      <c r="X277" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y277" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z277" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA277" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB277" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC277" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD277" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE277" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF277" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG277" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH277" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI277" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ277" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="2">
+        <v>45221.508482453704</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D278" s="1">
+        <v>20215249</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F278" s="3">
+        <v>0.45833333333575865</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H278" s="1">
+        <v>1</v>
+      </c>
+      <c r="I278" s="1">
+        <v>6</v>
+      </c>
+      <c r="J278" s="1">
+        <v>6</v>
+      </c>
+      <c r="K278" s="1">
+        <v>5</v>
+      </c>
+      <c r="L278" s="1">
+        <v>1</v>
+      </c>
+      <c r="M278" s="1">
+        <v>1</v>
+      </c>
+      <c r="N278" s="1">
+        <v>5</v>
+      </c>
+      <c r="O278" s="1">
+        <v>6</v>
+      </c>
+      <c r="P278" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q278" s="1">
+        <v>1</v>
+      </c>
+      <c r="R278" s="1">
+        <v>6</v>
+      </c>
+      <c r="S278" s="1">
+        <v>6</v>
+      </c>
+      <c r="T278" s="1">
+        <v>1</v>
+      </c>
+      <c r="U278" s="1">
+        <v>1</v>
+      </c>
+      <c r="V278" s="1">
+        <v>6</v>
+      </c>
+      <c r="W278" s="1">
+        <v>5</v>
+      </c>
+      <c r="X278" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y278" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z278" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA278" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB278" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC278" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD278" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE278" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF278" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG278" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH278" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI278" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ278" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="2">
+        <v>45221.51227788195</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D279" s="1">
+        <v>20212611</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F279" s="3">
+        <v>0.51111111111094942</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL279" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM279" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="2">
+        <v>45221.517966504631</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D280" s="1">
+        <v>20223047</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F280" s="3">
+        <v>0.51388888889050577</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK280" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL280" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM280" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN280" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO280" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP280" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ280" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR280" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS280" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT280" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU280" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV280" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW280" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX280" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY280" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ280" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA280" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB280" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC280" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD280" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE280" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF280" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG280" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH280" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI280" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ280" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK280" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL280" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM280" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="2">
+        <v>45221.519747754632</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D281" s="1">
+        <v>20235167</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F281" s="3">
+        <v>0.29166666666424135</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL281" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM281" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="2">
+        <v>45221.546820046293</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D282" s="1">
+        <v>20222637</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F282" s="3">
+        <v>0.54444444444379769</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H282" s="1">
+        <v>1</v>
+      </c>
+      <c r="I282" s="1">
+        <v>2</v>
+      </c>
+      <c r="J282" s="1">
+        <v>2</v>
+      </c>
+      <c r="K282" s="1">
+        <v>2</v>
+      </c>
+      <c r="L282" s="1">
+        <v>3</v>
+      </c>
+      <c r="M282" s="1">
+        <v>3</v>
+      </c>
+      <c r="N282" s="1">
+        <v>3</v>
+      </c>
+      <c r="O282" s="1">
+        <v>3</v>
+      </c>
+      <c r="P282" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q282" s="1">
+        <v>3</v>
+      </c>
+      <c r="R282" s="1">
+        <v>2</v>
+      </c>
+      <c r="S282" s="1">
+        <v>2</v>
+      </c>
+      <c r="T282" s="1">
+        <v>4</v>
+      </c>
+      <c r="U282" s="1">
+        <v>3</v>
+      </c>
+      <c r="V282" s="1">
+        <v>1</v>
+      </c>
+      <c r="W282" s="1">
+        <v>1</v>
+      </c>
+      <c r="X282" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y282" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z282" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA282" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB282" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC282" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD282" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE282" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF282" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG282" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH282" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI282" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ282" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="2">
+        <v>45221.551325567125</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D283" s="1">
+        <v>20217122</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F283" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK283" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL283" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM283" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN283" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO283" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP283" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ283" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR283" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS283" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT283" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU283" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV283" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW283" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX283" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY283" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ283" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA283" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB283" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC283" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD283" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE283" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF283" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG283" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH283" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI283" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ283" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK283" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL283" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM283" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="2">
+        <v>45221.552982222223</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D284" s="1">
+        <v>20193331</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F284" s="3">
+        <v>0.5506944444423425</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H284" s="1">
+        <v>1</v>
+      </c>
+      <c r="I284" s="1">
+        <v>3</v>
+      </c>
+      <c r="J284" s="1">
+        <v>6</v>
+      </c>
+      <c r="K284" s="1">
+        <v>4</v>
+      </c>
+      <c r="L284" s="1">
+        <v>4</v>
+      </c>
+      <c r="M284" s="1">
+        <v>2</v>
+      </c>
+      <c r="N284" s="1">
+        <v>5</v>
+      </c>
+      <c r="O284" s="1">
+        <v>4</v>
+      </c>
+      <c r="P284" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q284" s="1">
+        <v>4</v>
+      </c>
+      <c r="R284" s="1">
+        <v>3</v>
+      </c>
+      <c r="S284" s="1">
+        <v>4</v>
+      </c>
+      <c r="T284" s="1">
+        <v>1</v>
+      </c>
+      <c r="U284" s="1">
+        <v>1</v>
+      </c>
+      <c r="V284" s="1">
+        <v>4</v>
+      </c>
+      <c r="W284" s="1">
+        <v>4</v>
+      </c>
+      <c r="X284" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y284" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z284" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA284" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB284" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC284" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD284" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE284" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF284" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG284" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH284" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI284" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ284" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="2">
+        <v>45221.560037256946</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D285" s="1">
+        <v>20236714</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F285" s="3">
+        <v>0.55763888888759539</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK285" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL285" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM285" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN285" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO285" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP285" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ285" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR285" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS285" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT285" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU285" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV285" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW285" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX285" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY285" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ285" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA285" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB285" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC285" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD285" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE285" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF285" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG285" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH285" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI285" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ285" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK285" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL285" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM285" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="2">
+        <v>45221.561864560186</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D286" s="1">
+        <v>20183831</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F286" s="3">
+        <v>0.56041666666715173</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK286" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL286" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM286" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN286" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO286" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP286" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ286" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR286" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS286" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT286" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU286" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV286" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW286" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX286" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY286" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ286" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA286" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB286" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC286" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD286" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE286" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF286" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG286" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH286" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI286" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ286" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK286" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL286" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM286" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="2">
+        <v>45221.586690069445</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D287" s="1">
+        <v>20213606</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F287" s="3">
+        <v>0.58472222222189885</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK287" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL287" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM287" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN287" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO287" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP287" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ287" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR287" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS287" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT287" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU287" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV287" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW287" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX287" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY287" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ287" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA287" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB287" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC287" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD287" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE287" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF287" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG287" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH287" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI287" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ287" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK287" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL287" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM287" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="2">
+        <v>45221.588566458333</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D288" s="1">
+        <v>20232829</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F288" s="3">
+        <v>0.58819444444088731</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY288" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL288" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM288" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="2">
+        <v>45221.590488576388</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D289" s="1">
+        <v>20212707</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F289" s="3">
+        <v>0.58888888888759539</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK289" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL289" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM289" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN289" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO289" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP289" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ289" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR289" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS289" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT289" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU289" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV289" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW289" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX289" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY289" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ289" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA289" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB289" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC289" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD289" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE289" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF289" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG289" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH289" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI289" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ289" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK289" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL289" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM289" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="2">
+        <v>45221.59102605324</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D290" s="1">
+        <v>20193401</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F290" s="3">
+        <v>0.58958333333430346</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H290" s="1">
+        <v>4</v>
+      </c>
+      <c r="I290" s="1">
+        <v>4</v>
+      </c>
+      <c r="J290" s="1">
+        <v>4</v>
+      </c>
+      <c r="K290" s="1">
+        <v>4</v>
+      </c>
+      <c r="L290" s="1">
+        <v>2</v>
+      </c>
+      <c r="M290" s="1">
+        <v>4</v>
+      </c>
+      <c r="N290" s="1">
+        <v>3</v>
+      </c>
+      <c r="O290" s="1">
+        <v>3</v>
+      </c>
+      <c r="P290" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q290" s="1">
+        <v>3</v>
+      </c>
+      <c r="R290" s="1">
+        <v>3</v>
+      </c>
+      <c r="S290" s="1">
+        <v>3</v>
+      </c>
+      <c r="T290" s="1">
+        <v>4</v>
+      </c>
+      <c r="U290" s="1">
+        <v>4</v>
+      </c>
+      <c r="V290" s="1">
+        <v>4</v>
+      </c>
+      <c r="W290" s="1">
+        <v>4</v>
+      </c>
+      <c r="X290" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y290" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z290" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA290" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB290" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC290" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD290" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE290" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF290" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG290" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH290" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI290" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ290" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784CCD15-69FB-864C-8486-7BCBED7F5608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8682FDC-4B77-5240-86ED-587ED3B5C4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4020" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="640" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="932">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2726,6 +2726,96 @@
   </si>
   <si>
     <t>김서진</t>
+  </si>
+  <si>
+    <t>laurano.first@gmail.com</t>
+  </si>
+  <si>
+    <t>한서연</t>
+  </si>
+  <si>
+    <t>vbn116@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">진미경 </t>
+  </si>
+  <si>
+    <t>wjstngusa@gmail.com</t>
+  </si>
+  <si>
+    <t>전수현</t>
+  </si>
+  <si>
+    <t>sung93716@gmail.com</t>
+  </si>
+  <si>
+    <t>한예림</t>
+  </si>
+  <si>
+    <t>yonj2sj@naver.com</t>
+  </si>
+  <si>
+    <t>양은채</t>
+  </si>
+  <si>
+    <t>jimin040719@naver.com</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>jungjukim0227@gmail.com</t>
+  </si>
+  <si>
+    <t>김정주</t>
+  </si>
+  <si>
+    <t>yesssssssun@naver.com</t>
+  </si>
+  <si>
+    <t>노선루</t>
+  </si>
+  <si>
+    <t>rladyddus789@gmail.com</t>
+  </si>
+  <si>
+    <t>김용연</t>
+  </si>
+  <si>
+    <t>ntkrud0221@naver.com</t>
+  </si>
+  <si>
+    <t>노태경</t>
+  </si>
+  <si>
+    <t>sarah04113@naver.com</t>
+  </si>
+  <si>
+    <t>박사랑</t>
+  </si>
+  <si>
+    <t>dlgusqqls@gmail.com</t>
+  </si>
+  <si>
+    <t>이현빈</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@gmail.com</t>
+  </si>
+  <si>
+    <t>p.pla1226@gmail.com</t>
+  </si>
+  <si>
+    <t>박성곤</t>
+  </si>
+  <si>
+    <t>kq872@naver.com</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>cheeseru0808@naver.com</t>
   </si>
 </sst>
 </file>
@@ -3000,11 +3090,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM380"/>
+  <dimension ref="A1:BM396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G382" sqref="G382"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F402" sqref="F402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -44899,6 +44989,1766 @@
         <v>1</v>
       </c>
     </row>
+    <row r="381" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="2">
+        <v>45221.978250162036</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D381" s="1">
+        <v>20235274</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F381" s="3">
+        <v>0.92708333333575865</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H381" s="1">
+        <v>3</v>
+      </c>
+      <c r="I381" s="1">
+        <v>3</v>
+      </c>
+      <c r="J381" s="1">
+        <v>3</v>
+      </c>
+      <c r="K381" s="1">
+        <v>3</v>
+      </c>
+      <c r="L381" s="1">
+        <v>3</v>
+      </c>
+      <c r="M381" s="1">
+        <v>3</v>
+      </c>
+      <c r="N381" s="1">
+        <v>3</v>
+      </c>
+      <c r="O381" s="1">
+        <v>3</v>
+      </c>
+      <c r="P381" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q381" s="1">
+        <v>3</v>
+      </c>
+      <c r="R381" s="1">
+        <v>3</v>
+      </c>
+      <c r="S381" s="1">
+        <v>3</v>
+      </c>
+      <c r="T381" s="1">
+        <v>3</v>
+      </c>
+      <c r="U381" s="1">
+        <v>3</v>
+      </c>
+      <c r="V381" s="1">
+        <v>3</v>
+      </c>
+      <c r="W381" s="1">
+        <v>3</v>
+      </c>
+      <c r="X381" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y381" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z381" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA381" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB381" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC381" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD381" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE381" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF381" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG381" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH381" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI381" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ381" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="2">
+        <v>45221.979713553243</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D382" s="1">
+        <v>20223963</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="F382" s="3">
+        <v>0.97222222221898846</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK382" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL382" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY382" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL382" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM382" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="2">
+        <v>45221.980307569444</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D383" s="1">
+        <v>20226158</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F383" s="3">
+        <v>0.97777777777810115</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK383" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL383" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM383" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN383" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO383" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP383" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ383" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR383" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS383" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT383" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU383" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV383" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW383" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX383" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY383" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ383" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA383" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB383" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC383" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD383" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE383" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF383" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG383" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH383" s="1">
+        <v>6</v>
+      </c>
+      <c r="BI383" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ383" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK383" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL383" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM383" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="2">
+        <v>45221.985019664353</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D384" s="1">
+        <v>20233261</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F384" s="3">
+        <v>0.98472222222335404</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H384" s="1">
+        <v>1</v>
+      </c>
+      <c r="I384" s="1">
+        <v>4</v>
+      </c>
+      <c r="J384" s="1">
+        <v>4</v>
+      </c>
+      <c r="K384" s="1">
+        <v>3</v>
+      </c>
+      <c r="L384" s="1">
+        <v>1</v>
+      </c>
+      <c r="M384" s="1">
+        <v>1</v>
+      </c>
+      <c r="N384" s="1">
+        <v>3</v>
+      </c>
+      <c r="O384" s="1">
+        <v>3</v>
+      </c>
+      <c r="P384" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q384" s="1">
+        <v>3</v>
+      </c>
+      <c r="R384" s="1">
+        <v>3</v>
+      </c>
+      <c r="S384" s="1">
+        <v>3</v>
+      </c>
+      <c r="T384" s="1">
+        <v>2</v>
+      </c>
+      <c r="U384" s="1">
+        <v>2</v>
+      </c>
+      <c r="V384" s="1">
+        <v>3</v>
+      </c>
+      <c r="W384" s="1">
+        <v>3</v>
+      </c>
+      <c r="X384" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y384" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z384" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA384" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB384" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC384" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD384" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE384" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF384" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG384" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH384" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI384" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ384" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="2">
+        <v>45221.986772372686</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D385" s="1">
+        <v>20236742</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F385" s="3">
+        <v>0.98194444444379769</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK385" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL385" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM385" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN385" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO385" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP385" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ385" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR385" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS385" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT385" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU385" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV385" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW385" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX385" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY385" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ385" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA385" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB385" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC385" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD385" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE385" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF385" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG385" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH385" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI385" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ385" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK385" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL385" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM385" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="2">
+        <v>45221.991385775458</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D386" s="1">
+        <v>20232616</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F386" s="3">
+        <v>0.80694444444088731</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK386" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM386" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN386" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO386" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP386" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ386" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR386" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS386" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT386" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU386" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV386" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW386" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX386" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY386" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ386" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA386" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB386" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC386" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD386" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE386" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF386" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG386" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH386" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI386" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ386" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK386" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL386" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM386" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="2">
+        <v>45221.991530416664</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D387" s="1">
+        <v>20232318</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F387" s="3">
+        <v>0.98958333333575865</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK387" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL387" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM387" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN387" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO387" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP387" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ387" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR387" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS387" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT387" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU387" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV387" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW387" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX387" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY387" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ387" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA387" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB387" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC387" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD387" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE387" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF387" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG387" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH387" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI387" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ387" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK387" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL387" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM387" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="2">
+        <v>45221.997154224533</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D388" s="1">
+        <v>20233922</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F388" s="3">
+        <v>0.99513888888759539</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H388" s="1">
+        <v>1</v>
+      </c>
+      <c r="I388" s="1">
+        <v>4</v>
+      </c>
+      <c r="J388" s="1">
+        <v>4</v>
+      </c>
+      <c r="K388" s="1">
+        <v>4</v>
+      </c>
+      <c r="L388" s="1">
+        <v>4</v>
+      </c>
+      <c r="M388" s="1">
+        <v>1</v>
+      </c>
+      <c r="N388" s="1">
+        <v>4</v>
+      </c>
+      <c r="O388" s="1">
+        <v>4</v>
+      </c>
+      <c r="P388" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q388" s="1">
+        <v>3</v>
+      </c>
+      <c r="R388" s="1">
+        <v>2</v>
+      </c>
+      <c r="S388" s="1">
+        <v>4</v>
+      </c>
+      <c r="T388" s="1">
+        <v>2</v>
+      </c>
+      <c r="U388" s="1">
+        <v>3</v>
+      </c>
+      <c r="V388" s="1">
+        <v>4</v>
+      </c>
+      <c r="W388" s="1">
+        <v>4</v>
+      </c>
+      <c r="X388" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y388" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z388" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA388" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB388" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC388" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD388" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE388" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF388" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG388" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH388" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI388" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ388" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="2">
+        <v>45221.997727349539</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D389" s="1">
+        <v>20191508</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F389" s="3">
+        <v>0.99583333333430346</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H389" s="1">
+        <v>1</v>
+      </c>
+      <c r="I389" s="1">
+        <v>6</v>
+      </c>
+      <c r="J389" s="1">
+        <v>5</v>
+      </c>
+      <c r="K389" s="1">
+        <v>4</v>
+      </c>
+      <c r="L389" s="1">
+        <v>2</v>
+      </c>
+      <c r="M389" s="1">
+        <v>2</v>
+      </c>
+      <c r="N389" s="1">
+        <v>5</v>
+      </c>
+      <c r="O389" s="1">
+        <v>4</v>
+      </c>
+      <c r="P389" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q389" s="1">
+        <v>2</v>
+      </c>
+      <c r="R389" s="1">
+        <v>6</v>
+      </c>
+      <c r="S389" s="1">
+        <v>4</v>
+      </c>
+      <c r="T389" s="1">
+        <v>3</v>
+      </c>
+      <c r="U389" s="1">
+        <v>1</v>
+      </c>
+      <c r="V389" s="1">
+        <v>5</v>
+      </c>
+      <c r="W389" s="1">
+        <v>6</v>
+      </c>
+      <c r="X389" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y389" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z389" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA389" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB389" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC389" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD389" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE389" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF389" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG389" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH389" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI389" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ389" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="2">
+        <v>45222.024863287035</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D390" s="1">
+        <v>20234118</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F390" s="3">
+        <v>0.52291666666860692</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H390" s="1">
+        <v>1</v>
+      </c>
+      <c r="I390" s="1">
+        <v>6</v>
+      </c>
+      <c r="J390" s="1">
+        <v>6</v>
+      </c>
+      <c r="K390" s="1">
+        <v>6</v>
+      </c>
+      <c r="L390" s="1">
+        <v>1</v>
+      </c>
+      <c r="M390" s="1">
+        <v>1</v>
+      </c>
+      <c r="N390" s="1">
+        <v>6</v>
+      </c>
+      <c r="O390" s="1">
+        <v>6</v>
+      </c>
+      <c r="P390" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q390" s="1">
+        <v>1</v>
+      </c>
+      <c r="R390" s="1">
+        <v>6</v>
+      </c>
+      <c r="S390" s="1">
+        <v>6</v>
+      </c>
+      <c r="T390" s="1">
+        <v>1</v>
+      </c>
+      <c r="U390" s="1">
+        <v>3</v>
+      </c>
+      <c r="V390" s="1">
+        <v>6</v>
+      </c>
+      <c r="W390" s="1">
+        <v>4</v>
+      </c>
+      <c r="X390" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y390" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z390" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA390" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB390" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC390" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD390" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE390" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF390" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG390" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH390" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI390" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ390" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="2">
+        <v>45222.029482129627</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D391" s="1">
+        <v>20232532</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="F391" s="3">
+        <v>2.7083333334303461E-2</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H391" s="1">
+        <v>3</v>
+      </c>
+      <c r="I391" s="1">
+        <v>6</v>
+      </c>
+      <c r="J391" s="1">
+        <v>5</v>
+      </c>
+      <c r="K391" s="1">
+        <v>5</v>
+      </c>
+      <c r="L391" s="1">
+        <v>5</v>
+      </c>
+      <c r="M391" s="1">
+        <v>5</v>
+      </c>
+      <c r="N391" s="1">
+        <v>4</v>
+      </c>
+      <c r="O391" s="1">
+        <v>5</v>
+      </c>
+      <c r="P391" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q391" s="1">
+        <v>5</v>
+      </c>
+      <c r="R391" s="1">
+        <v>5</v>
+      </c>
+      <c r="S391" s="1">
+        <v>5</v>
+      </c>
+      <c r="T391" s="1">
+        <v>2</v>
+      </c>
+      <c r="U391" s="1">
+        <v>4</v>
+      </c>
+      <c r="V391" s="1">
+        <v>4</v>
+      </c>
+      <c r="W391" s="1">
+        <v>4</v>
+      </c>
+      <c r="X391" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y391" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z391" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA391" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB391" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC391" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD391" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE391" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF391" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG391" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH391" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI391" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ391" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="2">
+        <v>45222.045741863425</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D392" s="1">
+        <v>20233635</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="F392" s="3">
+        <v>4.5138888890505768E-2</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK392" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL392" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM392" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN392" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO392" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP392" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ392" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR392" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS392" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT392" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU392" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV392" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW392" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX392" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY392" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ392" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA392" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB392" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC392" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD392" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE392" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF392" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG392" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH392" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI392" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ392" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK392" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL392" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM392" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="2">
+        <v>45222.072949560184</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D393" s="1">
+        <v>20212708</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F393" s="3">
+        <v>7.0138888884685002E-2</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H393" s="1">
+        <v>4</v>
+      </c>
+      <c r="I393" s="1">
+        <v>4</v>
+      </c>
+      <c r="J393" s="1">
+        <v>5</v>
+      </c>
+      <c r="K393" s="1">
+        <v>5</v>
+      </c>
+      <c r="L393" s="1">
+        <v>3</v>
+      </c>
+      <c r="M393" s="1">
+        <v>3</v>
+      </c>
+      <c r="N393" s="1">
+        <v>5</v>
+      </c>
+      <c r="O393" s="1">
+        <v>4</v>
+      </c>
+      <c r="P393" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q393" s="1">
+        <v>3</v>
+      </c>
+      <c r="R393" s="1">
+        <v>6</v>
+      </c>
+      <c r="S393" s="1">
+        <v>6</v>
+      </c>
+      <c r="T393" s="1">
+        <v>1</v>
+      </c>
+      <c r="U393" s="1">
+        <v>2</v>
+      </c>
+      <c r="V393" s="1">
+        <v>6</v>
+      </c>
+      <c r="W393" s="1">
+        <v>5</v>
+      </c>
+      <c r="X393" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y393" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z393" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA393" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB393" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC393" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD393" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE393" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF393" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG393" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH393" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI393" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ393" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="2">
+        <v>45222.077805439811</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D394" s="1">
+        <v>20236127</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="F394" s="3">
+        <v>7.7083333337213844E-2</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H394" s="1">
+        <v>2</v>
+      </c>
+      <c r="I394" s="1">
+        <v>2</v>
+      </c>
+      <c r="J394" s="1">
+        <v>2</v>
+      </c>
+      <c r="K394" s="1">
+        <v>2</v>
+      </c>
+      <c r="L394" s="1">
+        <v>3</v>
+      </c>
+      <c r="M394" s="1">
+        <v>2</v>
+      </c>
+      <c r="N394" s="1">
+        <v>3</v>
+      </c>
+      <c r="O394" s="1">
+        <v>2</v>
+      </c>
+      <c r="P394" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q394" s="1">
+        <v>2</v>
+      </c>
+      <c r="R394" s="1">
+        <v>3</v>
+      </c>
+      <c r="S394" s="1">
+        <v>2</v>
+      </c>
+      <c r="T394" s="1">
+        <v>3</v>
+      </c>
+      <c r="U394" s="1">
+        <v>2</v>
+      </c>
+      <c r="V394" s="1">
+        <v>3</v>
+      </c>
+      <c r="W394" s="1">
+        <v>2</v>
+      </c>
+      <c r="X394" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y394" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z394" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA394" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB394" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC394" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD394" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE394" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF394" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG394" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI394" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ394" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="2">
+        <v>45222.100778946755</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D395" s="1">
+        <v>20193531</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F395" s="3">
+        <v>8.3333333335758653E-2</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK395" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL395" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM395" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN395" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO395" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP395" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ395" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR395" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS395" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT395" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU395" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV395" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW395" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX395" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY395" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ395" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA395" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB395" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC395" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD395" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE395" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF395" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG395" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH395" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI395" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ395" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK395" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL395" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM395" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="2">
+        <v>45222.141228287037</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D396" s="1">
+        <v>20201606</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F396" s="3">
+        <v>0.13958333333721384</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H396" s="1">
+        <v>4</v>
+      </c>
+      <c r="I396" s="1">
+        <v>4</v>
+      </c>
+      <c r="J396" s="1">
+        <v>3</v>
+      </c>
+      <c r="K396" s="1">
+        <v>3</v>
+      </c>
+      <c r="L396" s="1">
+        <v>4</v>
+      </c>
+      <c r="M396" s="1">
+        <v>3</v>
+      </c>
+      <c r="N396" s="1">
+        <v>4</v>
+      </c>
+      <c r="O396" s="1">
+        <v>3</v>
+      </c>
+      <c r="P396" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q396" s="1">
+        <v>4</v>
+      </c>
+      <c r="R396" s="1">
+        <v>4</v>
+      </c>
+      <c r="S396" s="1">
+        <v>3</v>
+      </c>
+      <c r="T396" s="1">
+        <v>4</v>
+      </c>
+      <c r="U396" s="1">
+        <v>4</v>
+      </c>
+      <c r="V396" s="1">
+        <v>4</v>
+      </c>
+      <c r="W396" s="1">
+        <v>4</v>
+      </c>
+      <c r="X396" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y396" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z396" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA396" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB396" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC396" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD396" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE396" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF396" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG396" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH396" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI396" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ396" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8682FDC-4B77-5240-86ED-587ED3B5C4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC000DF-8FAB-0F43-AFDE-621108A1A199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="640" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49200" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="980">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2816,6 +2816,150 @@
   </si>
   <si>
     <t>cheeseru0808@naver.com</t>
+  </si>
+  <si>
+    <t>20192988@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>조성모</t>
+  </si>
+  <si>
+    <t>cici030728@gmail.com</t>
+  </si>
+  <si>
+    <t>박태양</t>
+  </si>
+  <si>
+    <t>jjsuk9702@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>김선혁</t>
+  </si>
+  <si>
+    <t>mys714@naver.com</t>
+  </si>
+  <si>
+    <t>문예슬</t>
+  </si>
+  <si>
+    <t>skdud5438@naver.com</t>
+  </si>
+  <si>
+    <t>곽나영</t>
+  </si>
+  <si>
+    <t>byeol1710@naver.com</t>
+  </si>
+  <si>
+    <t>김별</t>
+  </si>
+  <si>
+    <t>blleuey@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>mu072468@gmail.com</t>
+  </si>
+  <si>
+    <t>ekgus0916@naver.com</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>wnsaus_0522@naver.com</t>
+  </si>
+  <si>
+    <t>진희원</t>
+  </si>
+  <si>
+    <t>mosumin345@gmail.com</t>
+  </si>
+  <si>
+    <t>모수민</t>
+  </si>
+  <si>
+    <t>dbwjd_1230@naver.com</t>
+  </si>
+  <si>
+    <t>김유정</t>
+  </si>
+  <si>
+    <t>yukuyl0625@naver.com</t>
+  </si>
+  <si>
+    <t>차유결</t>
+  </si>
+  <si>
+    <t>wlals0817@naver.com</t>
+  </si>
+  <si>
+    <t>정지민</t>
+  </si>
+  <si>
+    <t>rkdtmdrn1018@naver.com</t>
+  </si>
+  <si>
+    <t>강승구</t>
+  </si>
+  <si>
+    <t>limhyoeun8698@naver.com</t>
+  </si>
+  <si>
+    <t>임효은</t>
+  </si>
+  <si>
+    <t>bill916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>zesprie@naver.com</t>
+  </si>
+  <si>
+    <t>강미소</t>
+  </si>
+  <si>
+    <t>total7146@gmail.com</t>
+  </si>
+  <si>
+    <t>안정하</t>
+  </si>
+  <si>
+    <t>a40432708@gmail.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>alsgk03@naver.com</t>
+  </si>
+  <si>
+    <t>박민하</t>
+  </si>
+  <si>
+    <t>rladbqls1728@naver.com</t>
+  </si>
+  <si>
+    <t>김유빈</t>
+  </si>
+  <si>
+    <t>junhvn1@gmail.com</t>
+  </si>
+  <si>
+    <t>박준한</t>
   </si>
 </sst>
 </file>
@@ -3090,11 +3234,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM396"/>
+  <dimension ref="A1:BM419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F402" sqref="F402"/>
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D423" sqref="D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -46749,6 +46893,2536 @@
         <v>3</v>
       </c>
     </row>
+    <row r="397" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="2">
+        <v>45222.406823217592</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D397" s="1">
+        <v>20192988</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F397" s="3">
+        <v>0.40347222222044365</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK397" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL397" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM397" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN397" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO397" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP397" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ397" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR397" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS397" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT397" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU397" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV397" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW397" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX397" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY397" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ397" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA397" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB397" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC397" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD397" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE397" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF397" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG397" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH397" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI397" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ397" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK397" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL397" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM397" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="2">
+        <v>45222.457491875</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D398" s="1">
+        <v>20235175</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F398" s="3">
+        <v>0.47222222221898846</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY398" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ398" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA398" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB398" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC398" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD398" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE398" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF398" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG398" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH398" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI398" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ398" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK398" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL398" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM398" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="2">
+        <v>45222.46394475695</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D399" s="1">
+        <v>20217141</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F399" s="3">
+        <v>0.45833333333575865</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK399" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL399" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM399" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN399" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO399" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP399" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ399" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR399" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS399" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT399" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU399" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV399" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW399" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX399" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY399" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ399" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA399" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB399" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC399" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD399" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE399" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF399" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG399" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH399" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI399" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ399" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK399" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL399" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM399" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="2">
+        <v>45222.488173622682</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D400" s="1">
+        <v>20191614</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="F400" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H400" s="1">
+        <v>2</v>
+      </c>
+      <c r="I400" s="1">
+        <v>5</v>
+      </c>
+      <c r="J400" s="1">
+        <v>4</v>
+      </c>
+      <c r="K400" s="1">
+        <v>5</v>
+      </c>
+      <c r="L400" s="1">
+        <v>3</v>
+      </c>
+      <c r="M400" s="1">
+        <v>3</v>
+      </c>
+      <c r="N400" s="1">
+        <v>4</v>
+      </c>
+      <c r="O400" s="1">
+        <v>5</v>
+      </c>
+      <c r="P400" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q400" s="1">
+        <v>2</v>
+      </c>
+      <c r="R400" s="1">
+        <v>4</v>
+      </c>
+      <c r="S400" s="1">
+        <v>4</v>
+      </c>
+      <c r="T400" s="1">
+        <v>3</v>
+      </c>
+      <c r="U400" s="1">
+        <v>2</v>
+      </c>
+      <c r="V400" s="1">
+        <v>4</v>
+      </c>
+      <c r="W400" s="1">
+        <v>4</v>
+      </c>
+      <c r="X400" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y400" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z400" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA400" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB400" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC400" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD400" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE400" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF400" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG400" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH400" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI400" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ400" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="2">
+        <v>45222.557463206016</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D401" s="1">
+        <v>20232803</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="F401" s="3">
+        <v>0.55347222222189885</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H401" s="1">
+        <v>3</v>
+      </c>
+      <c r="I401" s="1">
+        <v>3</v>
+      </c>
+      <c r="J401" s="1">
+        <v>2</v>
+      </c>
+      <c r="K401" s="1">
+        <v>2</v>
+      </c>
+      <c r="L401" s="1">
+        <v>4</v>
+      </c>
+      <c r="M401" s="1">
+        <v>4</v>
+      </c>
+      <c r="N401" s="1">
+        <v>3</v>
+      </c>
+      <c r="O401" s="1">
+        <v>2</v>
+      </c>
+      <c r="P401" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q401" s="1">
+        <v>4</v>
+      </c>
+      <c r="R401" s="1">
+        <v>2</v>
+      </c>
+      <c r="S401" s="1">
+        <v>3</v>
+      </c>
+      <c r="T401" s="1">
+        <v>5</v>
+      </c>
+      <c r="U401" s="1">
+        <v>2</v>
+      </c>
+      <c r="V401" s="1">
+        <v>2</v>
+      </c>
+      <c r="W401" s="1">
+        <v>5</v>
+      </c>
+      <c r="X401" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y401" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z401" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA401" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB401" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC401" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD401" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE401" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF401" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG401" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH401" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI401" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ401" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="2">
+        <v>45222.586030879625</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D402" s="1">
+        <v>20226218</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F402" s="3">
+        <v>0.58055555555620231</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK402" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL402" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM402" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN402" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO402" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP402" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ402" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR402" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS402" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT402" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU402" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV402" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW402" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX402" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY402" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ402" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA402" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB402" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC402" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD402" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE402" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF402" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG402" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH402" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI402" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ402" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK402" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL402" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM402" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="2">
+        <v>45222.589141249999</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D403" s="1">
+        <v>20203235</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="F403" s="3">
+        <v>0.58750000000145519</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H403" s="1">
+        <v>3</v>
+      </c>
+      <c r="I403" s="1">
+        <v>4</v>
+      </c>
+      <c r="J403" s="1">
+        <v>3</v>
+      </c>
+      <c r="K403" s="1">
+        <v>2</v>
+      </c>
+      <c r="L403" s="1">
+        <v>3</v>
+      </c>
+      <c r="M403" s="1">
+        <v>3</v>
+      </c>
+      <c r="N403" s="1">
+        <v>3</v>
+      </c>
+      <c r="O403" s="1">
+        <v>2</v>
+      </c>
+      <c r="P403" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q403" s="1">
+        <v>4</v>
+      </c>
+      <c r="R403" s="1">
+        <v>4</v>
+      </c>
+      <c r="S403" s="1">
+        <v>3</v>
+      </c>
+      <c r="T403" s="1">
+        <v>2</v>
+      </c>
+      <c r="U403" s="1">
+        <v>4</v>
+      </c>
+      <c r="V403" s="1">
+        <v>3</v>
+      </c>
+      <c r="W403" s="1">
+        <v>5</v>
+      </c>
+      <c r="X403" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y403" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z403" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA403" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB403" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC403" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD403" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE403" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF403" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG403" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH403" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI403" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ403" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="2">
+        <v>45222.606530856487</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D404" s="1">
+        <v>20195171</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F404" s="3">
+        <v>0.60347222222480923</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H404" s="1">
+        <v>1</v>
+      </c>
+      <c r="I404" s="1">
+        <v>6</v>
+      </c>
+      <c r="J404" s="1">
+        <v>5</v>
+      </c>
+      <c r="K404" s="1">
+        <v>5</v>
+      </c>
+      <c r="L404" s="1">
+        <v>1</v>
+      </c>
+      <c r="M404" s="1">
+        <v>3</v>
+      </c>
+      <c r="N404" s="1">
+        <v>5</v>
+      </c>
+      <c r="O404" s="1">
+        <v>5</v>
+      </c>
+      <c r="P404" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q404" s="1">
+        <v>1</v>
+      </c>
+      <c r="R404" s="1">
+        <v>5</v>
+      </c>
+      <c r="S404" s="1">
+        <v>5</v>
+      </c>
+      <c r="T404" s="1">
+        <v>1</v>
+      </c>
+      <c r="U404" s="1">
+        <v>3</v>
+      </c>
+      <c r="V404" s="1">
+        <v>6</v>
+      </c>
+      <c r="W404" s="1">
+        <v>5</v>
+      </c>
+      <c r="X404" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y404" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z404" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA404" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB404" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC404" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD404" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE404" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF404" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG404" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH404" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI404" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ404" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="2">
+        <v>45222.624268657411</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D405" s="1">
+        <v>20217125</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="F405" s="3">
+        <v>0.62152777778101154</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H405" s="1">
+        <v>3</v>
+      </c>
+      <c r="I405" s="1">
+        <v>2</v>
+      </c>
+      <c r="J405" s="1">
+        <v>3</v>
+      </c>
+      <c r="K405" s="1">
+        <v>2</v>
+      </c>
+      <c r="L405" s="1">
+        <v>3</v>
+      </c>
+      <c r="M405" s="1">
+        <v>2</v>
+      </c>
+      <c r="N405" s="1">
+        <v>3</v>
+      </c>
+      <c r="O405" s="1">
+        <v>3</v>
+      </c>
+      <c r="P405" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q405" s="1">
+        <v>3</v>
+      </c>
+      <c r="R405" s="1">
+        <v>3</v>
+      </c>
+      <c r="S405" s="1">
+        <v>3</v>
+      </c>
+      <c r="T405" s="1">
+        <v>3</v>
+      </c>
+      <c r="U405" s="1">
+        <v>3</v>
+      </c>
+      <c r="V405" s="1">
+        <v>3</v>
+      </c>
+      <c r="W405" s="1">
+        <v>3</v>
+      </c>
+      <c r="X405" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y405" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z405" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA405" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB405" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC405" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD405" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE405" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF405" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG405" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH405" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI405" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ405" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="2">
+        <v>45222.626131944446</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D406" s="1">
+        <v>20231093</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F406" s="3">
+        <v>0.62291666666715173</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK406" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL406" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM406" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN406" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO406" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP406" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ406" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR406" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS406" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT406" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU406" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV406" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW406" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX406" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY406" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ406" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA406" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB406" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC406" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD406" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE406" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF406" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG406" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH406" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI406" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ406" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK406" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL406" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM406" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="2">
+        <v>45222.626714652783</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D407" s="1">
+        <v>20226235</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F407" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H407" s="1">
+        <v>1</v>
+      </c>
+      <c r="I407" s="1">
+        <v>2</v>
+      </c>
+      <c r="J407" s="1">
+        <v>5</v>
+      </c>
+      <c r="K407" s="1">
+        <v>4</v>
+      </c>
+      <c r="L407" s="1">
+        <v>2</v>
+      </c>
+      <c r="M407" s="1">
+        <v>2</v>
+      </c>
+      <c r="N407" s="1">
+        <v>4</v>
+      </c>
+      <c r="O407" s="1">
+        <v>5</v>
+      </c>
+      <c r="P407" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q407" s="1">
+        <v>2</v>
+      </c>
+      <c r="R407" s="1">
+        <v>5</v>
+      </c>
+      <c r="S407" s="1">
+        <v>6</v>
+      </c>
+      <c r="T407" s="1">
+        <v>1</v>
+      </c>
+      <c r="U407" s="1">
+        <v>2</v>
+      </c>
+      <c r="V407" s="1">
+        <v>5</v>
+      </c>
+      <c r="W407" s="1">
+        <v>5</v>
+      </c>
+      <c r="X407" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y407" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z407" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA407" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB407" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC407" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD407" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE407" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF407" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG407" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH407" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI407" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ407" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="2">
+        <v>45222.632966527774</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D408" s="1">
+        <v>20232712</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F408" s="3">
+        <v>0.63124999999854481</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H408" s="1">
+        <v>4</v>
+      </c>
+      <c r="I408" s="1">
+        <v>3</v>
+      </c>
+      <c r="J408" s="1">
+        <v>2</v>
+      </c>
+      <c r="K408" s="1">
+        <v>2</v>
+      </c>
+      <c r="L408" s="1">
+        <v>3</v>
+      </c>
+      <c r="M408" s="1">
+        <v>4</v>
+      </c>
+      <c r="N408" s="1">
+        <v>3</v>
+      </c>
+      <c r="O408" s="1">
+        <v>2</v>
+      </c>
+      <c r="P408" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q408" s="1">
+        <v>3</v>
+      </c>
+      <c r="R408" s="1">
+        <v>4</v>
+      </c>
+      <c r="S408" s="1">
+        <v>2</v>
+      </c>
+      <c r="T408" s="1">
+        <v>4</v>
+      </c>
+      <c r="U408" s="1">
+        <v>5</v>
+      </c>
+      <c r="V408" s="1">
+        <v>3</v>
+      </c>
+      <c r="W408" s="1">
+        <v>3</v>
+      </c>
+      <c r="X408" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y408" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z408" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA408" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB408" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC408" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD408" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE408" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF408" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG408" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH408" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI408" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ408" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="2">
+        <v>45222.63761583333</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D409" s="1">
+        <v>20231540</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F409" s="3">
+        <v>0.64097222222335404</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK409" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL409" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM409" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN409" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO409" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP409" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ409" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR409" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS409" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT409" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU409" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV409" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW409" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX409" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY409" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ409" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA409" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB409" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC409" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD409" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE409" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF409" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG409" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH409" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI409" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ409" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK409" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL409" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM409" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="2">
+        <v>45222.648069722221</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D410" s="1">
+        <v>20233734</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F410" s="3">
+        <v>0.64652777777519077</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H410" s="1">
+        <v>1</v>
+      </c>
+      <c r="I410" s="1">
+        <v>5</v>
+      </c>
+      <c r="J410" s="1">
+        <v>6</v>
+      </c>
+      <c r="K410" s="1">
+        <v>4</v>
+      </c>
+      <c r="L410" s="1">
+        <v>2</v>
+      </c>
+      <c r="M410" s="1">
+        <v>1</v>
+      </c>
+      <c r="N410" s="1">
+        <v>6</v>
+      </c>
+      <c r="O410" s="1">
+        <v>5</v>
+      </c>
+      <c r="P410" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q410" s="1">
+        <v>1</v>
+      </c>
+      <c r="R410" s="1">
+        <v>6</v>
+      </c>
+      <c r="S410" s="1">
+        <v>5</v>
+      </c>
+      <c r="T410" s="1">
+        <v>1</v>
+      </c>
+      <c r="U410" s="1">
+        <v>3</v>
+      </c>
+      <c r="V410" s="1">
+        <v>6</v>
+      </c>
+      <c r="W410" s="1">
+        <v>6</v>
+      </c>
+      <c r="X410" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y410" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z410" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA410" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB410" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC410" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD410" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE410" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF410" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG410" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH410" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI410" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ410" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="2">
+        <v>45222.653066597224</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D411" s="1">
+        <v>20232902</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="F411" s="3">
+        <v>0.65000000000145519</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H411" s="1">
+        <v>2</v>
+      </c>
+      <c r="I411" s="1">
+        <v>4</v>
+      </c>
+      <c r="J411" s="1">
+        <v>4</v>
+      </c>
+      <c r="K411" s="1">
+        <v>2</v>
+      </c>
+      <c r="L411" s="1">
+        <v>1</v>
+      </c>
+      <c r="M411" s="1">
+        <v>2</v>
+      </c>
+      <c r="N411" s="1">
+        <v>3</v>
+      </c>
+      <c r="O411" s="1">
+        <v>5</v>
+      </c>
+      <c r="P411" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q411" s="1">
+        <v>2</v>
+      </c>
+      <c r="R411" s="1">
+        <v>6</v>
+      </c>
+      <c r="S411" s="1">
+        <v>4</v>
+      </c>
+      <c r="T411" s="1">
+        <v>4</v>
+      </c>
+      <c r="U411" s="1">
+        <v>5</v>
+      </c>
+      <c r="V411" s="1">
+        <v>4</v>
+      </c>
+      <c r="W411" s="1">
+        <v>4</v>
+      </c>
+      <c r="X411" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y411" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z411" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA411" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB411" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC411" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD411" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE411" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF411" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG411" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH411" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI411" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ411" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="2">
+        <v>45222.667295590276</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D412" s="1">
+        <v>20232572</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F412" s="3">
+        <v>0.66666666666424135</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H412" s="1">
+        <v>2</v>
+      </c>
+      <c r="I412" s="1">
+        <v>5</v>
+      </c>
+      <c r="J412" s="1">
+        <v>4</v>
+      </c>
+      <c r="K412" s="1">
+        <v>4</v>
+      </c>
+      <c r="L412" s="1">
+        <v>4</v>
+      </c>
+      <c r="M412" s="1">
+        <v>4</v>
+      </c>
+      <c r="N412" s="1">
+        <v>4</v>
+      </c>
+      <c r="O412" s="1">
+        <v>4</v>
+      </c>
+      <c r="P412" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q412" s="1">
+        <v>4</v>
+      </c>
+      <c r="R412" s="1">
+        <v>4</v>
+      </c>
+      <c r="S412" s="1">
+        <v>4</v>
+      </c>
+      <c r="T412" s="1">
+        <v>4</v>
+      </c>
+      <c r="U412" s="1">
+        <v>4</v>
+      </c>
+      <c r="V412" s="1">
+        <v>4</v>
+      </c>
+      <c r="W412" s="1">
+        <v>4</v>
+      </c>
+      <c r="X412" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y412" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z412" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA412" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB412" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC412" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD412" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE412" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF412" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG412" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH412" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI412" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ412" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="2">
+        <v>45222.685120486116</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D413" s="1">
+        <v>20196621</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F413" s="3">
+        <v>0.68263888888759539</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK413" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL413" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM413" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN413" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO413" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP413" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ413" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR413" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS413" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT413" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU413" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV413" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW413" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX413" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY413" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ413" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA413" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB413" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC413" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD413" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE413" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF413" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG413" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH413" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI413" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ413" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK413" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL413" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM413" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="2">
+        <v>45222.687891018519</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D414" s="1">
+        <v>20182101</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F414" s="3">
+        <v>0.68680555555329192</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H414" s="1">
+        <v>2</v>
+      </c>
+      <c r="I414" s="1">
+        <v>4</v>
+      </c>
+      <c r="J414" s="1">
+        <v>4</v>
+      </c>
+      <c r="K414" s="1">
+        <v>4</v>
+      </c>
+      <c r="L414" s="1">
+        <v>4</v>
+      </c>
+      <c r="M414" s="1">
+        <v>3</v>
+      </c>
+      <c r="N414" s="1">
+        <v>4</v>
+      </c>
+      <c r="O414" s="1">
+        <v>2</v>
+      </c>
+      <c r="P414" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q414" s="1">
+        <v>3</v>
+      </c>
+      <c r="R414" s="1">
+        <v>5</v>
+      </c>
+      <c r="S414" s="1">
+        <v>3</v>
+      </c>
+      <c r="T414" s="1">
+        <v>2</v>
+      </c>
+      <c r="U414" s="1">
+        <v>4</v>
+      </c>
+      <c r="V414" s="1">
+        <v>4</v>
+      </c>
+      <c r="W414" s="1">
+        <v>5</v>
+      </c>
+      <c r="X414" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y414" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z414" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA414" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB414" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC414" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD414" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE414" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF414" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG414" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH414" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI414" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ414" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="2">
+        <v>45222.702925509264</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D415" s="1">
+        <v>20223722</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="F415" s="3">
+        <v>0.70138888889050577</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK415" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM415" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN415" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO415" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP415" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ415" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR415" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS415" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT415" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU415" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV415" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW415" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX415" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY415" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ415" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA415" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB415" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC415" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD415" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE415" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF415" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG415" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH415" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI415" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ415" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK415" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL415" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM415" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="2">
+        <v>45222.712183402778</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D416" s="1">
+        <v>20191218</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F416" s="3">
+        <v>0.71041666666860692</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H416" s="1">
+        <v>2</v>
+      </c>
+      <c r="I416" s="1">
+        <v>4</v>
+      </c>
+      <c r="J416" s="1">
+        <v>4</v>
+      </c>
+      <c r="K416" s="1">
+        <v>3</v>
+      </c>
+      <c r="L416" s="1">
+        <v>2</v>
+      </c>
+      <c r="M416" s="1">
+        <v>2</v>
+      </c>
+      <c r="N416" s="1">
+        <v>3</v>
+      </c>
+      <c r="O416" s="1">
+        <v>4</v>
+      </c>
+      <c r="P416" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q416" s="1">
+        <v>3</v>
+      </c>
+      <c r="R416" s="1">
+        <v>3</v>
+      </c>
+      <c r="S416" s="1">
+        <v>4</v>
+      </c>
+      <c r="T416" s="1">
+        <v>3</v>
+      </c>
+      <c r="U416" s="1">
+        <v>4</v>
+      </c>
+      <c r="V416" s="1">
+        <v>5</v>
+      </c>
+      <c r="W416" s="1">
+        <v>5</v>
+      </c>
+      <c r="X416" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y416" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z416" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA416" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB416" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC416" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD416" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE416" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF416" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG416" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH416" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI416" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ416" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="2">
+        <v>45222.721062800927</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D417" s="1">
+        <v>20222213</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F417" s="3">
+        <v>0.71736111110658385</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK417" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL417" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM417" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN417" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO417" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP417" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ417" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR417" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS417" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT417" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU417" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV417" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW417" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX417" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY417" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ417" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA417" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB417" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC417" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD417" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE417" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF417" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG417" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH417" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI417" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ417" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK417" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL417" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM417" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="2">
+        <v>45222.767182361116</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D418" s="1">
+        <v>20232412</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="F418" s="3">
+        <v>0.76388888889050577</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK418" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL418" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM418" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN418" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO418" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP418" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ418" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR418" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS418" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT418" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU418" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV418" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW418" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX418" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY418" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ418" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA418" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB418" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC418" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD418" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE418" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF418" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG418" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH418" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI418" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ418" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK418" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL418" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM418" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="2">
+        <v>45222.82132018519</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D419" s="1">
+        <v>20192614</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="F419" s="3">
+        <v>0.81944444444525288</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK419" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL419" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM419" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN419" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO419" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP419" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ419" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR419" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS419" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT419" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU419" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV419" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW419" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX419" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY419" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ419" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA419" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB419" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC419" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD419" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE419" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF419" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG419" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH419" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI419" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ419" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK419" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL419" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM419" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC000DF-8FAB-0F43-AFDE-621108A1A199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5242CDB-2BEC-8746-8165-2F2B4C73E619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49200" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="1007">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2960,6 +2960,87 @@
   </si>
   <si>
     <t>박준한</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>soekhyun7628@naver.com</t>
+  </si>
+  <si>
+    <t>김석현</t>
+  </si>
+  <si>
+    <t>tlsfkdhs0321@naver.com</t>
+  </si>
+  <si>
+    <t>신라온</t>
+  </si>
+  <si>
+    <t>dyseo0303@gmail.com</t>
+  </si>
+  <si>
+    <t>서동영</t>
+  </si>
+  <si>
+    <t>hmw1019@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한민우</t>
+  </si>
+  <si>
+    <t>daeun8937@naver.com</t>
+  </si>
+  <si>
+    <t>최다은</t>
+  </si>
+  <si>
+    <t>psp528500@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>meldek98@gmail.com</t>
+  </si>
+  <si>
+    <t>강비성</t>
+  </si>
+  <si>
+    <t>happle0313@naver.com</t>
+  </si>
+  <si>
+    <t>김희경</t>
+  </si>
+  <si>
+    <t>pop8976@naver.com</t>
+  </si>
+  <si>
+    <t>최시현</t>
+  </si>
+  <si>
+    <t>tjdus3641@gmail.com</t>
+  </si>
+  <si>
+    <t>장서연</t>
+  </si>
+  <si>
+    <t>seonyeong0429@gmail.com</t>
+  </si>
+  <si>
+    <t>노선영</t>
+  </si>
+  <si>
+    <t>rjsdnjs0711@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>서건원</t>
   </si>
 </sst>
 </file>
@@ -3234,11 +3315,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM419"/>
+  <dimension ref="A1:BM432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D423" sqref="D423"/>
+      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H436" sqref="H436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -49423,6 +49504,1436 @@
         <v>1</v>
       </c>
     </row>
+    <row r="420" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="2">
+        <v>45222.859041504635</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D420" s="1">
+        <v>20205265</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="F420" s="3">
+        <v>0.85624999999708962</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H420" s="1">
+        <v>1</v>
+      </c>
+      <c r="I420" s="1">
+        <v>5</v>
+      </c>
+      <c r="J420" s="1">
+        <v>5</v>
+      </c>
+      <c r="K420" s="1">
+        <v>5</v>
+      </c>
+      <c r="L420" s="1">
+        <v>1</v>
+      </c>
+      <c r="M420" s="1">
+        <v>1</v>
+      </c>
+      <c r="N420" s="1">
+        <v>5</v>
+      </c>
+      <c r="O420" s="1">
+        <v>5</v>
+      </c>
+      <c r="P420" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q420" s="1">
+        <v>1</v>
+      </c>
+      <c r="R420" s="1">
+        <v>5</v>
+      </c>
+      <c r="S420" s="1">
+        <v>5</v>
+      </c>
+      <c r="T420" s="1">
+        <v>1</v>
+      </c>
+      <c r="U420" s="1">
+        <v>1</v>
+      </c>
+      <c r="V420" s="1">
+        <v>5</v>
+      </c>
+      <c r="W420" s="1">
+        <v>5</v>
+      </c>
+      <c r="X420" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y420" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z420" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA420" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB420" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC420" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD420" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE420" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF420" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG420" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH420" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI420" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ420" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="2">
+        <v>45222.88781241898</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D421" s="1">
+        <v>20223807</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="F421" s="3">
+        <v>0.93263888888759539</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H421" s="1">
+        <v>1</v>
+      </c>
+      <c r="I421" s="1">
+        <v>6</v>
+      </c>
+      <c r="J421" s="1">
+        <v>4</v>
+      </c>
+      <c r="K421" s="1">
+        <v>4</v>
+      </c>
+      <c r="L421" s="1">
+        <v>2</v>
+      </c>
+      <c r="M421" s="1">
+        <v>2</v>
+      </c>
+      <c r="N421" s="1">
+        <v>4</v>
+      </c>
+      <c r="O421" s="1">
+        <v>3</v>
+      </c>
+      <c r="P421" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q421" s="1">
+        <v>3</v>
+      </c>
+      <c r="R421" s="1">
+        <v>4</v>
+      </c>
+      <c r="S421" s="1">
+        <v>4</v>
+      </c>
+      <c r="T421" s="1">
+        <v>1</v>
+      </c>
+      <c r="U421" s="1">
+        <v>3</v>
+      </c>
+      <c r="V421" s="1">
+        <v>4</v>
+      </c>
+      <c r="W421" s="1">
+        <v>4</v>
+      </c>
+      <c r="X421" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y421" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z421" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA421" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB421" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC421" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD421" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE421" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF421" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG421" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH421" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI421" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ421" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="2">
+        <v>45222.899175763887</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D422" s="1">
+        <v>20233522</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="F422" s="3">
+        <v>0.89513888888905058</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK422" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL422" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM422" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN422" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO422" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP422" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ422" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR422" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS422" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT422" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU422" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV422" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW422" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX422" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY422" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ422" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA422" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB422" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC422" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD422" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE422" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF422" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG422" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH422" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI422" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ422" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK422" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL422" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM422" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="2">
+        <v>45222.937942615739</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D423" s="1">
+        <v>20235182</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F423" s="3">
+        <v>0.93611111110658385</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK423" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL423" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM423" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN423" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO423" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP423" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ423" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR423" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS423" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT423" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU423" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV423" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW423" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX423" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY423" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ423" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA423" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB423" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC423" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD423" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE423" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF423" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG423" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH423" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI423" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ423" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK423" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL423" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM423" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="2">
+        <v>45222.942298055554</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D424" s="1">
+        <v>20236785</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="F424" s="3">
+        <v>0.93958333333284827</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK424" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL424" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM424" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN424" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO424" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP424" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ424" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR424" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS424" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT424" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU424" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV424" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW424" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX424" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY424" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ424" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA424" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB424" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC424" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD424" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE424" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF424" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG424" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH424" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI424" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ424" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK424" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL424" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM424" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="2">
+        <v>45222.947118530094</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D425" s="1">
+        <v>20232753</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F425" s="3">
+        <v>0.94305555555911269</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK425" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL425" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM425" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN425" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO425" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP425" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ425" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR425" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS425" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT425" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU425" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV425" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW425" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX425" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY425" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ425" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA425" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB425" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC425" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD425" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE425" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF425" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG425" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH425" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI425" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ425" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK425" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL425" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM425" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="2">
+        <v>45222.97048167824</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D426" s="1">
+        <v>20232960</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="F426" s="3">
+        <v>0.96736111110658385</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK426" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL426" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM426" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN426" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO426" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP426" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ426" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR426" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS426" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT426" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU426" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV426" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW426" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX426" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY426" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ426" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA426" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB426" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC426" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD426" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE426" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF426" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG426" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH426" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI426" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ426" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK426" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL426" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM426" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="2">
+        <v>45222.97151768519</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D427" s="1">
+        <v>20235102</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="F427" s="3">
+        <v>0.97083333333284827</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY427" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL427" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM427" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="2">
+        <v>45222.974193923612</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D428" s="1">
+        <v>20202945</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F428" s="3">
+        <v>0.96875</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK428" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL428" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM428" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN428" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO428" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP428" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ428" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR428" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS428" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT428" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU428" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV428" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW428" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX428" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY428" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ428" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA428" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB428" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC428" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD428" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE428" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF428" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG428" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH428" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI428" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ428" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK428" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL428" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM428" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="2">
+        <v>45222.991701516206</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D429" s="1">
+        <v>20232756</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F429" s="3">
+        <v>0.98958333333575865</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H429" s="1">
+        <v>4</v>
+      </c>
+      <c r="I429" s="1">
+        <v>2</v>
+      </c>
+      <c r="J429" s="1">
+        <v>2</v>
+      </c>
+      <c r="K429" s="1">
+        <v>2</v>
+      </c>
+      <c r="L429" s="1">
+        <v>4</v>
+      </c>
+      <c r="M429" s="1">
+        <v>4</v>
+      </c>
+      <c r="N429" s="1">
+        <v>2</v>
+      </c>
+      <c r="O429" s="1">
+        <v>3</v>
+      </c>
+      <c r="P429" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q429" s="1">
+        <v>5</v>
+      </c>
+      <c r="R429" s="1">
+        <v>5</v>
+      </c>
+      <c r="S429" s="1">
+        <v>3</v>
+      </c>
+      <c r="T429" s="1">
+        <v>5</v>
+      </c>
+      <c r="U429" s="1">
+        <v>5</v>
+      </c>
+      <c r="V429" s="1">
+        <v>3</v>
+      </c>
+      <c r="W429" s="1">
+        <v>4</v>
+      </c>
+      <c r="X429" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y429" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z429" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA429" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB429" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC429" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD429" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE429" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF429" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG429" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH429" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI429" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ429" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="2">
+        <v>45222.992928055552</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D430" s="1">
+        <v>20226283</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F430" s="3">
+        <v>0.99027777777519077</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H430" s="1">
+        <v>2</v>
+      </c>
+      <c r="I430" s="1">
+        <v>4</v>
+      </c>
+      <c r="J430" s="1">
+        <v>4</v>
+      </c>
+      <c r="K430" s="1">
+        <v>5</v>
+      </c>
+      <c r="L430" s="1">
+        <v>1</v>
+      </c>
+      <c r="M430" s="1">
+        <v>1</v>
+      </c>
+      <c r="N430" s="1">
+        <v>5</v>
+      </c>
+      <c r="O430" s="1">
+        <v>4</v>
+      </c>
+      <c r="P430" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q430" s="1">
+        <v>2</v>
+      </c>
+      <c r="R430" s="1">
+        <v>5</v>
+      </c>
+      <c r="S430" s="1">
+        <v>4</v>
+      </c>
+      <c r="T430" s="1">
+        <v>2</v>
+      </c>
+      <c r="U430" s="1">
+        <v>4</v>
+      </c>
+      <c r="V430" s="1">
+        <v>5</v>
+      </c>
+      <c r="W430" s="1">
+        <v>5</v>
+      </c>
+      <c r="X430" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y430" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z430" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA430" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB430" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC430" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD430" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE430" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF430" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG430" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH430" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ430" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="2">
+        <v>45223.050722546293</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D431" s="1">
+        <v>20236235</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F431" s="3">
+        <v>4.9305555556202307E-2</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H431" s="1">
+        <v>2</v>
+      </c>
+      <c r="I431" s="1">
+        <v>2</v>
+      </c>
+      <c r="J431" s="1">
+        <v>4</v>
+      </c>
+      <c r="K431" s="1">
+        <v>2</v>
+      </c>
+      <c r="L431" s="1">
+        <v>2</v>
+      </c>
+      <c r="M431" s="1">
+        <v>2</v>
+      </c>
+      <c r="N431" s="1">
+        <v>5</v>
+      </c>
+      <c r="O431" s="1">
+        <v>3</v>
+      </c>
+      <c r="P431" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q431" s="1">
+        <v>3</v>
+      </c>
+      <c r="R431" s="1">
+        <v>4</v>
+      </c>
+      <c r="S431" s="1">
+        <v>4</v>
+      </c>
+      <c r="T431" s="1">
+        <v>2</v>
+      </c>
+      <c r="U431" s="1">
+        <v>3</v>
+      </c>
+      <c r="V431" s="1">
+        <v>3</v>
+      </c>
+      <c r="W431" s="1">
+        <v>4</v>
+      </c>
+      <c r="X431" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y431" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z431" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA431" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB431" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC431" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD431" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE431" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF431" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG431" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH431" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI431" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ431" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="2">
+        <v>45223.130168263888</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D432" s="1">
+        <v>20223324</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F432" s="3">
+        <v>0.12638888889341615</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H432" s="1">
+        <v>2</v>
+      </c>
+      <c r="I432" s="1">
+        <v>5</v>
+      </c>
+      <c r="J432" s="1">
+        <v>4</v>
+      </c>
+      <c r="K432" s="1">
+        <v>5</v>
+      </c>
+      <c r="L432" s="1">
+        <v>6</v>
+      </c>
+      <c r="M432" s="1">
+        <v>6</v>
+      </c>
+      <c r="N432" s="1">
+        <v>3</v>
+      </c>
+      <c r="O432" s="1">
+        <v>6</v>
+      </c>
+      <c r="P432" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q432" s="1">
+        <v>4</v>
+      </c>
+      <c r="R432" s="1">
+        <v>5</v>
+      </c>
+      <c r="S432" s="1">
+        <v>4</v>
+      </c>
+      <c r="T432" s="1">
+        <v>3</v>
+      </c>
+      <c r="U432" s="1">
+        <v>4</v>
+      </c>
+      <c r="V432" s="1">
+        <v>4</v>
+      </c>
+      <c r="W432" s="1">
+        <v>6</v>
+      </c>
+      <c r="X432" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y432" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z432" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA432" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB432" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC432" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD432" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE432" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF432" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG432" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH432" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI432" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ432" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5242CDB-2BEC-8746-8165-2F2B4C73E619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CAD7C2-3FAB-6C40-9627-7C7073177649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49200" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="1041">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3041,6 +3041,108 @@
   </si>
   <si>
     <t>서건원</t>
+  </si>
+  <si>
+    <t>040415kimdh@naver.com</t>
+  </si>
+  <si>
+    <t>jeongyeon256@gmail.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>yusoyun03@gmail.com</t>
+  </si>
+  <si>
+    <t>유소연</t>
+  </si>
+  <si>
+    <t>yurikim434@gmail.com</t>
+  </si>
+  <si>
+    <t>김유리</t>
+  </si>
+  <si>
+    <t>dayoun2004@naver.com</t>
+  </si>
+  <si>
+    <t>이다윤</t>
+  </si>
+  <si>
+    <t>rkqls3333@gmail.com</t>
+  </si>
+  <si>
+    <t>권가빈</t>
+  </si>
+  <si>
+    <t>tyu7626@naver.com</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>wjdgh040103@gmail.com</t>
+  </si>
+  <si>
+    <t>배정호</t>
+  </si>
+  <si>
+    <t>hmuc1smoker@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>서정원</t>
+  </si>
+  <si>
+    <t>a01093819049@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t>김서영</t>
+  </si>
+  <si>
+    <t>tpdud0049@naver.com</t>
+  </si>
+  <si>
+    <t>김세영</t>
+  </si>
+  <si>
+    <t>dutmddus1219@naver.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>여승연</t>
+  </si>
+  <si>
+    <t>minky1501@gmail.com</t>
+  </si>
+  <si>
+    <t>최민경</t>
+  </si>
+  <si>
+    <t>ai20233638@gmail.com</t>
+  </si>
+  <si>
+    <t>장예은</t>
+  </si>
+  <si>
+    <t>jjiwoong0212@gmail.com</t>
+  </si>
+  <si>
+    <t>이지웅</t>
+  </si>
+  <si>
+    <t>luis0815@naver.com</t>
+  </si>
+  <si>
+    <t>양지민</t>
   </si>
 </sst>
 </file>
@@ -3315,11 +3417,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM432"/>
+  <dimension ref="A1:BM448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H436" sqref="H436"/>
+      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C454" sqref="C454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -50934,6 +51036,1766 @@
         <v>4</v>
       </c>
     </row>
+    <row r="433" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="2">
+        <v>45223.435017731477</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D433" s="1">
+        <v>20235119</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F433" s="3">
+        <v>0.43402777778101154</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY433" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL433" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM433" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="2">
+        <v>45223.442331689817</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D434" s="1">
+        <v>20232232</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F434" s="3">
+        <v>0.43958333333284827</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H434" s="1">
+        <v>5</v>
+      </c>
+      <c r="I434" s="1">
+        <v>5</v>
+      </c>
+      <c r="J434" s="1">
+        <v>4</v>
+      </c>
+      <c r="K434" s="1">
+        <v>4</v>
+      </c>
+      <c r="L434" s="1">
+        <v>5</v>
+      </c>
+      <c r="M434" s="1">
+        <v>5</v>
+      </c>
+      <c r="N434" s="1">
+        <v>5</v>
+      </c>
+      <c r="O434" s="1">
+        <v>2</v>
+      </c>
+      <c r="P434" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q434" s="1">
+        <v>4</v>
+      </c>
+      <c r="R434" s="1">
+        <v>5</v>
+      </c>
+      <c r="S434" s="1">
+        <v>3</v>
+      </c>
+      <c r="T434" s="1">
+        <v>5</v>
+      </c>
+      <c r="U434" s="1">
+        <v>4</v>
+      </c>
+      <c r="V434" s="1">
+        <v>4</v>
+      </c>
+      <c r="W434" s="1">
+        <v>3</v>
+      </c>
+      <c r="X434" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y434" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z434" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA434" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB434" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC434" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD434" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE434" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF434" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG434" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH434" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI434" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ434" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="2">
+        <v>45223.511396111113</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D435" s="1">
+        <v>20236745</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F435" s="3">
+        <v>0.50694444444525288</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK435" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL435" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM435" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN435" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO435" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP435" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ435" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR435" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS435" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT435" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU435" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV435" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW435" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX435" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY435" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ435" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA435" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB435" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC435" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD435" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE435" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF435" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG435" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH435" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI435" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ435" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK435" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL435" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM435" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="2">
+        <v>45223.512567488426</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D436" s="1">
+        <v>20236716</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F436" s="3">
+        <v>0.51041666666424135</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H436" s="1">
+        <v>1</v>
+      </c>
+      <c r="I436" s="1">
+        <v>4</v>
+      </c>
+      <c r="J436" s="1">
+        <v>5</v>
+      </c>
+      <c r="K436" s="1">
+        <v>4</v>
+      </c>
+      <c r="L436" s="1">
+        <v>2</v>
+      </c>
+      <c r="M436" s="1">
+        <v>1</v>
+      </c>
+      <c r="N436" s="1">
+        <v>4</v>
+      </c>
+      <c r="O436" s="1">
+        <v>4</v>
+      </c>
+      <c r="P436" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q436" s="1">
+        <v>2</v>
+      </c>
+      <c r="R436" s="1">
+        <v>5</v>
+      </c>
+      <c r="S436" s="1">
+        <v>5</v>
+      </c>
+      <c r="T436" s="1">
+        <v>1</v>
+      </c>
+      <c r="U436" s="1">
+        <v>2</v>
+      </c>
+      <c r="V436" s="1">
+        <v>5</v>
+      </c>
+      <c r="W436" s="1">
+        <v>5</v>
+      </c>
+      <c r="X436" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y436" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z436" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA436" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB436" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC436" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD436" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE436" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF436" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG436" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH436" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI436" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ436" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="2">
+        <v>45223.542846458338</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D437" s="1">
+        <v>20236752</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F437" s="3">
+        <v>0.76875000000291038</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY437" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL437" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM437" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="2">
+        <v>45223.569811562498</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D438" s="1">
+        <v>20236205</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F438" s="3">
+        <v>6.5972222218988463E-2</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK438" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL438" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM438" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN438" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO438" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP438" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ438" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR438" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS438" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT438" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU438" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV438" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW438" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX438" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY438" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ438" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA438" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB438" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC438" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD438" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE438" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF438" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG438" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH438" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI438" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ438" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK438" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL438" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM438" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="2">
+        <v>45223.596992870371</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D439" s="1">
+        <v>20232636</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F439" s="3">
+        <v>0.59583333333284827</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY439" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL439" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM439" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="2">
+        <v>45223.60418638889</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D440" s="1">
+        <v>20232116</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F440" s="3">
+        <v>0.60347222222480923</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H440" s="1">
+        <v>4</v>
+      </c>
+      <c r="I440" s="1">
+        <v>5</v>
+      </c>
+      <c r="J440" s="1">
+        <v>4</v>
+      </c>
+      <c r="K440" s="1">
+        <v>4</v>
+      </c>
+      <c r="L440" s="1">
+        <v>5</v>
+      </c>
+      <c r="M440" s="1">
+        <v>5</v>
+      </c>
+      <c r="N440" s="1">
+        <v>4</v>
+      </c>
+      <c r="O440" s="1">
+        <v>3</v>
+      </c>
+      <c r="P440" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q440" s="1">
+        <v>4</v>
+      </c>
+      <c r="R440" s="1">
+        <v>3</v>
+      </c>
+      <c r="S440" s="1">
+        <v>4</v>
+      </c>
+      <c r="T440" s="1">
+        <v>5</v>
+      </c>
+      <c r="U440" s="1">
+        <v>5</v>
+      </c>
+      <c r="V440" s="1">
+        <v>4</v>
+      </c>
+      <c r="W440" s="1">
+        <v>4</v>
+      </c>
+      <c r="X440" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y440" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z440" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA440" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB440" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC440" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD440" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE440" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF440" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG440" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH440" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI440" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ440" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="2">
+        <v>45223.631742245372</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D441" s="1">
+        <v>20217146</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F441" s="3">
+        <v>0.62986111111240461</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H441" s="1">
+        <v>2</v>
+      </c>
+      <c r="I441" s="1">
+        <v>5</v>
+      </c>
+      <c r="J441" s="1">
+        <v>5</v>
+      </c>
+      <c r="K441" s="1">
+        <v>5</v>
+      </c>
+      <c r="L441" s="1">
+        <v>4</v>
+      </c>
+      <c r="M441" s="1">
+        <v>3</v>
+      </c>
+      <c r="N441" s="1">
+        <v>5</v>
+      </c>
+      <c r="O441" s="1">
+        <v>6</v>
+      </c>
+      <c r="P441" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q441" s="1">
+        <v>2</v>
+      </c>
+      <c r="R441" s="1">
+        <v>5</v>
+      </c>
+      <c r="S441" s="1">
+        <v>5</v>
+      </c>
+      <c r="T441" s="1">
+        <v>2</v>
+      </c>
+      <c r="U441" s="1">
+        <v>4</v>
+      </c>
+      <c r="V441" s="1">
+        <v>5</v>
+      </c>
+      <c r="W441" s="1">
+        <v>6</v>
+      </c>
+      <c r="X441" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y441" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z441" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA441" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB441" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC441" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD441" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE441" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF441" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG441" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH441" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI441" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ441" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="2">
+        <v>45223.635710717594</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D442" s="1">
+        <v>20212608</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F442" s="3">
+        <v>0.62847222221898846</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK442" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL442" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM442" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN442" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO442" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP442" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ442" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR442" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS442" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT442" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU442" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV442" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW442" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX442" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY442" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ442" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA442" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB442" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC442" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD442" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE442" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF442" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG442" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH442" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI442" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ442" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK442" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL442" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM442" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="2">
+        <v>45223.637253321758</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D443" s="1">
+        <v>20233914</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F443" s="3">
+        <v>0.63611111111094942</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK443" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL443" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM443" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN443" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO443" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP443" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ443" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR443" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS443" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT443" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU443" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV443" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW443" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX443" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY443" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ443" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA443" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB443" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC443" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD443" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE443" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF443" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG443" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH443" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI443" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ443" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK443" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL443" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM443" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="2">
+        <v>45223.641250925924</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D444" s="1">
+        <v>20201217</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F444" s="3">
+        <v>0.63888888889050577</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H444" s="1">
+        <v>6</v>
+      </c>
+      <c r="I444" s="1">
+        <v>1</v>
+      </c>
+      <c r="J444" s="1">
+        <v>1</v>
+      </c>
+      <c r="K444" s="1">
+        <v>2</v>
+      </c>
+      <c r="L444" s="1">
+        <v>6</v>
+      </c>
+      <c r="M444" s="1">
+        <v>6</v>
+      </c>
+      <c r="N444" s="1">
+        <v>1</v>
+      </c>
+      <c r="O444" s="1">
+        <v>1</v>
+      </c>
+      <c r="P444" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q444" s="1">
+        <v>5</v>
+      </c>
+      <c r="R444" s="1">
+        <v>3</v>
+      </c>
+      <c r="S444" s="1">
+        <v>1</v>
+      </c>
+      <c r="T444" s="1">
+        <v>3</v>
+      </c>
+      <c r="U444" s="1">
+        <v>3</v>
+      </c>
+      <c r="V444" s="1">
+        <v>1</v>
+      </c>
+      <c r="W444" s="1">
+        <v>1</v>
+      </c>
+      <c r="X444" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y444" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z444" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA444" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB444" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC444" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD444" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE444" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF444" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG444" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH444" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI444" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ444" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="2">
+        <v>45223.678233043982</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D445" s="1">
+        <v>20233644</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F445" s="3">
+        <v>0.67222222222335404</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK445" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL445" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM445" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN445" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO445" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP445" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ445" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR445" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS445" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT445" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU445" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV445" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW445" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX445" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY445" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ445" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA445" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB445" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC445" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD445" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE445" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF445" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG445" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH445" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI445" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ445" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK445" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL445" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM445" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="2">
+        <v>45223.680532037033</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D446" s="1">
+        <v>20233638</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F446" s="3">
+        <v>0.67500000000291038</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK446" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL446" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM446" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN446" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO446" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP446" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ446" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR446" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS446" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT446" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU446" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV446" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW446" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX446" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY446" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ446" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA446" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB446" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC446" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD446" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE446" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF446" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG446" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH446" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI446" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ446" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK446" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL446" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM446" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="2">
+        <v>45223.700560347221</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D447" s="1">
+        <v>20233634</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F447" s="3">
+        <v>0.69999999999708962</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY447" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL447" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM447" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="2">
+        <v>45223.717229918984</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D448" s="1">
+        <v>20232336</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F448" s="3">
+        <v>0.71388888888759539</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H448" s="1">
+        <v>4</v>
+      </c>
+      <c r="I448" s="1">
+        <v>4</v>
+      </c>
+      <c r="J448" s="1">
+        <v>4</v>
+      </c>
+      <c r="K448" s="1">
+        <v>3</v>
+      </c>
+      <c r="L448" s="1">
+        <v>3</v>
+      </c>
+      <c r="M448" s="1">
+        <v>4</v>
+      </c>
+      <c r="N448" s="1">
+        <v>4</v>
+      </c>
+      <c r="O448" s="1">
+        <v>4</v>
+      </c>
+      <c r="P448" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q448" s="1">
+        <v>4</v>
+      </c>
+      <c r="R448" s="1">
+        <v>5</v>
+      </c>
+      <c r="S448" s="1">
+        <v>3</v>
+      </c>
+      <c r="T448" s="1">
+        <v>3</v>
+      </c>
+      <c r="U448" s="1">
+        <v>4</v>
+      </c>
+      <c r="V448" s="1">
+        <v>4</v>
+      </c>
+      <c r="W448" s="1">
+        <v>5</v>
+      </c>
+      <c r="X448" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y448" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z448" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA448" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB448" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC448" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD448" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE448" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF448" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG448" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH448" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI448" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ448" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CAD7C2-3FAB-6C40-9627-7C7073177649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C179ACD-6B7C-A64A-B78A-F0929856C766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49200" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1070">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3143,6 +3143,93 @@
   </si>
   <si>
     <t>양지민</t>
+  </si>
+  <si>
+    <t>jinhyuncinxxs@gmail.com</t>
+  </si>
+  <si>
+    <t>손진현</t>
+  </si>
+  <si>
+    <t>jinwoo3817@naver.com</t>
+  </si>
+  <si>
+    <t>원진우</t>
+  </si>
+  <si>
+    <t>im3790@naver.com</t>
+  </si>
+  <si>
+    <t>반도체학과</t>
+  </si>
+  <si>
+    <t>임진형</t>
+  </si>
+  <si>
+    <t>abc810852@gmail.com</t>
+  </si>
+  <si>
+    <t>심지환</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>theyubin@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>yeshin05@naver.com</t>
+  </si>
+  <si>
+    <t>최예원</t>
+  </si>
+  <si>
+    <t>jsubin0424@gmail.com</t>
+  </si>
+  <si>
+    <t>정수빈</t>
+  </si>
+  <si>
+    <t>a01035025756@gmail.com</t>
+  </si>
+  <si>
+    <t>이건희</t>
+  </si>
+  <si>
+    <t>minge0407@naver.com</t>
+  </si>
+  <si>
+    <t>이민지</t>
+  </si>
+  <si>
+    <t>wjdgusgh1021@naver.com</t>
+  </si>
+  <si>
+    <t>정현호</t>
+  </si>
+  <si>
+    <t>spb012@naver.com</t>
+  </si>
+  <si>
+    <t>모수빈</t>
+  </si>
+  <si>
+    <t>yukima0110@naver.com</t>
+  </si>
+  <si>
+    <t>유설진</t>
+  </si>
+  <si>
+    <t>memo0103@naver.com</t>
+  </si>
+  <si>
+    <t>안현서</t>
   </si>
 </sst>
 </file>
@@ -3417,11 +3504,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM448"/>
+  <dimension ref="A1:BM462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C454" sqref="C454"/>
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C467" sqref="C467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -52796,6 +52883,1546 @@
         <v>2</v>
       </c>
     </row>
+    <row r="449" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="2">
+        <v>45223.75238391204</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D449" s="1">
+        <v>20231219</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F449" s="3">
+        <v>0.74861111110658385</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK449" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL449" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM449" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN449" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO449" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP449" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ449" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR449" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS449" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT449" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU449" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV449" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW449" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX449" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY449" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ449" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA449" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB449" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC449" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD449" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE449" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF449" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG449" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH449" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI449" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ449" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK449" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL449" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM449" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="2">
+        <v>45223.758623807866</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D450" s="1">
+        <v>20222552</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F450" s="3">
+        <v>0.62361111110658385</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK450" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM450" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN450" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO450" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP450" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ450" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR450" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS450" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT450" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU450" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV450" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW450" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX450" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY450" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ450" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA450" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB450" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC450" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD450" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE450" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF450" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG450" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH450" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI450" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ450" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK450" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL450" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM450" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="2">
+        <v>45223.788920601852</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D451" s="1">
+        <v>20203346</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F451" s="3">
+        <v>0.78749999999854481</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H451" s="1">
+        <v>2</v>
+      </c>
+      <c r="I451" s="1">
+        <v>3</v>
+      </c>
+      <c r="J451" s="1">
+        <v>4</v>
+      </c>
+      <c r="K451" s="1">
+        <v>3</v>
+      </c>
+      <c r="L451" s="1">
+        <v>4</v>
+      </c>
+      <c r="M451" s="1">
+        <v>3</v>
+      </c>
+      <c r="N451" s="1">
+        <v>3</v>
+      </c>
+      <c r="O451" s="1">
+        <v>4</v>
+      </c>
+      <c r="P451" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q451" s="1">
+        <v>1</v>
+      </c>
+      <c r="R451" s="1">
+        <v>4</v>
+      </c>
+      <c r="S451" s="1">
+        <v>4</v>
+      </c>
+      <c r="T451" s="1">
+        <v>2</v>
+      </c>
+      <c r="U451" s="1">
+        <v>4</v>
+      </c>
+      <c r="V451" s="1">
+        <v>4</v>
+      </c>
+      <c r="W451" s="1">
+        <v>4</v>
+      </c>
+      <c r="X451" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y451" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z451" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA451" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB451" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC451" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD451" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE451" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF451" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG451" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH451" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI451" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ451" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="2">
+        <v>45223.823857175928</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D452" s="1">
+        <v>20235201</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F452" s="3">
+        <v>0.82152777777810115</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK452" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL452" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM452" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN452" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO452" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP452" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ452" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR452" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS452" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT452" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU452" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV452" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW452" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX452" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY452" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ452" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA452" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB452" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC452" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD452" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE452" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF452" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG452" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH452" s="1">
+        <v>6</v>
+      </c>
+      <c r="BI452" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ452" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK452" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL452" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM452" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="2">
+        <v>45223.867504745373</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D453" s="1">
+        <v>20236771</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F453" s="3">
+        <v>0.86388888888905058</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H453" s="1">
+        <v>3</v>
+      </c>
+      <c r="I453" s="1">
+        <v>3</v>
+      </c>
+      <c r="J453" s="1">
+        <v>4</v>
+      </c>
+      <c r="K453" s="1">
+        <v>5</v>
+      </c>
+      <c r="L453" s="1">
+        <v>4</v>
+      </c>
+      <c r="M453" s="1">
+        <v>4</v>
+      </c>
+      <c r="N453" s="1">
+        <v>4</v>
+      </c>
+      <c r="O453" s="1">
+        <v>4</v>
+      </c>
+      <c r="P453" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q453" s="1">
+        <v>4</v>
+      </c>
+      <c r="R453" s="1">
+        <v>5</v>
+      </c>
+      <c r="S453" s="1">
+        <v>3</v>
+      </c>
+      <c r="T453" s="1">
+        <v>4</v>
+      </c>
+      <c r="U453" s="1">
+        <v>4</v>
+      </c>
+      <c r="V453" s="1">
+        <v>4</v>
+      </c>
+      <c r="W453" s="1">
+        <v>5</v>
+      </c>
+      <c r="X453" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y453" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z453" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA453" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB453" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC453" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD453" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE453" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF453" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG453" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH453" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI453" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ453" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="2">
+        <v>45223.873405891209</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D454" s="1">
+        <v>20236760</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F454" s="3">
+        <v>0.85972222222335404</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H454" s="1">
+        <v>2</v>
+      </c>
+      <c r="I454" s="1">
+        <v>3</v>
+      </c>
+      <c r="J454" s="1">
+        <v>4</v>
+      </c>
+      <c r="K454" s="1">
+        <v>3</v>
+      </c>
+      <c r="L454" s="1">
+        <v>2</v>
+      </c>
+      <c r="M454" s="1">
+        <v>3</v>
+      </c>
+      <c r="N454" s="1">
+        <v>3</v>
+      </c>
+      <c r="O454" s="1">
+        <v>3</v>
+      </c>
+      <c r="P454" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q454" s="1">
+        <v>4</v>
+      </c>
+      <c r="R454" s="1">
+        <v>6</v>
+      </c>
+      <c r="S454" s="1">
+        <v>4</v>
+      </c>
+      <c r="T454" s="1">
+        <v>4</v>
+      </c>
+      <c r="U454" s="1">
+        <v>4</v>
+      </c>
+      <c r="V454" s="1">
+        <v>4</v>
+      </c>
+      <c r="W454" s="1">
+        <v>4</v>
+      </c>
+      <c r="X454" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y454" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z454" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA454" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB454" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC454" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD454" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE454" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF454" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG454" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH454" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ454" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="2">
+        <v>45223.894539814813</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D455" s="1">
+        <v>20236639</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F455" s="3">
+        <v>0.89305555555620231</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H455" s="1">
+        <v>2</v>
+      </c>
+      <c r="I455" s="1">
+        <v>5</v>
+      </c>
+      <c r="J455" s="1">
+        <v>5</v>
+      </c>
+      <c r="K455" s="1">
+        <v>6</v>
+      </c>
+      <c r="L455" s="1">
+        <v>2</v>
+      </c>
+      <c r="M455" s="1">
+        <v>2</v>
+      </c>
+      <c r="N455" s="1">
+        <v>5</v>
+      </c>
+      <c r="O455" s="1">
+        <v>5</v>
+      </c>
+      <c r="P455" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q455" s="1">
+        <v>2</v>
+      </c>
+      <c r="R455" s="1">
+        <v>6</v>
+      </c>
+      <c r="S455" s="1">
+        <v>5</v>
+      </c>
+      <c r="T455" s="1">
+        <v>1</v>
+      </c>
+      <c r="U455" s="1">
+        <v>2</v>
+      </c>
+      <c r="V455" s="1">
+        <v>5</v>
+      </c>
+      <c r="W455" s="1">
+        <v>5</v>
+      </c>
+      <c r="X455" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y455" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z455" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA455" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB455" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC455" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD455" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE455" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF455" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG455" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH455" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ455" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="2">
+        <v>45223.907695347225</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D456" s="1">
+        <v>20222355</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F456" s="3">
+        <v>0.82569444444379769</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK456" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL456" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM456" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN456" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO456" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP456" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ456" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR456" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS456" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT456" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU456" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV456" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW456" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX456" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY456" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ456" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA456" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB456" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC456" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD456" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE456" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF456" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG456" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH456" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI456" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ456" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK456" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL456" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM456" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="2">
+        <v>45223.951410567126</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D457" s="1">
+        <v>20232342</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F457" s="3">
+        <v>0.94652777777810115</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H457" s="1">
+        <v>1</v>
+      </c>
+      <c r="I457" s="1">
+        <v>6</v>
+      </c>
+      <c r="J457" s="1">
+        <v>6</v>
+      </c>
+      <c r="K457" s="1">
+        <v>6</v>
+      </c>
+      <c r="L457" s="1">
+        <v>1</v>
+      </c>
+      <c r="M457" s="1">
+        <v>3</v>
+      </c>
+      <c r="N457" s="1">
+        <v>6</v>
+      </c>
+      <c r="O457" s="1">
+        <v>6</v>
+      </c>
+      <c r="P457" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q457" s="1">
+        <v>3</v>
+      </c>
+      <c r="R457" s="1">
+        <v>6</v>
+      </c>
+      <c r="S457" s="1">
+        <v>6</v>
+      </c>
+      <c r="T457" s="1">
+        <v>2</v>
+      </c>
+      <c r="U457" s="1">
+        <v>3</v>
+      </c>
+      <c r="V457" s="1">
+        <v>6</v>
+      </c>
+      <c r="W457" s="1">
+        <v>6</v>
+      </c>
+      <c r="X457" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y457" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z457" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA457" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB457" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC457" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD457" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE457" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF457" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG457" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH457" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ457" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="2">
+        <v>45223.968895254628</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D458" s="1">
+        <v>20212126</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F458" s="3">
+        <v>0.96527777778101154</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H458" s="1">
+        <v>4</v>
+      </c>
+      <c r="I458" s="1">
+        <v>2</v>
+      </c>
+      <c r="J458" s="1">
+        <v>3</v>
+      </c>
+      <c r="K458" s="1">
+        <v>3</v>
+      </c>
+      <c r="L458" s="1">
+        <v>4</v>
+      </c>
+      <c r="M458" s="1">
+        <v>3</v>
+      </c>
+      <c r="N458" s="1">
+        <v>3</v>
+      </c>
+      <c r="O458" s="1">
+        <v>2</v>
+      </c>
+      <c r="P458" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q458" s="1">
+        <v>4</v>
+      </c>
+      <c r="R458" s="1">
+        <v>2</v>
+      </c>
+      <c r="S458" s="1">
+        <v>4</v>
+      </c>
+      <c r="T458" s="1">
+        <v>3</v>
+      </c>
+      <c r="U458" s="1">
+        <v>4</v>
+      </c>
+      <c r="V458" s="1">
+        <v>3</v>
+      </c>
+      <c r="W458" s="1">
+        <v>4</v>
+      </c>
+      <c r="X458" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y458" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z458" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA458" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB458" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC458" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD458" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE458" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF458" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG458" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH458" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI458" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ458" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="2">
+        <v>45224.023193437504</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D459" s="1">
+        <v>20193647</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F459" s="3">
+        <v>2.0138888889050577E-2</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H459" s="1">
+        <v>2</v>
+      </c>
+      <c r="I459" s="1">
+        <v>3</v>
+      </c>
+      <c r="J459" s="1">
+        <v>5</v>
+      </c>
+      <c r="K459" s="1">
+        <v>4</v>
+      </c>
+      <c r="L459" s="1">
+        <v>5</v>
+      </c>
+      <c r="M459" s="1">
+        <v>2</v>
+      </c>
+      <c r="N459" s="1">
+        <v>4</v>
+      </c>
+      <c r="O459" s="1">
+        <v>3</v>
+      </c>
+      <c r="P459" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q459" s="1">
+        <v>4</v>
+      </c>
+      <c r="R459" s="1">
+        <v>4</v>
+      </c>
+      <c r="S459" s="1">
+        <v>5</v>
+      </c>
+      <c r="T459" s="1">
+        <v>2</v>
+      </c>
+      <c r="U459" s="1">
+        <v>4</v>
+      </c>
+      <c r="V459" s="1">
+        <v>5</v>
+      </c>
+      <c r="W459" s="1">
+        <v>4</v>
+      </c>
+      <c r="X459" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y459" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z459" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA459" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB459" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC459" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD459" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE459" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF459" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG459" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH459" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI459" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ459" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="2">
+        <v>45224.062296550925</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D460" s="1">
+        <v>20232530</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F460" s="3">
+        <v>5.9722222220443655E-2</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK460" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL460" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM460" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN460" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO460" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP460" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ460" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR460" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS460" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT460" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU460" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV460" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW460" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX460" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY460" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ460" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA460" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB460" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC460" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD460" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE460" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF460" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG460" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH460" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI460" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ460" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK460" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL460" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM460" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="2">
+        <v>45224.079806921298</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D461" s="1">
+        <v>20192120</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F461" s="3">
+        <v>7.2222222224809229E-2</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK461" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL461" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM461" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN461" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO461" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP461" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ461" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR461" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS461" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT461" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU461" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV461" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW461" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX461" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY461" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ461" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA461" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB461" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC461" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD461" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE461" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF461" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG461" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH461" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI461" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ461" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK461" s="1">
+        <v>6</v>
+      </c>
+      <c r="BL461" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM461" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="2">
+        <v>45224.404359444445</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D462" s="1">
+        <v>20236142</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F462" s="3">
+        <v>0.40138888888759539</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK462" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM462" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN462" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO462" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP462" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ462" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR462" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS462" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT462" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU462" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV462" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW462" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX462" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY462" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ462" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA462" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB462" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC462" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD462" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE462" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF462" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG462" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH462" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI462" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ462" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK462" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL462" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM462" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C179ACD-6B7C-A64A-B78A-F0929856C766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6076DFFD-9F6D-2C4C-B4E1-F9F71B807F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49200" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="1128">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3230,6 +3230,180 @@
   </si>
   <si>
     <t>안현서</t>
+  </si>
+  <si>
+    <t>skagus1010@naver.com</t>
+  </si>
+  <si>
+    <t>김남현</t>
+  </si>
+  <si>
+    <t>gimchaemin97@gmail.com</t>
+  </si>
+  <si>
+    <t>김채민</t>
+  </si>
+  <si>
+    <t>seongheun2004@gmail.com</t>
+  </si>
+  <si>
+    <t>지성흔</t>
+  </si>
+  <si>
+    <t>cdm990512@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터 전공</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>mjh8429@naver.com</t>
+  </si>
+  <si>
+    <t>민지혜</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>20236207@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>권기영</t>
+  </si>
+  <si>
+    <t>tjfud05@naver.com</t>
+  </si>
+  <si>
+    <t>박서령</t>
+  </si>
+  <si>
+    <t>sieun1522@naver.com</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>bee9588@naver.com</t>
+  </si>
+  <si>
+    <t>민서윤</t>
+  </si>
+  <si>
+    <t>gusdud0627@naver.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>장현일</t>
+  </si>
+  <si>
+    <t>dolpin0510@naver.com</t>
+  </si>
+  <si>
+    <t>김민수</t>
+  </si>
+  <si>
+    <t>1207dpwls@naver.com</t>
+  </si>
+  <si>
+    <t>주예진</t>
+  </si>
+  <si>
+    <t>chi9605@naver.com</t>
+  </si>
+  <si>
+    <t>이채연</t>
+  </si>
+  <si>
+    <t>parksiwoo1214@naver.com</t>
+  </si>
+  <si>
+    <t>박시우</t>
+  </si>
+  <si>
+    <t>isol62@naver.com</t>
+  </si>
+  <si>
+    <t>육이솔</t>
+  </si>
+  <si>
+    <t>soojin020524@gmail.com</t>
+  </si>
+  <si>
+    <t>노수진</t>
+  </si>
+  <si>
+    <t>zero040409@gmail.com</t>
+  </si>
+  <si>
+    <t>차하율</t>
+  </si>
+  <si>
+    <t>poliku8630@naver.com</t>
+  </si>
+  <si>
+    <t>컨텐츠IT</t>
+  </si>
+  <si>
+    <t>심지혁</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>jinhw3j9@gmail.com</t>
+  </si>
+  <si>
+    <t>정진환</t>
+  </si>
+  <si>
+    <t>rudqh0501@gmail.com</t>
+  </si>
+  <si>
+    <t>이경보</t>
+  </si>
+  <si>
+    <t>wlsgml9808@naver.com</t>
+  </si>
+  <si>
+    <t>환경새영공학과</t>
+  </si>
+  <si>
+    <t>이진희</t>
+  </si>
+  <si>
+    <t>deo333333@naver.com</t>
+  </si>
+  <si>
+    <t>서대철</t>
+  </si>
+  <si>
+    <t>h20205164@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박건웅</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
   </si>
 </sst>
 </file>
@@ -3504,11 +3678,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM462"/>
+  <dimension ref="A1:BM489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C467" sqref="C467"/>
+      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C491" sqref="C491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -54423,6 +54597,2976 @@
         <v>1</v>
       </c>
     </row>
+    <row r="463" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="2">
+        <v>45224.520313333334</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D463" s="1">
+        <v>20192817</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F463" s="3">
+        <v>0.52083333333575865</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H463" s="1">
+        <v>2</v>
+      </c>
+      <c r="I463" s="1">
+        <v>6</v>
+      </c>
+      <c r="J463" s="1">
+        <v>5</v>
+      </c>
+      <c r="K463" s="1">
+        <v>5</v>
+      </c>
+      <c r="L463" s="1">
+        <v>2</v>
+      </c>
+      <c r="M463" s="1">
+        <v>1</v>
+      </c>
+      <c r="N463" s="1">
+        <v>6</v>
+      </c>
+      <c r="O463" s="1">
+        <v>5</v>
+      </c>
+      <c r="P463" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q463" s="1">
+        <v>2</v>
+      </c>
+      <c r="R463" s="1">
+        <v>5</v>
+      </c>
+      <c r="S463" s="1">
+        <v>5</v>
+      </c>
+      <c r="T463" s="1">
+        <v>2</v>
+      </c>
+      <c r="U463" s="1">
+        <v>2</v>
+      </c>
+      <c r="V463" s="1">
+        <v>5</v>
+      </c>
+      <c r="W463" s="1">
+        <v>4</v>
+      </c>
+      <c r="X463" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y463" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z463" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA463" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB463" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC463" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD463" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE463" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF463" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG463" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH463" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI463" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ463" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="2">
+        <v>45224.52049949074</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D464" s="1">
+        <v>20236231</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F464" s="3">
+        <v>0.51875000000291038</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H464" s="1">
+        <v>2</v>
+      </c>
+      <c r="I464" s="1">
+        <v>5</v>
+      </c>
+      <c r="J464" s="1">
+        <v>3</v>
+      </c>
+      <c r="K464" s="1">
+        <v>3</v>
+      </c>
+      <c r="L464" s="1">
+        <v>5</v>
+      </c>
+      <c r="M464" s="1">
+        <v>4</v>
+      </c>
+      <c r="N464" s="1">
+        <v>4</v>
+      </c>
+      <c r="O464" s="1">
+        <v>3</v>
+      </c>
+      <c r="P464" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q464" s="1">
+        <v>5</v>
+      </c>
+      <c r="R464" s="1">
+        <v>4</v>
+      </c>
+      <c r="S464" s="1">
+        <v>3</v>
+      </c>
+      <c r="T464" s="1">
+        <v>2</v>
+      </c>
+      <c r="U464" s="1">
+        <v>4</v>
+      </c>
+      <c r="V464" s="1">
+        <v>3</v>
+      </c>
+      <c r="W464" s="1">
+        <v>2</v>
+      </c>
+      <c r="X464" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y464" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z464" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA464" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB464" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC464" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD464" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE464" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF464" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG464" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH464" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ464" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="2">
+        <v>45224.521635428246</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D465" s="1">
+        <v>20234151</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F465" s="3">
+        <v>0.52083333333575865</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H465" s="1">
+        <v>1</v>
+      </c>
+      <c r="I465" s="1">
+        <v>2</v>
+      </c>
+      <c r="J465" s="1">
+        <v>4</v>
+      </c>
+      <c r="K465" s="1">
+        <v>2</v>
+      </c>
+      <c r="L465" s="1">
+        <v>2</v>
+      </c>
+      <c r="M465" s="1">
+        <v>4</v>
+      </c>
+      <c r="N465" s="1">
+        <v>3</v>
+      </c>
+      <c r="O465" s="1">
+        <v>2</v>
+      </c>
+      <c r="P465" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q465" s="1">
+        <v>2</v>
+      </c>
+      <c r="R465" s="1">
+        <v>4</v>
+      </c>
+      <c r="S465" s="1">
+        <v>4</v>
+      </c>
+      <c r="T465" s="1">
+        <v>2</v>
+      </c>
+      <c r="U465" s="1">
+        <v>1</v>
+      </c>
+      <c r="V465" s="1">
+        <v>4</v>
+      </c>
+      <c r="W465" s="1">
+        <v>1</v>
+      </c>
+      <c r="X465" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y465" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z465" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA465" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB465" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC465" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD465" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE465" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF465" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG465" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH465" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI465" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ465" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="2">
+        <v>45224.55264587963</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D466" s="1">
+        <v>20185300</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F466" s="3">
+        <v>0.5506944444423425</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H466" s="1">
+        <v>1</v>
+      </c>
+      <c r="I466" s="1">
+        <v>5</v>
+      </c>
+      <c r="J466" s="1">
+        <v>5</v>
+      </c>
+      <c r="K466" s="1">
+        <v>6</v>
+      </c>
+      <c r="L466" s="1">
+        <v>1</v>
+      </c>
+      <c r="M466" s="1">
+        <v>2</v>
+      </c>
+      <c r="N466" s="1">
+        <v>5</v>
+      </c>
+      <c r="O466" s="1">
+        <v>5</v>
+      </c>
+      <c r="P466" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q466" s="1">
+        <v>1</v>
+      </c>
+      <c r="R466" s="1">
+        <v>5</v>
+      </c>
+      <c r="S466" s="1">
+        <v>5</v>
+      </c>
+      <c r="T466" s="1">
+        <v>1</v>
+      </c>
+      <c r="U466" s="1">
+        <v>4</v>
+      </c>
+      <c r="V466" s="1">
+        <v>5</v>
+      </c>
+      <c r="W466" s="1">
+        <v>5</v>
+      </c>
+      <c r="X466" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y466" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z466" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA466" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB466" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC466" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD466" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE466" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF466" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG466" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH466" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ466" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="2">
+        <v>45224.566118726856</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D467" s="1">
+        <v>20192535</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F467" s="3">
+        <v>0.56458333333284827</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H467" s="1">
+        <v>2</v>
+      </c>
+      <c r="I467" s="1">
+        <v>3</v>
+      </c>
+      <c r="J467" s="1">
+        <v>3</v>
+      </c>
+      <c r="K467" s="1">
+        <v>3</v>
+      </c>
+      <c r="L467" s="1">
+        <v>3</v>
+      </c>
+      <c r="M467" s="1">
+        <v>2</v>
+      </c>
+      <c r="N467" s="1">
+        <v>3</v>
+      </c>
+      <c r="O467" s="1">
+        <v>3</v>
+      </c>
+      <c r="P467" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q467" s="1">
+        <v>3</v>
+      </c>
+      <c r="R467" s="1">
+        <v>4</v>
+      </c>
+      <c r="S467" s="1">
+        <v>3</v>
+      </c>
+      <c r="T467" s="1">
+        <v>3</v>
+      </c>
+      <c r="U467" s="1">
+        <v>3</v>
+      </c>
+      <c r="V467" s="1">
+        <v>4</v>
+      </c>
+      <c r="W467" s="1">
+        <v>4</v>
+      </c>
+      <c r="X467" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y467" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z467" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA467" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB467" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC467" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD467" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE467" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF467" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG467" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH467" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI467" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ467" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="2">
+        <v>45224.595439027777</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D468" s="1">
+        <v>20222968</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F468" s="3">
+        <v>9.4444444446708076E-2</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK468" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL468" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM468" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN468" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO468" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP468" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ468" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR468" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS468" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT468" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU468" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV468" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW468" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX468" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY468" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ468" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA468" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB468" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC468" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD468" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE468" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF468" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG468" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH468" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI468" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ468" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK468" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL468" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM468" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="2">
+        <v>45224.630404062496</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D469" s="1">
+        <v>20232586</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F469" s="3">
+        <v>0.62847222221898846</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H469" s="1">
+        <v>1</v>
+      </c>
+      <c r="I469" s="1">
+        <v>5</v>
+      </c>
+      <c r="J469" s="1">
+        <v>4</v>
+      </c>
+      <c r="K469" s="1">
+        <v>4</v>
+      </c>
+      <c r="L469" s="1">
+        <v>4</v>
+      </c>
+      <c r="M469" s="1">
+        <v>2</v>
+      </c>
+      <c r="N469" s="1">
+        <v>6</v>
+      </c>
+      <c r="O469" s="1">
+        <v>2</v>
+      </c>
+      <c r="P469" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q469" s="1">
+        <v>1</v>
+      </c>
+      <c r="R469" s="1">
+        <v>6</v>
+      </c>
+      <c r="S469" s="1">
+        <v>6</v>
+      </c>
+      <c r="T469" s="1">
+        <v>1</v>
+      </c>
+      <c r="U469" s="1">
+        <v>1</v>
+      </c>
+      <c r="V469" s="1">
+        <v>6</v>
+      </c>
+      <c r="W469" s="1">
+        <v>5</v>
+      </c>
+      <c r="X469" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y469" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z469" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA469" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB469" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC469" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD469" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE469" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF469" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG469" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH469" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ469" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="2">
+        <v>45224.645112800921</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D470" s="1">
+        <v>20236207</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F470" s="3">
+        <v>0.64305555555620231</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK470" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL470" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM470" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN470" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO470" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP470" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ470" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR470" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS470" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT470" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU470" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV470" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW470" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX470" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY470" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ470" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA470" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB470" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC470" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD470" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE470" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF470" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG470" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH470" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI470" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ470" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK470" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL470" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM470" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="2">
+        <v>45224.686458206023</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D471" s="1">
+        <v>20233409</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F471" s="3">
+        <v>0.68541666666715173</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK471" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL471" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM471" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN471" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO471" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP471" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ471" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR471" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS471" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT471" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU471" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV471" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW471" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX471" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY471" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ471" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA471" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB471" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC471" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD471" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE471" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF471" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG471" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH471" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI471" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ471" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK471" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL471" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM471" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="2">
+        <v>45224.687776342587</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D472" s="1">
+        <v>20233726</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F472" s="3">
+        <v>0.68611111110658385</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H472" s="1">
+        <v>2</v>
+      </c>
+      <c r="I472" s="1">
+        <v>4</v>
+      </c>
+      <c r="J472" s="1">
+        <v>5</v>
+      </c>
+      <c r="K472" s="1">
+        <v>5</v>
+      </c>
+      <c r="L472" s="1">
+        <v>3</v>
+      </c>
+      <c r="M472" s="1">
+        <v>3</v>
+      </c>
+      <c r="N472" s="1">
+        <v>6</v>
+      </c>
+      <c r="O472" s="1">
+        <v>5</v>
+      </c>
+      <c r="P472" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q472" s="1">
+        <v>3</v>
+      </c>
+      <c r="R472" s="1">
+        <v>5</v>
+      </c>
+      <c r="S472" s="1">
+        <v>6</v>
+      </c>
+      <c r="T472" s="1">
+        <v>2</v>
+      </c>
+      <c r="U472" s="1">
+        <v>2</v>
+      </c>
+      <c r="V472" s="1">
+        <v>5</v>
+      </c>
+      <c r="W472" s="1">
+        <v>5</v>
+      </c>
+      <c r="X472" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y472" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z472" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA472" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB472" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC472" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD472" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE472" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF472" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG472" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH472" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI472" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ472" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="2">
+        <v>45224.730428900468</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D473" s="1">
+        <v>20233925</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F473" s="3">
+        <v>0.72847222222480923</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H473" s="1">
+        <v>1</v>
+      </c>
+      <c r="I473" s="1">
+        <v>4</v>
+      </c>
+      <c r="J473" s="1">
+        <v>5</v>
+      </c>
+      <c r="K473" s="1">
+        <v>5</v>
+      </c>
+      <c r="L473" s="1">
+        <v>1</v>
+      </c>
+      <c r="M473" s="1">
+        <v>3</v>
+      </c>
+      <c r="N473" s="1">
+        <v>4</v>
+      </c>
+      <c r="O473" s="1">
+        <v>4</v>
+      </c>
+      <c r="P473" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q473" s="1">
+        <v>3</v>
+      </c>
+      <c r="R473" s="1">
+        <v>4</v>
+      </c>
+      <c r="S473" s="1">
+        <v>4</v>
+      </c>
+      <c r="T473" s="1">
+        <v>3</v>
+      </c>
+      <c r="U473" s="1">
+        <v>3</v>
+      </c>
+      <c r="V473" s="1">
+        <v>4</v>
+      </c>
+      <c r="W473" s="1">
+        <v>4</v>
+      </c>
+      <c r="X473" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y473" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z473" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA473" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB473" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC473" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD473" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE473" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF473" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG473" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH473" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI473" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ473" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="2">
+        <v>45224.774652094908</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D474" s="1">
+        <v>20205246</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F474" s="3">
+        <v>0.77083333333575865</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK474" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL474" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM474" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN474" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO474" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP474" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ474" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR474" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS474" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT474" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU474" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV474" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW474" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX474" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY474" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ474" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA474" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB474" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC474" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD474" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE474" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF474" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG474" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH474" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI474" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ474" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK474" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL474" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM474" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="2">
+        <v>45224.796225497688</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D475" s="1">
+        <v>20235123</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F475" s="3">
+        <v>0.96666666666715173</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK475" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM475" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN475" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO475" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP475" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ475" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR475" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS475" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT475" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU475" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV475" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW475" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX475" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY475" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ475" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA475" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB475" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC475" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD475" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE475" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF475" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG475" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH475" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI475" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ475" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK475" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL475" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM475" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="2">
+        <v>45224.815942939815</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D476" s="1">
+        <v>20202751</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F476" s="3">
+        <v>0.81458333333284827</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK476" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL476" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM476" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN476" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO476" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP476" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ476" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR476" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS476" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT476" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU476" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV476" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW476" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX476" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY476" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ476" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA476" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB476" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC476" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD476" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE476" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF476" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG476" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH476" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI476" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ476" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK476" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL476" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM476" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="2">
+        <v>45224.870144224536</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D477" s="1">
+        <v>20202633</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F477" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK477" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL477" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM477" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN477" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO477" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP477" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ477" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR477" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS477" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT477" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU477" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV477" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW477" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX477" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY477" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ477" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA477" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB477" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC477" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD477" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE477" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF477" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG477" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH477" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI477" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ477" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK477" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL477" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM477" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="2">
+        <v>45224.909782592593</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D478" s="1">
+        <v>20193219</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F478" s="3">
+        <v>0.89583333333575865</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK478" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM478" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN478" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO478" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP478" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ478" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR478" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS478" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT478" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU478" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV478" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW478" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX478" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY478" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ478" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA478" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB478" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC478" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD478" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE478" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF478" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG478" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH478" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI478" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ478" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK478" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL478" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM478" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="2">
+        <v>45224.911469166662</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D479" s="1">
+        <v>20232339</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F479" s="3">
+        <v>0.90694444444670808</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK479" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL479" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM479" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN479" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO479" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP479" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ479" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR479" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS479" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT479" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU479" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV479" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW479" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX479" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY479" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ479" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA479" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB479" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC479" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD479" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE479" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF479" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG479" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH479" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI479" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ479" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK479" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL479" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM479" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="2">
+        <v>45224.918160081019</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D480" s="1">
+        <v>20217130</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F480" s="3">
+        <v>0.91597222222480923</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H480" s="1">
+        <v>2</v>
+      </c>
+      <c r="I480" s="1">
+        <v>2</v>
+      </c>
+      <c r="J480" s="1">
+        <v>2</v>
+      </c>
+      <c r="K480" s="1">
+        <v>2</v>
+      </c>
+      <c r="L480" s="1">
+        <v>1</v>
+      </c>
+      <c r="M480" s="1">
+        <v>3</v>
+      </c>
+      <c r="N480" s="1">
+        <v>3</v>
+      </c>
+      <c r="O480" s="1">
+        <v>2</v>
+      </c>
+      <c r="P480" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q480" s="1">
+        <v>2</v>
+      </c>
+      <c r="R480" s="1">
+        <v>3</v>
+      </c>
+      <c r="S480" s="1">
+        <v>3</v>
+      </c>
+      <c r="T480" s="1">
+        <v>2</v>
+      </c>
+      <c r="U480" s="1">
+        <v>2</v>
+      </c>
+      <c r="V480" s="1">
+        <v>3</v>
+      </c>
+      <c r="W480" s="1">
+        <v>3</v>
+      </c>
+      <c r="X480" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y480" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z480" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA480" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB480" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC480" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD480" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE480" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF480" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG480" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH480" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI480" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ480" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="2">
+        <v>45224.962621863422</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D481" s="1">
+        <v>20233050</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F481" s="3">
+        <v>0.961111111115315</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK481" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM481" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN481" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO481" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP481" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ481" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR481" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS481" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT481" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU481" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV481" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW481" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX481" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY481" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ481" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA481" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB481" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC481" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD481" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE481" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF481" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG481" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH481" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI481" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ481" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK481" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL481" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM481" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="2">
+        <v>45225.050110659722</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D482" s="1">
+        <v>20205197</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F482" s="3">
+        <v>4.6527777776645962E-2</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H482" s="1">
+        <v>3</v>
+      </c>
+      <c r="I482" s="1">
+        <v>2</v>
+      </c>
+      <c r="J482" s="1">
+        <v>3</v>
+      </c>
+      <c r="K482" s="1">
+        <v>2</v>
+      </c>
+      <c r="L482" s="1">
+        <v>3</v>
+      </c>
+      <c r="M482" s="1">
+        <v>3</v>
+      </c>
+      <c r="N482" s="1">
+        <v>2</v>
+      </c>
+      <c r="O482" s="1">
+        <v>1</v>
+      </c>
+      <c r="P482" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q482" s="1">
+        <v>2</v>
+      </c>
+      <c r="R482" s="1">
+        <v>3</v>
+      </c>
+      <c r="S482" s="1">
+        <v>3</v>
+      </c>
+      <c r="T482" s="1">
+        <v>3</v>
+      </c>
+      <c r="U482" s="1">
+        <v>3</v>
+      </c>
+      <c r="V482" s="1">
+        <v>4</v>
+      </c>
+      <c r="W482" s="1">
+        <v>4</v>
+      </c>
+      <c r="X482" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y482" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z482" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA482" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB482" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC482" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD482" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE482" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF482" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG482" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH482" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI482" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ482" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="2">
+        <v>45225.466543622686</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D483" s="1">
+        <v>20233934</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F483" s="3">
+        <v>0.45972222222189885</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK483" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL483" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM483" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN483" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO483" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP483" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ483" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR483" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS483" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT483" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU483" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV483" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW483" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX483" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY483" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ483" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA483" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB483" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC483" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD483" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE483" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF483" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG483" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH483" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI483" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ483" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK483" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL483" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM483" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="2">
+        <v>45225.59837043981</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D484" s="1">
+        <v>20236776</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F484" s="3">
+        <v>0.59027777778101154</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK484" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL484" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM484" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN484" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO484" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP484" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ484" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR484" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS484" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT484" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU484" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV484" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW484" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX484" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY484" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ484" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA484" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB484" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC484" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD484" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE484" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF484" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG484" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH484" s="1">
+        <v>6</v>
+      </c>
+      <c r="BI484" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ484" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK484" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL484" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM484" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="2">
+        <v>45225.625229513884</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D485" s="1">
+        <v>20233417</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F485" s="3">
+        <v>0.62361111110658385</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H485" s="1">
+        <v>2</v>
+      </c>
+      <c r="I485" s="1">
+        <v>2</v>
+      </c>
+      <c r="J485" s="1">
+        <v>5</v>
+      </c>
+      <c r="K485" s="1">
+        <v>3</v>
+      </c>
+      <c r="L485" s="1">
+        <v>2</v>
+      </c>
+      <c r="M485" s="1">
+        <v>2</v>
+      </c>
+      <c r="N485" s="1">
+        <v>6</v>
+      </c>
+      <c r="O485" s="1">
+        <v>5</v>
+      </c>
+      <c r="P485" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q485" s="1">
+        <v>4</v>
+      </c>
+      <c r="R485" s="1">
+        <v>6</v>
+      </c>
+      <c r="S485" s="1">
+        <v>5</v>
+      </c>
+      <c r="T485" s="1">
+        <v>2</v>
+      </c>
+      <c r="U485" s="1">
+        <v>1</v>
+      </c>
+      <c r="V485" s="1">
+        <v>4</v>
+      </c>
+      <c r="W485" s="1">
+        <v>6</v>
+      </c>
+      <c r="X485" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y485" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z485" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA485" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB485" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC485" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD485" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE485" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF485" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG485" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH485" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI485" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ485" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A486" s="2">
+        <v>45225.666869085646</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D486" s="1">
+        <v>20173728</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F486" s="3">
+        <v>0.66458333333139308</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H486" s="1">
+        <v>4</v>
+      </c>
+      <c r="I486" s="1">
+        <v>2</v>
+      </c>
+      <c r="J486" s="1">
+        <v>3</v>
+      </c>
+      <c r="K486" s="1">
+        <v>3</v>
+      </c>
+      <c r="L486" s="1">
+        <v>2</v>
+      </c>
+      <c r="M486" s="1">
+        <v>4</v>
+      </c>
+      <c r="N486" s="1">
+        <v>3</v>
+      </c>
+      <c r="O486" s="1">
+        <v>4</v>
+      </c>
+      <c r="P486" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q486" s="1">
+        <v>3</v>
+      </c>
+      <c r="R486" s="1">
+        <v>5</v>
+      </c>
+      <c r="S486" s="1">
+        <v>4</v>
+      </c>
+      <c r="T486" s="1">
+        <v>2</v>
+      </c>
+      <c r="U486" s="1">
+        <v>4</v>
+      </c>
+      <c r="V486" s="1">
+        <v>4</v>
+      </c>
+      <c r="W486" s="1">
+        <v>4</v>
+      </c>
+      <c r="X486" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y486" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z486" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA486" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB486" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC486" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD486" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE486" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF486" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG486" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH486" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI486" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ486" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A487" s="2">
+        <v>45225.688141956023</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D487" s="1">
+        <v>20182889</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F487" s="3">
+        <v>0.68472222222044365</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK487" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL487" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM487" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN487" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO487" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP487" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ487" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR487" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS487" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT487" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU487" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV487" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW487" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX487" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY487" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ487" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA487" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB487" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC487" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD487" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE487" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF487" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG487" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH487" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI487" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ487" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK487" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL487" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM487" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="2">
+        <v>45225.689121585645</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D488" s="1">
+        <v>20205164</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F488" s="3">
+        <v>0.68819444444670808</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H488" s="1">
+        <v>6</v>
+      </c>
+      <c r="I488" s="1">
+        <v>6</v>
+      </c>
+      <c r="J488" s="1">
+        <v>6</v>
+      </c>
+      <c r="K488" s="1">
+        <v>6</v>
+      </c>
+      <c r="L488" s="1">
+        <v>6</v>
+      </c>
+      <c r="M488" s="1">
+        <v>6</v>
+      </c>
+      <c r="N488" s="1">
+        <v>6</v>
+      </c>
+      <c r="O488" s="1">
+        <v>6</v>
+      </c>
+      <c r="P488" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q488" s="1">
+        <v>6</v>
+      </c>
+      <c r="R488" s="1">
+        <v>6</v>
+      </c>
+      <c r="S488" s="1">
+        <v>6</v>
+      </c>
+      <c r="T488" s="1">
+        <v>6</v>
+      </c>
+      <c r="U488" s="1">
+        <v>6</v>
+      </c>
+      <c r="V488" s="1">
+        <v>6</v>
+      </c>
+      <c r="W488" s="1">
+        <v>6</v>
+      </c>
+      <c r="X488" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y488" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z488" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA488" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB488" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC488" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD488" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE488" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF488" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG488" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH488" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI488" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ488" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A489" s="2">
+        <v>45225.690169907408</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D489" s="1">
+        <v>20212233</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F489" s="3">
+        <v>0.68888888889341615</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H489" s="1">
+        <v>3</v>
+      </c>
+      <c r="I489" s="1">
+        <v>5</v>
+      </c>
+      <c r="J489" s="1">
+        <v>3</v>
+      </c>
+      <c r="K489" s="1">
+        <v>5</v>
+      </c>
+      <c r="L489" s="1">
+        <v>2</v>
+      </c>
+      <c r="M489" s="1">
+        <v>4</v>
+      </c>
+      <c r="N489" s="1">
+        <v>4</v>
+      </c>
+      <c r="O489" s="1">
+        <v>3</v>
+      </c>
+      <c r="P489" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q489" s="1">
+        <v>4</v>
+      </c>
+      <c r="R489" s="1">
+        <v>4</v>
+      </c>
+      <c r="S489" s="1">
+        <v>4</v>
+      </c>
+      <c r="T489" s="1">
+        <v>4</v>
+      </c>
+      <c r="U489" s="1">
+        <v>5</v>
+      </c>
+      <c r="V489" s="1">
+        <v>2</v>
+      </c>
+      <c r="W489" s="1">
+        <v>4</v>
+      </c>
+      <c r="X489" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y489" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z489" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA489" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB489" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC489" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD489" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE489" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF489" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG489" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH489" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI489" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ489" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6076DFFD-9F6D-2C4C-B4E1-F9F71B807F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12152E50-C4EC-3344-85BF-DAA0066AA63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1142">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3404,6 +3404,48 @@
   </si>
   <si>
     <t>임도은</t>
+  </si>
+  <si>
+    <t>20217071@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>오선민</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>jieunpark0408@naver.com</t>
+  </si>
+  <si>
+    <t>박지은</t>
+  </si>
+  <si>
+    <t>janghangyeol0304@gmail.com</t>
+  </si>
+  <si>
+    <t>장한결</t>
+  </si>
+  <si>
+    <t>hi8964@naver.com</t>
+  </si>
+  <si>
+    <t>윤태규</t>
+  </si>
+  <si>
+    <t>ggr1042@naver.com</t>
+  </si>
+  <si>
+    <t>김경록</t>
+  </si>
+  <si>
+    <t>psmin0217@naver.com</t>
+  </si>
+  <si>
+    <t>박성민</t>
   </si>
 </sst>
 </file>
@@ -3678,11 +3720,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM489"/>
+  <dimension ref="A1:BM496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C491" sqref="C491"/>
+      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C503" sqref="C503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -57567,6 +57609,776 @@
         <v>2</v>
       </c>
     </row>
+    <row r="490" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="2">
+        <v>45225.719164456023</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D490" s="1">
+        <v>20217071</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F490" s="3">
+        <v>0.71527777778101154</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK490" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL490" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM490" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN490" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO490" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP490" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ490" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR490" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS490" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT490" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU490" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV490" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW490" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX490" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY490" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ490" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA490" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB490" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC490" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD490" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE490" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF490" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG490" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH490" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI490" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ490" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK490" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL490" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM490" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="2">
+        <v>45225.799898530095</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D491" s="1">
+        <v>20215154</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F491" s="3">
+        <v>0.79930555555620231</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H491" s="1">
+        <v>3</v>
+      </c>
+      <c r="I491" s="1">
+        <v>3</v>
+      </c>
+      <c r="J491" s="1">
+        <v>3</v>
+      </c>
+      <c r="K491" s="1">
+        <v>4</v>
+      </c>
+      <c r="L491" s="1">
+        <v>3</v>
+      </c>
+      <c r="M491" s="1">
+        <v>4</v>
+      </c>
+      <c r="N491" s="1">
+        <v>3</v>
+      </c>
+      <c r="O491" s="1">
+        <v>4</v>
+      </c>
+      <c r="P491" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q491" s="1">
+        <v>4</v>
+      </c>
+      <c r="R491" s="1">
+        <v>3</v>
+      </c>
+      <c r="S491" s="1">
+        <v>3</v>
+      </c>
+      <c r="T491" s="1">
+        <v>3</v>
+      </c>
+      <c r="U491" s="1">
+        <v>3</v>
+      </c>
+      <c r="V491" s="1">
+        <v>3</v>
+      </c>
+      <c r="W491" s="1">
+        <v>3</v>
+      </c>
+      <c r="X491" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y491" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z491" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA491" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB491" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC491" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD491" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE491" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF491" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG491" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH491" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI491" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ491" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="2">
+        <v>45225.821857766205</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D492" s="1">
+        <v>20231043</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F492" s="3">
+        <v>0.81944444444525288</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H492" s="1">
+        <v>2</v>
+      </c>
+      <c r="I492" s="1">
+        <v>2</v>
+      </c>
+      <c r="J492" s="1">
+        <v>4</v>
+      </c>
+      <c r="K492" s="1">
+        <v>3</v>
+      </c>
+      <c r="L492" s="1">
+        <v>2</v>
+      </c>
+      <c r="M492" s="1">
+        <v>2</v>
+      </c>
+      <c r="N492" s="1">
+        <v>3</v>
+      </c>
+      <c r="O492" s="1">
+        <v>4</v>
+      </c>
+      <c r="P492" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q492" s="1">
+        <v>2</v>
+      </c>
+      <c r="R492" s="1">
+        <v>5</v>
+      </c>
+      <c r="S492" s="1">
+        <v>4</v>
+      </c>
+      <c r="T492" s="1">
+        <v>1</v>
+      </c>
+      <c r="U492" s="1">
+        <v>1</v>
+      </c>
+      <c r="V492" s="1">
+        <v>5</v>
+      </c>
+      <c r="W492" s="1">
+        <v>5</v>
+      </c>
+      <c r="X492" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y492" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z492" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA492" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB492" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC492" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD492" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE492" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF492" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG492" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH492" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI492" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ492" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="2">
+        <v>45225.846853518524</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D493" s="1">
+        <v>20222838</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F493" s="3">
+        <v>0.83472222222189885</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H493" s="1">
+        <v>3</v>
+      </c>
+      <c r="I493" s="1">
+        <v>2</v>
+      </c>
+      <c r="J493" s="1">
+        <v>4</v>
+      </c>
+      <c r="K493" s="1">
+        <v>2</v>
+      </c>
+      <c r="L493" s="1">
+        <v>3</v>
+      </c>
+      <c r="M493" s="1">
+        <v>4</v>
+      </c>
+      <c r="N493" s="1">
+        <v>4</v>
+      </c>
+      <c r="O493" s="1">
+        <v>4</v>
+      </c>
+      <c r="P493" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q493" s="1">
+        <v>3</v>
+      </c>
+      <c r="R493" s="1">
+        <v>5</v>
+      </c>
+      <c r="S493" s="1">
+        <v>4</v>
+      </c>
+      <c r="T493" s="1">
+        <v>3</v>
+      </c>
+      <c r="U493" s="1">
+        <v>2</v>
+      </c>
+      <c r="V493" s="1">
+        <v>4</v>
+      </c>
+      <c r="W493" s="1">
+        <v>4</v>
+      </c>
+      <c r="X493" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y493" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z493" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA493" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB493" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC493" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD493" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE493" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF493" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG493" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH493" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI493" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ493" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="2">
+        <v>45225.901286782406</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D494" s="1">
+        <v>20203420</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F494" s="3">
+        <v>0.89930555555474712</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H494" s="1">
+        <v>1</v>
+      </c>
+      <c r="I494" s="1">
+        <v>5</v>
+      </c>
+      <c r="J494" s="1">
+        <v>5</v>
+      </c>
+      <c r="K494" s="1">
+        <v>4</v>
+      </c>
+      <c r="L494" s="1">
+        <v>3</v>
+      </c>
+      <c r="M494" s="1">
+        <v>4</v>
+      </c>
+      <c r="N494" s="1">
+        <v>5</v>
+      </c>
+      <c r="O494" s="1">
+        <v>3</v>
+      </c>
+      <c r="P494" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q494" s="1">
+        <v>4</v>
+      </c>
+      <c r="R494" s="1">
+        <v>4</v>
+      </c>
+      <c r="S494" s="1">
+        <v>4</v>
+      </c>
+      <c r="T494" s="1">
+        <v>4</v>
+      </c>
+      <c r="U494" s="1">
+        <v>3</v>
+      </c>
+      <c r="V494" s="1">
+        <v>5</v>
+      </c>
+      <c r="W494" s="1">
+        <v>4</v>
+      </c>
+      <c r="X494" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y494" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z494" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA494" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB494" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC494" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD494" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE494" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF494" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG494" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH494" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI494" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ494" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="2">
+        <v>45225.907973159723</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D495" s="1">
+        <v>20221542</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F495" s="3">
+        <v>0.90555555555329192</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H495" s="1">
+        <v>4</v>
+      </c>
+      <c r="I495" s="1">
+        <v>3</v>
+      </c>
+      <c r="J495" s="1">
+        <v>2</v>
+      </c>
+      <c r="K495" s="1">
+        <v>2</v>
+      </c>
+      <c r="L495" s="1">
+        <v>3</v>
+      </c>
+      <c r="M495" s="1">
+        <v>4</v>
+      </c>
+      <c r="N495" s="1">
+        <v>3</v>
+      </c>
+      <c r="O495" s="1">
+        <v>4</v>
+      </c>
+      <c r="P495" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q495" s="1">
+        <v>6</v>
+      </c>
+      <c r="R495" s="1">
+        <v>4</v>
+      </c>
+      <c r="S495" s="1">
+        <v>4</v>
+      </c>
+      <c r="T495" s="1">
+        <v>3</v>
+      </c>
+      <c r="U495" s="1">
+        <v>6</v>
+      </c>
+      <c r="V495" s="1">
+        <v>3</v>
+      </c>
+      <c r="W495" s="1">
+        <v>6</v>
+      </c>
+      <c r="X495" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y495" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z495" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA495" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB495" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC495" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD495" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE495" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF495" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG495" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH495" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI495" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ495" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="2">
+        <v>45225.944915891203</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D496" s="1">
+        <v>20215155</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F496" s="3">
+        <v>0.94166666666569654</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H496" s="1">
+        <v>1</v>
+      </c>
+      <c r="I496" s="1">
+        <v>3</v>
+      </c>
+      <c r="J496" s="1">
+        <v>4</v>
+      </c>
+      <c r="K496" s="1">
+        <v>5</v>
+      </c>
+      <c r="L496" s="1">
+        <v>4</v>
+      </c>
+      <c r="M496" s="1">
+        <v>1</v>
+      </c>
+      <c r="N496" s="1">
+        <v>4</v>
+      </c>
+      <c r="O496" s="1">
+        <v>5</v>
+      </c>
+      <c r="P496" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q496" s="1">
+        <v>5</v>
+      </c>
+      <c r="R496" s="1">
+        <v>4</v>
+      </c>
+      <c r="S496" s="1">
+        <v>2</v>
+      </c>
+      <c r="T496" s="1">
+        <v>1</v>
+      </c>
+      <c r="U496" s="1">
+        <v>4</v>
+      </c>
+      <c r="V496" s="1">
+        <v>6</v>
+      </c>
+      <c r="W496" s="1">
+        <v>4</v>
+      </c>
+      <c r="X496" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y496" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z496" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA496" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB496" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC496" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD496" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE496" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF496" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG496" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH496" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI496" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ496" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12152E50-C4EC-3344-85BF-DAA0066AA63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370706BA-6FC8-0847-8394-4F90C88A8A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="500" windowWidth="38500" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="1295">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3446,6 +3446,465 @@
   </si>
   <si>
     <t>박성민</t>
+  </si>
+  <si>
+    <t>godis2002@naver.com</t>
+  </si>
+  <si>
+    <t>김승겸</t>
+  </si>
+  <si>
+    <t>qndks2129@naver.com</t>
+  </si>
+  <si>
+    <t>박지혜</t>
+  </si>
+  <si>
+    <t>africa00788@gmail.com</t>
+  </si>
+  <si>
+    <t>구도희</t>
+  </si>
+  <si>
+    <t>seohyojeong123@gmail.com</t>
+  </si>
+  <si>
+    <t>서효정</t>
+  </si>
+  <si>
+    <t>jjedalee@gmail.com</t>
+  </si>
+  <si>
+    <t>정재은</t>
+  </si>
+  <si>
+    <t>ohr3876@gmail.com</t>
+  </si>
+  <si>
+    <t>정철</t>
+  </si>
+  <si>
+    <t>cmsgood99@gmail.com</t>
+  </si>
+  <si>
+    <t>곽동희</t>
+  </si>
+  <si>
+    <t>zdfxd3611@naver.com</t>
+  </si>
+  <si>
+    <t>이현태</t>
+  </si>
+  <si>
+    <t>lucky021217@naver.com</t>
+  </si>
+  <si>
+    <t>rian213@naver.com</t>
+  </si>
+  <si>
+    <t>안리안</t>
+  </si>
+  <si>
+    <t>mingye990410@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>ggjtt4051@gmail.com</t>
+  </si>
+  <si>
+    <t>최아린</t>
+  </si>
+  <si>
+    <t>hyunseo4370@gmail.com</t>
+  </si>
+  <si>
+    <t>장현서</t>
+  </si>
+  <si>
+    <t>jongbaep17s@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>박종배</t>
+  </si>
+  <si>
+    <t>gawon9707@gmail.com</t>
+  </si>
+  <si>
+    <t>이가원</t>
+  </si>
+  <si>
+    <t>gggp1224@naver.com</t>
+  </si>
+  <si>
+    <t>임재우</t>
+  </si>
+  <si>
+    <t>rhdid98@naver.com</t>
+  </si>
+  <si>
+    <t>김소정</t>
+  </si>
+  <si>
+    <t>gaddong0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김민균</t>
+  </si>
+  <si>
+    <t>kongpo7097@gmail.com</t>
+  </si>
+  <si>
+    <t>장예현</t>
+  </si>
+  <si>
+    <t>rlagkdud114@naver.com</t>
+  </si>
+  <si>
+    <t>김하영</t>
+  </si>
+  <si>
+    <t>kyjnkyj@naver.com</t>
+  </si>
+  <si>
+    <t>김윤지</t>
+  </si>
+  <si>
+    <t>dlwodms5596@naver.com</t>
+  </si>
+  <si>
+    <t>이재은</t>
+  </si>
+  <si>
+    <t>qkqch128@naver.com</t>
+  </si>
+  <si>
+    <t>반초원</t>
+  </si>
+  <si>
+    <t>kwonyb991111@naver.com</t>
+  </si>
+  <si>
+    <t>권용범</t>
+  </si>
+  <si>
+    <t>tkdgns8006@naver.com</t>
+  </si>
+  <si>
+    <t>이상훈</t>
+  </si>
+  <si>
+    <t>20233825@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>엄서현</t>
+  </si>
+  <si>
+    <t>leehakyung1207@gmail.com</t>
+  </si>
+  <si>
+    <t>이하경</t>
+  </si>
+  <si>
+    <t>xpjungwoo0518@kakao.com</t>
+  </si>
+  <si>
+    <t>이정우</t>
+  </si>
+  <si>
+    <t>dorud030406@naver.com</t>
+  </si>
+  <si>
+    <t>이예경</t>
+  </si>
+  <si>
+    <t>yejin4259@naver.com</t>
+  </si>
+  <si>
+    <t>werty1082@naver.com</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>rlahel1204@naver.com</t>
+  </si>
+  <si>
+    <t>광고홍보학</t>
+  </si>
+  <si>
+    <t>박윤진</t>
+  </si>
+  <si>
+    <t>gwkang0330@gmail.com</t>
+  </si>
+  <si>
+    <t>강건우</t>
+  </si>
+  <si>
+    <t>chaeyun7206@gmail.com</t>
+  </si>
+  <si>
+    <t>배채윤</t>
+  </si>
+  <si>
+    <t>minjeong7432@gmail.com</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>sungjuwon1@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>성주원</t>
+  </si>
+  <si>
+    <t>freenix1001@naver.com</t>
+  </si>
+  <si>
+    <t>강서연</t>
+  </si>
+  <si>
+    <t>lgh4787@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>whtjsals159@naver.com</t>
+  </si>
+  <si>
+    <t>조선민</t>
+  </si>
+  <si>
+    <t>20235130@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김상윤</t>
+  </si>
+  <si>
+    <t>gabiekook040907@gmail.com</t>
+  </si>
+  <si>
+    <t>장형욱</t>
+  </si>
+  <si>
+    <t>dlawlals1669@naver.com</t>
+  </si>
+  <si>
+    <t>임지민</t>
+  </si>
+  <si>
+    <t>jinyoung05503@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>khjkhj0314@naver.com</t>
+  </si>
+  <si>
+    <t>김현종</t>
+  </si>
+  <si>
+    <t>dnjsgmlwjd1020@naver.com</t>
+  </si>
+  <si>
+    <t>원희정</t>
+  </si>
+  <si>
+    <t>mkdaniel2020@gmail.com</t>
+  </si>
+  <si>
+    <t>권다넬</t>
+  </si>
+  <si>
+    <t>cupholderr100@gmail.com</t>
+  </si>
+  <si>
+    <t>홍민지</t>
+  </si>
+  <si>
+    <t>jshong01@gmail.com</t>
+  </si>
+  <si>
+    <t>홍준성</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>limyoon0725@daum.net</t>
+  </si>
+  <si>
+    <t>임윤서</t>
+  </si>
+  <si>
+    <t>dongwoo2869@naver.com</t>
+  </si>
+  <si>
+    <t>남동우</t>
+  </si>
+  <si>
+    <t>ind_b3@naver.com</t>
+  </si>
+  <si>
+    <t>김지안</t>
+  </si>
+  <si>
+    <t>bsb012345@naver.com</t>
+  </si>
+  <si>
+    <t>박준혁</t>
+  </si>
+  <si>
+    <t>me_ruddlqslek@naver.com</t>
+  </si>
+  <si>
+    <t>홍나경</t>
+  </si>
+  <si>
+    <t>ub030801@naver.com</t>
+  </si>
+  <si>
+    <t>신유빈</t>
+  </si>
+  <si>
+    <t>hshs041213@gmail.com</t>
+  </si>
+  <si>
+    <t>최희수</t>
+  </si>
+  <si>
+    <t>yumsan1305@gmail.com</t>
+  </si>
+  <si>
+    <t>최재경</t>
+  </si>
+  <si>
+    <t>gyuwon7355@gmail.com</t>
+  </si>
+  <si>
+    <t>이규원</t>
+  </si>
+  <si>
+    <t>ruye0114@naver.com</t>
+  </si>
+  <si>
+    <t>류영서</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>siddlzh6636@gmail.com</t>
+  </si>
+  <si>
+    <t>jimin4729@naver.com</t>
+  </si>
+  <si>
+    <t>leejisu0909@naver.com</t>
+  </si>
+  <si>
+    <t>taeseo12@naver.com</t>
+  </si>
+  <si>
+    <t>전자공학과</t>
+  </si>
+  <si>
+    <t>박태서</t>
+  </si>
+  <si>
+    <t>dnjsdnuni@gmail.com</t>
+  </si>
+  <si>
+    <t>홍희선</t>
+  </si>
+  <si>
+    <t>harin3040@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>jehuncho03@gmail.com</t>
+  </si>
+  <si>
+    <t>조제헌</t>
+  </si>
+  <si>
+    <t>pjuns502@gmail.com</t>
+  </si>
+  <si>
+    <t>박준현</t>
+  </si>
+  <si>
+    <t>onlywon404@naver.com</t>
+  </si>
+  <si>
+    <t>백경원</t>
+  </si>
+  <si>
+    <t>20233814@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>wusl0327@naver.com</t>
+  </si>
+  <si>
+    <t>신지연</t>
+  </si>
+  <si>
+    <t>td040802@naver.com</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>k00e0096@naver.com</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>lcbat4@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>홍서경</t>
+  </si>
+  <si>
+    <t>hkmcosmos1@gmail.com</t>
+  </si>
+  <si>
+    <t>한기민</t>
+  </si>
+  <si>
+    <t>tjtmdwns3504@gmail.com</t>
+  </si>
+  <si>
+    <t>서승준</t>
+  </si>
+  <si>
+    <t>jeongseo.kim25@gmail.com</t>
+  </si>
+  <si>
+    <t>김정서</t>
   </si>
 </sst>
 </file>
@@ -3720,11 +4179,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM496"/>
+  <dimension ref="A1:BM573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C503" sqref="C503"/>
+      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F581" sqref="F581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -58379,6 +58838,8314 @@
         <v>5</v>
       </c>
     </row>
+    <row r="497" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A497" s="2">
+        <v>45225.963171331023</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D497" s="1">
+        <v>20211706</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F497" s="3">
+        <v>0.96041666666860692</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H497" s="1">
+        <v>2</v>
+      </c>
+      <c r="I497" s="1">
+        <v>4</v>
+      </c>
+      <c r="J497" s="1">
+        <v>4</v>
+      </c>
+      <c r="K497" s="1">
+        <v>3</v>
+      </c>
+      <c r="L497" s="1">
+        <v>2</v>
+      </c>
+      <c r="M497" s="1">
+        <v>2</v>
+      </c>
+      <c r="N497" s="1">
+        <v>4</v>
+      </c>
+      <c r="O497" s="1">
+        <v>4</v>
+      </c>
+      <c r="P497" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q497" s="1">
+        <v>1</v>
+      </c>
+      <c r="R497" s="1">
+        <v>5</v>
+      </c>
+      <c r="S497" s="1">
+        <v>4</v>
+      </c>
+      <c r="T497" s="1">
+        <v>2</v>
+      </c>
+      <c r="U497" s="1">
+        <v>2</v>
+      </c>
+      <c r="V497" s="1">
+        <v>5</v>
+      </c>
+      <c r="W497" s="1">
+        <v>4</v>
+      </c>
+      <c r="X497" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y497" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z497" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA497" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB497" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC497" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD497" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE497" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF497" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG497" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH497" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI497" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ497" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A498" s="2">
+        <v>45226.00782486111</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D498" s="1">
+        <v>20232617</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F498" s="3">
+        <v>4.166666665696539E-3</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H498" s="1">
+        <v>3</v>
+      </c>
+      <c r="I498" s="1">
+        <v>2</v>
+      </c>
+      <c r="J498" s="1">
+        <v>4</v>
+      </c>
+      <c r="K498" s="1">
+        <v>3</v>
+      </c>
+      <c r="L498" s="1">
+        <v>4</v>
+      </c>
+      <c r="M498" s="1">
+        <v>3</v>
+      </c>
+      <c r="N498" s="1">
+        <v>3</v>
+      </c>
+      <c r="O498" s="1">
+        <v>2</v>
+      </c>
+      <c r="P498" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q498" s="1">
+        <v>5</v>
+      </c>
+      <c r="R498" s="1">
+        <v>4</v>
+      </c>
+      <c r="S498" s="1">
+        <v>2</v>
+      </c>
+      <c r="T498" s="1">
+        <v>3</v>
+      </c>
+      <c r="U498" s="1">
+        <v>4</v>
+      </c>
+      <c r="V498" s="1">
+        <v>3</v>
+      </c>
+      <c r="W498" s="1">
+        <v>4</v>
+      </c>
+      <c r="X498" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y498" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z498" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA498" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB498" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC498" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD498" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE498" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF498" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG498" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH498" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI498" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ498" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A499" s="2">
+        <v>45226.028414050925</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D499" s="1">
+        <v>20233906</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F499" s="3">
+        <v>2.0833333335758653E-2</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK499" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL499" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM499" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN499" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO499" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP499" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ499" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR499" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS499" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT499" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU499" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV499" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW499" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX499" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY499" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ499" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA499" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB499" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC499" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD499" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE499" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF499" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG499" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH499" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI499" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ499" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK499" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL499" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM499" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A500" s="2">
+        <v>45226.431106342592</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D500" s="1">
+        <v>20226622</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F500" s="3">
+        <v>0.42847222222189885</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H500" s="1">
+        <v>4</v>
+      </c>
+      <c r="I500" s="1">
+        <v>2</v>
+      </c>
+      <c r="J500" s="1">
+        <v>2</v>
+      </c>
+      <c r="K500" s="1">
+        <v>2</v>
+      </c>
+      <c r="L500" s="1">
+        <v>2</v>
+      </c>
+      <c r="M500" s="1">
+        <v>3</v>
+      </c>
+      <c r="N500" s="1">
+        <v>2</v>
+      </c>
+      <c r="O500" s="1">
+        <v>3</v>
+      </c>
+      <c r="P500" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q500" s="1">
+        <v>2</v>
+      </c>
+      <c r="R500" s="1">
+        <v>5</v>
+      </c>
+      <c r="S500" s="1">
+        <v>2</v>
+      </c>
+      <c r="T500" s="1">
+        <v>4</v>
+      </c>
+      <c r="U500" s="1">
+        <v>4</v>
+      </c>
+      <c r="V500" s="1">
+        <v>4</v>
+      </c>
+      <c r="W500" s="1">
+        <v>2</v>
+      </c>
+      <c r="X500" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y500" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z500" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA500" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB500" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC500" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD500" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE500" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF500" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG500" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH500" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI500" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ500" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A501" s="2">
+        <v>45226.455505266204</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D501" s="1">
+        <v>20232134</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F501" s="3">
+        <v>0.45347222222335404</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H501" s="1">
+        <v>3</v>
+      </c>
+      <c r="I501" s="1">
+        <v>3</v>
+      </c>
+      <c r="J501" s="1">
+        <v>4</v>
+      </c>
+      <c r="K501" s="1">
+        <v>2</v>
+      </c>
+      <c r="L501" s="1">
+        <v>4</v>
+      </c>
+      <c r="M501" s="1">
+        <v>3</v>
+      </c>
+      <c r="N501" s="1">
+        <v>3</v>
+      </c>
+      <c r="O501" s="1">
+        <v>5</v>
+      </c>
+      <c r="P501" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q501" s="1">
+        <v>4</v>
+      </c>
+      <c r="R501" s="1">
+        <v>4</v>
+      </c>
+      <c r="S501" s="1">
+        <v>4</v>
+      </c>
+      <c r="T501" s="1">
+        <v>4</v>
+      </c>
+      <c r="U501" s="1">
+        <v>2</v>
+      </c>
+      <c r="V501" s="1">
+        <v>3</v>
+      </c>
+      <c r="W501" s="1">
+        <v>5</v>
+      </c>
+      <c r="X501" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y501" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z501" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA501" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB501" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC501" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD501" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE501" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF501" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG501" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH501" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI501" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ501" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A502" s="2">
+        <v>45226.467990046294</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D502" s="1">
+        <v>20233035</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F502" s="3">
+        <v>0.46597222222044365</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H502" s="1">
+        <v>2</v>
+      </c>
+      <c r="I502" s="1">
+        <v>5</v>
+      </c>
+      <c r="J502" s="1">
+        <v>5</v>
+      </c>
+      <c r="K502" s="1">
+        <v>5</v>
+      </c>
+      <c r="L502" s="1">
+        <v>1</v>
+      </c>
+      <c r="M502" s="1">
+        <v>2</v>
+      </c>
+      <c r="N502" s="1">
+        <v>6</v>
+      </c>
+      <c r="O502" s="1">
+        <v>6</v>
+      </c>
+      <c r="P502" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q502" s="1">
+        <v>1</v>
+      </c>
+      <c r="R502" s="1">
+        <v>6</v>
+      </c>
+      <c r="S502" s="1">
+        <v>5</v>
+      </c>
+      <c r="T502" s="1">
+        <v>1</v>
+      </c>
+      <c r="U502" s="1">
+        <v>3</v>
+      </c>
+      <c r="V502" s="1">
+        <v>6</v>
+      </c>
+      <c r="W502" s="1">
+        <v>5</v>
+      </c>
+      <c r="X502" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y502" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z502" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA502" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB502" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC502" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD502" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE502" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF502" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG502" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH502" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI502" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ502" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="2">
+        <v>45226.473611759255</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D503" s="1">
+        <v>20233905</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F503" s="3">
+        <v>0.47013888889341615</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H503" s="1">
+        <v>2</v>
+      </c>
+      <c r="I503" s="1">
+        <v>5</v>
+      </c>
+      <c r="J503" s="1">
+        <v>4</v>
+      </c>
+      <c r="K503" s="1">
+        <v>3</v>
+      </c>
+      <c r="L503" s="1">
+        <v>4</v>
+      </c>
+      <c r="M503" s="1">
+        <v>2</v>
+      </c>
+      <c r="N503" s="1">
+        <v>3</v>
+      </c>
+      <c r="O503" s="1">
+        <v>3</v>
+      </c>
+      <c r="P503" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q503" s="1">
+        <v>5</v>
+      </c>
+      <c r="R503" s="1">
+        <v>4</v>
+      </c>
+      <c r="S503" s="1">
+        <v>3</v>
+      </c>
+      <c r="T503" s="1">
+        <v>2</v>
+      </c>
+      <c r="U503" s="1">
+        <v>4</v>
+      </c>
+      <c r="V503" s="1">
+        <v>4</v>
+      </c>
+      <c r="W503" s="1">
+        <v>4</v>
+      </c>
+      <c r="X503" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y503" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z503" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA503" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB503" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC503" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD503" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE503" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF503" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG503" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH503" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI503" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ503" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A504" s="2">
+        <v>45226.482132638892</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D504" s="1">
+        <v>20205239</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F504" s="3">
+        <v>0.47222222221898846</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK504" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL504" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM504" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN504" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO504" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP504" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ504" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR504" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS504" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT504" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU504" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV504" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW504" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX504" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY504" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ504" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA504" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB504" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC504" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD504" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE504" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF504" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG504" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH504" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI504" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ504" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK504" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL504" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM504" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="2">
+        <v>45226.504595162041</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D505" s="1">
+        <v>20212621</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F505" s="3">
+        <v>0.50277777777955635</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H505" s="1">
+        <v>2</v>
+      </c>
+      <c r="I505" s="1">
+        <v>4</v>
+      </c>
+      <c r="J505" s="1">
+        <v>4</v>
+      </c>
+      <c r="K505" s="1">
+        <v>3</v>
+      </c>
+      <c r="L505" s="1">
+        <v>4</v>
+      </c>
+      <c r="M505" s="1">
+        <v>2</v>
+      </c>
+      <c r="N505" s="1">
+        <v>4</v>
+      </c>
+      <c r="O505" s="1">
+        <v>4</v>
+      </c>
+      <c r="P505" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q505" s="1">
+        <v>2</v>
+      </c>
+      <c r="R505" s="1">
+        <v>4</v>
+      </c>
+      <c r="S505" s="1">
+        <v>4</v>
+      </c>
+      <c r="T505" s="1">
+        <v>2</v>
+      </c>
+      <c r="U505" s="1">
+        <v>2</v>
+      </c>
+      <c r="V505" s="1">
+        <v>4</v>
+      </c>
+      <c r="W505" s="1">
+        <v>4</v>
+      </c>
+      <c r="X505" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y505" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z505" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA505" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB505" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC505" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD505" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE505" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF505" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG505" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH505" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI505" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ505" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="2">
+        <v>45226.555134131944</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D506" s="1">
+        <v>20233823</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F506" s="3">
+        <v>0.55277777777519077</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H506" s="1">
+        <v>5</v>
+      </c>
+      <c r="I506" s="1">
+        <v>5</v>
+      </c>
+      <c r="J506" s="1">
+        <v>2</v>
+      </c>
+      <c r="K506" s="1">
+        <v>3</v>
+      </c>
+      <c r="L506" s="1">
+        <v>3</v>
+      </c>
+      <c r="M506" s="1">
+        <v>3</v>
+      </c>
+      <c r="N506" s="1">
+        <v>4</v>
+      </c>
+      <c r="O506" s="1">
+        <v>4</v>
+      </c>
+      <c r="P506" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q506" s="1">
+        <v>5</v>
+      </c>
+      <c r="R506" s="1">
+        <v>4</v>
+      </c>
+      <c r="S506" s="1">
+        <v>2</v>
+      </c>
+      <c r="T506" s="1">
+        <v>3</v>
+      </c>
+      <c r="U506" s="1">
+        <v>3</v>
+      </c>
+      <c r="V506" s="1">
+        <v>2</v>
+      </c>
+      <c r="W506" s="1">
+        <v>4</v>
+      </c>
+      <c r="X506" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y506" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z506" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA506" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB506" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC506" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD506" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE506" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF506" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG506" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH506" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI506" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ506" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="2">
+        <v>45226.579632349538</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D507" s="1">
+        <v>20183639</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F507" s="3">
+        <v>0.57708333333721384</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H507" s="1">
+        <v>6</v>
+      </c>
+      <c r="I507" s="1">
+        <v>2</v>
+      </c>
+      <c r="J507" s="1">
+        <v>5</v>
+      </c>
+      <c r="K507" s="1">
+        <v>3</v>
+      </c>
+      <c r="L507" s="1">
+        <v>6</v>
+      </c>
+      <c r="M507" s="1">
+        <v>6</v>
+      </c>
+      <c r="N507" s="1">
+        <v>5</v>
+      </c>
+      <c r="O507" s="1">
+        <v>6</v>
+      </c>
+      <c r="P507" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q507" s="1">
+        <v>2</v>
+      </c>
+      <c r="R507" s="1">
+        <v>5</v>
+      </c>
+      <c r="S507" s="1">
+        <v>4</v>
+      </c>
+      <c r="T507" s="1">
+        <v>6</v>
+      </c>
+      <c r="U507" s="1">
+        <v>2</v>
+      </c>
+      <c r="V507" s="1">
+        <v>5</v>
+      </c>
+      <c r="W507" s="1">
+        <v>5</v>
+      </c>
+      <c r="X507" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y507" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z507" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA507" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB507" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC507" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD507" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE507" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF507" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG507" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH507" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI507" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ507" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="2">
+        <v>45226.646579050925</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D508" s="1">
+        <v>20233051</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F508" s="3">
+        <v>0.64513888888905058</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H508" s="1">
+        <v>1</v>
+      </c>
+      <c r="I508" s="1">
+        <v>6</v>
+      </c>
+      <c r="J508" s="1">
+        <v>5</v>
+      </c>
+      <c r="K508" s="1">
+        <v>6</v>
+      </c>
+      <c r="L508" s="1">
+        <v>1</v>
+      </c>
+      <c r="M508" s="1">
+        <v>1</v>
+      </c>
+      <c r="N508" s="1">
+        <v>6</v>
+      </c>
+      <c r="O508" s="1">
+        <v>5</v>
+      </c>
+      <c r="P508" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q508" s="1">
+        <v>3</v>
+      </c>
+      <c r="R508" s="1">
+        <v>6</v>
+      </c>
+      <c r="S508" s="1">
+        <v>6</v>
+      </c>
+      <c r="T508" s="1">
+        <v>2</v>
+      </c>
+      <c r="U508" s="1">
+        <v>5</v>
+      </c>
+      <c r="V508" s="1">
+        <v>6</v>
+      </c>
+      <c r="W508" s="1">
+        <v>6</v>
+      </c>
+      <c r="X508" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y508" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z508" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA508" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB508" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC508" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD508" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE508" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF508" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG508" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH508" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI508" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ508" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="2">
+        <v>45226.67573239583</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D509" s="1">
+        <v>20236636</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F509" s="3">
+        <v>0.67152777777664596</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H509" s="1">
+        <v>1</v>
+      </c>
+      <c r="I509" s="1">
+        <v>6</v>
+      </c>
+      <c r="J509" s="1">
+        <v>5</v>
+      </c>
+      <c r="K509" s="1">
+        <v>4</v>
+      </c>
+      <c r="L509" s="1">
+        <v>3</v>
+      </c>
+      <c r="M509" s="1">
+        <v>2</v>
+      </c>
+      <c r="N509" s="1">
+        <v>5</v>
+      </c>
+      <c r="O509" s="1">
+        <v>6</v>
+      </c>
+      <c r="P509" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q509" s="1">
+        <v>1</v>
+      </c>
+      <c r="R509" s="1">
+        <v>5</v>
+      </c>
+      <c r="S509" s="1">
+        <v>5</v>
+      </c>
+      <c r="T509" s="1">
+        <v>1</v>
+      </c>
+      <c r="U509" s="1">
+        <v>4</v>
+      </c>
+      <c r="V509" s="1">
+        <v>4</v>
+      </c>
+      <c r="W509" s="1">
+        <v>5</v>
+      </c>
+      <c r="X509" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y509" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z509" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA509" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB509" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC509" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD509" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE509" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF509" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG509" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH509" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ509" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="2">
+        <v>45226.69439556713</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D510" s="1">
+        <v>20226410</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F510" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H510" s="1">
+        <v>3</v>
+      </c>
+      <c r="I510" s="1">
+        <v>3</v>
+      </c>
+      <c r="J510" s="1">
+        <v>5</v>
+      </c>
+      <c r="K510" s="1">
+        <v>3</v>
+      </c>
+      <c r="L510" s="1">
+        <v>2</v>
+      </c>
+      <c r="M510" s="1">
+        <v>2</v>
+      </c>
+      <c r="N510" s="1">
+        <v>3</v>
+      </c>
+      <c r="O510" s="1">
+        <v>3</v>
+      </c>
+      <c r="P510" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q510" s="1">
+        <v>2</v>
+      </c>
+      <c r="R510" s="1">
+        <v>5</v>
+      </c>
+      <c r="S510" s="1">
+        <v>5</v>
+      </c>
+      <c r="T510" s="1">
+        <v>2</v>
+      </c>
+      <c r="U510" s="1">
+        <v>2</v>
+      </c>
+      <c r="V510" s="1">
+        <v>5</v>
+      </c>
+      <c r="W510" s="1">
+        <v>5</v>
+      </c>
+      <c r="X510" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y510" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z510" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA510" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB510" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC510" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD510" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE510" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF510" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG510" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH510" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI510" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ510" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="2">
+        <v>45226.714843969909</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D511" s="1">
+        <v>20225207</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F511" s="3">
+        <v>0.71180555555474712</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H511" s="1">
+        <v>4</v>
+      </c>
+      <c r="I511" s="1">
+        <v>4</v>
+      </c>
+      <c r="J511" s="1">
+        <v>4</v>
+      </c>
+      <c r="K511" s="1">
+        <v>2</v>
+      </c>
+      <c r="L511" s="1">
+        <v>4</v>
+      </c>
+      <c r="M511" s="1">
+        <v>2</v>
+      </c>
+      <c r="N511" s="1">
+        <v>4</v>
+      </c>
+      <c r="O511" s="1">
+        <v>4</v>
+      </c>
+      <c r="P511" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q511" s="1">
+        <v>4</v>
+      </c>
+      <c r="R511" s="1">
+        <v>4</v>
+      </c>
+      <c r="S511" s="1">
+        <v>4</v>
+      </c>
+      <c r="T511" s="1">
+        <v>4</v>
+      </c>
+      <c r="U511" s="1">
+        <v>2</v>
+      </c>
+      <c r="V511" s="1">
+        <v>4</v>
+      </c>
+      <c r="W511" s="1">
+        <v>4</v>
+      </c>
+      <c r="X511" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y511" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z511" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA511" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB511" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC511" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD511" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE511" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF511" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG511" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH511" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI511" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ511" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="2">
+        <v>45226.72228538194</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D512" s="1">
+        <v>20202742</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F512" s="3">
+        <v>0.71805555555329192</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H512" s="1">
+        <v>3</v>
+      </c>
+      <c r="I512" s="1">
+        <v>4</v>
+      </c>
+      <c r="J512" s="1">
+        <v>3</v>
+      </c>
+      <c r="K512" s="1">
+        <v>3</v>
+      </c>
+      <c r="L512" s="1">
+        <v>4</v>
+      </c>
+      <c r="M512" s="1">
+        <v>4</v>
+      </c>
+      <c r="N512" s="1">
+        <v>2</v>
+      </c>
+      <c r="O512" s="1">
+        <v>3</v>
+      </c>
+      <c r="P512" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q512" s="1">
+        <v>4</v>
+      </c>
+      <c r="R512" s="1">
+        <v>3</v>
+      </c>
+      <c r="S512" s="1">
+        <v>4</v>
+      </c>
+      <c r="T512" s="1">
+        <v>4</v>
+      </c>
+      <c r="U512" s="1">
+        <v>4</v>
+      </c>
+      <c r="V512" s="1">
+        <v>3</v>
+      </c>
+      <c r="W512" s="1">
+        <v>3</v>
+      </c>
+      <c r="X512" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y512" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z512" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA512" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB512" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC512" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD512" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE512" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF512" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG512" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH512" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI512" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ512" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="513" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="2">
+        <v>45226.738765428236</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D513" s="1">
+        <v>20192604</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F513" s="3">
+        <v>0.73611111110949423</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H513" s="1">
+        <v>1</v>
+      </c>
+      <c r="I513" s="1">
+        <v>4</v>
+      </c>
+      <c r="J513" s="1">
+        <v>4</v>
+      </c>
+      <c r="K513" s="1">
+        <v>4</v>
+      </c>
+      <c r="L513" s="1">
+        <v>2</v>
+      </c>
+      <c r="M513" s="1">
+        <v>1</v>
+      </c>
+      <c r="N513" s="1">
+        <v>4</v>
+      </c>
+      <c r="O513" s="1">
+        <v>4</v>
+      </c>
+      <c r="P513" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q513" s="1">
+        <v>1</v>
+      </c>
+      <c r="R513" s="1">
+        <v>5</v>
+      </c>
+      <c r="S513" s="1">
+        <v>4</v>
+      </c>
+      <c r="T513" s="1">
+        <v>1</v>
+      </c>
+      <c r="U513" s="1">
+        <v>4</v>
+      </c>
+      <c r="V513" s="1">
+        <v>5</v>
+      </c>
+      <c r="W513" s="1">
+        <v>5</v>
+      </c>
+      <c r="X513" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y513" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z513" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA513" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB513" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC513" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD513" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE513" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF513" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG513" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH513" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI513" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ513" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="2">
+        <v>45226.749937581015</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D514" s="1">
+        <v>20232106</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F514" s="3">
+        <v>0.74791666666715173</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H514" s="1">
+        <v>4</v>
+      </c>
+      <c r="I514" s="1">
+        <v>4</v>
+      </c>
+      <c r="J514" s="1">
+        <v>4</v>
+      </c>
+      <c r="K514" s="1">
+        <v>3</v>
+      </c>
+      <c r="L514" s="1">
+        <v>4</v>
+      </c>
+      <c r="M514" s="1">
+        <v>4</v>
+      </c>
+      <c r="N514" s="1">
+        <v>3</v>
+      </c>
+      <c r="O514" s="1">
+        <v>4</v>
+      </c>
+      <c r="P514" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q514" s="1">
+        <v>3</v>
+      </c>
+      <c r="R514" s="1">
+        <v>3</v>
+      </c>
+      <c r="S514" s="1">
+        <v>4</v>
+      </c>
+      <c r="T514" s="1">
+        <v>3</v>
+      </c>
+      <c r="U514" s="1">
+        <v>3</v>
+      </c>
+      <c r="V514" s="1">
+        <v>3</v>
+      </c>
+      <c r="W514" s="1">
+        <v>3</v>
+      </c>
+      <c r="X514" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y514" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z514" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA514" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB514" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC514" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD514" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE514" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF514" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG514" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH514" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI514" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ514" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="2">
+        <v>45226.776495937505</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D515" s="1">
+        <v>20232354</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F515" s="3">
+        <v>0.773611111115315</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK515" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL515" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM515" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN515" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO515" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP515" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ515" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR515" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS515" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT515" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU515" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV515" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW515" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX515" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY515" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ515" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA515" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB515" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC515" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD515" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE515" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF515" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG515" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH515" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI515" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ515" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK515" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL515" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM515" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="2">
+        <v>45226.795880266203</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D516" s="1">
+        <v>20221026</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F516" s="3">
+        <v>0.79097222222480923</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK516" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL516" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM516" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN516" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO516" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP516" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ516" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR516" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS516" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT516" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU516" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV516" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW516" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX516" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY516" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ516" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA516" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB516" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC516" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD516" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE516" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF516" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG516" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH516" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI516" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ516" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK516" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL516" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM516" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="2">
+        <v>45226.90548814815</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D517" s="1">
+        <v>20233210</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F517" s="3">
+        <v>0.90347222222044365</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H517" s="1">
+        <v>2</v>
+      </c>
+      <c r="I517" s="1">
+        <v>4</v>
+      </c>
+      <c r="J517" s="1">
+        <v>3</v>
+      </c>
+      <c r="K517" s="1">
+        <v>3</v>
+      </c>
+      <c r="L517" s="1">
+        <v>1</v>
+      </c>
+      <c r="M517" s="1">
+        <v>1</v>
+      </c>
+      <c r="N517" s="1">
+        <v>6</v>
+      </c>
+      <c r="O517" s="1">
+        <v>4</v>
+      </c>
+      <c r="P517" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q517" s="1">
+        <v>3</v>
+      </c>
+      <c r="R517" s="1">
+        <v>6</v>
+      </c>
+      <c r="S517" s="1">
+        <v>5</v>
+      </c>
+      <c r="T517" s="1">
+        <v>2</v>
+      </c>
+      <c r="U517" s="1">
+        <v>4</v>
+      </c>
+      <c r="V517" s="1">
+        <v>5</v>
+      </c>
+      <c r="W517" s="1">
+        <v>6</v>
+      </c>
+      <c r="X517" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y517" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z517" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA517" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB517" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC517" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD517" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE517" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF517" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG517" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH517" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI517" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ517" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A518" s="2">
+        <v>45226.907774849533</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D518" s="1">
+        <v>20236631</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F518" s="3">
+        <v>0.90277777778101154</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK518" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL518" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM518" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN518" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO518" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP518" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ518" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR518" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS518" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT518" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU518" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV518" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW518" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX518" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY518" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ518" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA518" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB518" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC518" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD518" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE518" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF518" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG518" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH518" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI518" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ518" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK518" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL518" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM518" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="2">
+        <v>45226.916966770834</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D519" s="1">
+        <v>20203411</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F519" s="3">
+        <v>0.91666666666424135</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK519" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL519" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM519" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN519" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO519" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP519" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ519" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR519" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS519" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT519" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU519" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV519" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW519" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX519" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY519" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ519" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA519" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB519" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC519" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD519" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE519" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF519" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG519" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH519" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI519" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ519" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK519" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL519" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM519" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A520" s="2">
+        <v>45226.936364502311</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D520" s="1">
+        <v>20183401</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F520" s="3">
+        <v>0.93541666666715173</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK520" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL520" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM520" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN520" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO520" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP520" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ520" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR520" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS520" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT520" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU520" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV520" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW520" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX520" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY520" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ520" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA520" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB520" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC520" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD520" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE520" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF520" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG520" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH520" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI520" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ520" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK520" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL520" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM520" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A521" s="2">
+        <v>45226.971533819444</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D521" s="1">
+        <v>20207035</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F521" s="3">
+        <v>0.97083333333284827</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK521" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL521" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN521" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO521" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP521" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ521" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR521" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS521" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT521" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU521" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV521" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW521" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX521" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY521" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ521" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA521" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB521" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC521" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD521" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE521" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF521" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG521" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH521" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI521" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ521" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK521" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL521" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM521" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A522" s="2">
+        <v>45227.022968599536</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D522" s="1">
+        <v>20233825</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F522" s="3">
+        <v>2.0833333335758653E-2</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H522" s="1">
+        <v>4</v>
+      </c>
+      <c r="I522" s="1">
+        <v>2</v>
+      </c>
+      <c r="J522" s="1">
+        <v>2</v>
+      </c>
+      <c r="K522" s="1">
+        <v>3</v>
+      </c>
+      <c r="L522" s="1">
+        <v>2</v>
+      </c>
+      <c r="M522" s="1">
+        <v>4</v>
+      </c>
+      <c r="N522" s="1">
+        <v>1</v>
+      </c>
+      <c r="O522" s="1">
+        <v>1</v>
+      </c>
+      <c r="P522" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q522" s="1">
+        <v>4</v>
+      </c>
+      <c r="R522" s="1">
+        <v>3</v>
+      </c>
+      <c r="S522" s="1">
+        <v>3</v>
+      </c>
+      <c r="T522" s="1">
+        <v>5</v>
+      </c>
+      <c r="U522" s="1">
+        <v>3</v>
+      </c>
+      <c r="V522" s="1">
+        <v>4</v>
+      </c>
+      <c r="W522" s="1">
+        <v>4</v>
+      </c>
+      <c r="X522" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y522" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z522" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA522" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB522" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC522" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD522" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE522" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF522" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG522" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH522" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI522" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ522" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A523" s="2">
+        <v>45227.073079247682</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D523" s="1">
+        <v>20235245</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F523" s="3">
+        <v>6.805555555911269E-2</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK523" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL523" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM523" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN523" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO523" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP523" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ523" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR523" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS523" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT523" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU523" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV523" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW523" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX523" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY523" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ523" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA523" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB523" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC523" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD523" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE523" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF523" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG523" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH523" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI523" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ523" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK523" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL523" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM523" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="2">
+        <v>45227.088317951391</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D524" s="1">
+        <v>20231626</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F524" s="3">
+        <v>7.3611111110949423E-2</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK524" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL524" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM524" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN524" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO524" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP524" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ524" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR524" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS524" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT524" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU524" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV524" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW524" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX524" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY524" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ524" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA524" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB524" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC524" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD524" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE524" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF524" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG524" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH524" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI524" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ524" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK524" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL524" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM524" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A525" s="2">
+        <v>45227.094824849541</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D525" s="1">
+        <v>20222559</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F525" s="3">
+        <v>8.819444444088731E-2</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK525" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL525" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM525" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN525" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO525" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP525" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ525" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR525" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS525" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT525" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU525" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV525" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW525" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX525" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY525" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ525" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA525" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB525" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC525" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD525" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE525" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF525" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG525" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH525" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI525" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ525" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK525" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL525" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM525" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A526" s="2">
+        <v>45227.123183414355</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D526" s="1">
+        <v>20233951</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="F526" s="3">
+        <v>0.12152777778101154</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H526" s="1">
+        <v>2</v>
+      </c>
+      <c r="I526" s="1">
+        <v>3</v>
+      </c>
+      <c r="J526" s="1">
+        <v>5</v>
+      </c>
+      <c r="K526" s="1">
+        <v>5</v>
+      </c>
+      <c r="L526" s="1">
+        <v>2</v>
+      </c>
+      <c r="M526" s="1">
+        <v>2</v>
+      </c>
+      <c r="N526" s="1">
+        <v>4</v>
+      </c>
+      <c r="O526" s="1">
+        <v>4</v>
+      </c>
+      <c r="P526" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q526" s="1">
+        <v>2</v>
+      </c>
+      <c r="R526" s="1">
+        <v>5</v>
+      </c>
+      <c r="S526" s="1">
+        <v>4</v>
+      </c>
+      <c r="T526" s="1">
+        <v>2</v>
+      </c>
+      <c r="U526" s="1">
+        <v>2</v>
+      </c>
+      <c r="V526" s="1">
+        <v>4</v>
+      </c>
+      <c r="W526" s="1">
+        <v>5</v>
+      </c>
+      <c r="X526" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y526" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z526" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA526" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB526" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC526" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD526" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE526" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF526" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG526" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH526" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI526" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ526" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="2">
+        <v>45227.166618159725</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D527" s="1">
+        <v>20232509</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F527" s="3">
+        <v>0.16041666666569654</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H527" s="1">
+        <v>2</v>
+      </c>
+      <c r="I527" s="1">
+        <v>5</v>
+      </c>
+      <c r="J527" s="1">
+        <v>4</v>
+      </c>
+      <c r="K527" s="1">
+        <v>4</v>
+      </c>
+      <c r="L527" s="1">
+        <v>3</v>
+      </c>
+      <c r="M527" s="1">
+        <v>2</v>
+      </c>
+      <c r="N527" s="1">
+        <v>3</v>
+      </c>
+      <c r="O527" s="1">
+        <v>4</v>
+      </c>
+      <c r="P527" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q527" s="1">
+        <v>2</v>
+      </c>
+      <c r="R527" s="1">
+        <v>3</v>
+      </c>
+      <c r="S527" s="1">
+        <v>4</v>
+      </c>
+      <c r="T527" s="1">
+        <v>2</v>
+      </c>
+      <c r="U527" s="1">
+        <v>4</v>
+      </c>
+      <c r="V527" s="1">
+        <v>4</v>
+      </c>
+      <c r="W527" s="1">
+        <v>4</v>
+      </c>
+      <c r="X527" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y527" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z527" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA527" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB527" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC527" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD527" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE527" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF527" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG527" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH527" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI527" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ527" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="2">
+        <v>45227.252390972222</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D528" s="1">
+        <v>20192213</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F528" s="3">
+        <v>0.25069444444670808</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK528" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL528" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM528" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN528" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO528" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP528" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ528" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR528" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS528" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT528" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU528" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV528" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW528" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX528" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY528" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ528" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA528" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB528" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC528" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD528" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE528" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF528" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG528" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH528" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI528" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ528" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK528" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL528" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM528" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="2">
+        <v>45227.36087045139</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D529" s="1">
+        <v>20235101</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F529" s="3">
+        <v>0.35972222222335404</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY529" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ529" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA529" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB529" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC529" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD529" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A530" s="2">
+        <v>45227.43984284722</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D530" s="1">
+        <v>20233932</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F530" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H530" s="1">
+        <v>2</v>
+      </c>
+      <c r="I530" s="1">
+        <v>3</v>
+      </c>
+      <c r="J530" s="1">
+        <v>4</v>
+      </c>
+      <c r="K530" s="1">
+        <v>4</v>
+      </c>
+      <c r="L530" s="1">
+        <v>1</v>
+      </c>
+      <c r="M530" s="1">
+        <v>1</v>
+      </c>
+      <c r="N530" s="1">
+        <v>3</v>
+      </c>
+      <c r="O530" s="1">
+        <v>2</v>
+      </c>
+      <c r="P530" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q530" s="1">
+        <v>3</v>
+      </c>
+      <c r="R530" s="1">
+        <v>4</v>
+      </c>
+      <c r="S530" s="1">
+        <v>3</v>
+      </c>
+      <c r="T530" s="1">
+        <v>2</v>
+      </c>
+      <c r="U530" s="1">
+        <v>2</v>
+      </c>
+      <c r="V530" s="1">
+        <v>3</v>
+      </c>
+      <c r="W530" s="1">
+        <v>4</v>
+      </c>
+      <c r="X530" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y530" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z530" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA530" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB530" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC530" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD530" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE530" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF530" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG530" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH530" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ530" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="2">
+        <v>45227.466432847221</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D531" s="1">
+        <v>20236217</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F531" s="3">
+        <v>0.93611111110658385</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK531" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL531" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM531" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN531" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO531" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP531" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ531" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR531" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS531" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT531" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU531" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV531" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW531" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX531" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY531" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ531" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA531" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB531" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC531" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD531" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="2">
+        <v>45227.48070857639</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D532" s="1">
+        <v>20215173</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F532" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK532" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM532" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN532" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO532" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP532" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ532" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR532" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS532" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT532" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU532" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV532" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW532" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX532" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY532" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ532" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA532" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB532" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC532" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD532" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A533" s="2">
+        <v>45227.531815590279</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D533" s="1">
+        <v>20233903</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F533" s="3">
+        <v>0.52986111110658385</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H533" s="1">
+        <v>1</v>
+      </c>
+      <c r="I533" s="1">
+        <v>4</v>
+      </c>
+      <c r="J533" s="1">
+        <v>5</v>
+      </c>
+      <c r="K533" s="1">
+        <v>3</v>
+      </c>
+      <c r="L533" s="1">
+        <v>2</v>
+      </c>
+      <c r="M533" s="1">
+        <v>2</v>
+      </c>
+      <c r="N533" s="1">
+        <v>4</v>
+      </c>
+      <c r="O533" s="1">
+        <v>4</v>
+      </c>
+      <c r="P533" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q533" s="1">
+        <v>2</v>
+      </c>
+      <c r="R533" s="1">
+        <v>4</v>
+      </c>
+      <c r="S533" s="1">
+        <v>4</v>
+      </c>
+      <c r="T533" s="1">
+        <v>2</v>
+      </c>
+      <c r="U533" s="1">
+        <v>3</v>
+      </c>
+      <c r="V533" s="1">
+        <v>4</v>
+      </c>
+      <c r="W533" s="1">
+        <v>4</v>
+      </c>
+      <c r="X533" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y533" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z533" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA533" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB533" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC533" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD533" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE533" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF533" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG533" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH533" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ533" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="2">
+        <v>45227.533130601849</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D534" s="1">
+        <v>20232999</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F534" s="3">
+        <v>0.53194444444670808</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H534" s="1">
+        <v>2</v>
+      </c>
+      <c r="I534" s="1">
+        <v>3</v>
+      </c>
+      <c r="J534" s="1">
+        <v>3</v>
+      </c>
+      <c r="K534" s="1">
+        <v>3</v>
+      </c>
+      <c r="L534" s="1">
+        <v>2</v>
+      </c>
+      <c r="M534" s="1">
+        <v>2</v>
+      </c>
+      <c r="N534" s="1">
+        <v>3</v>
+      </c>
+      <c r="O534" s="1">
+        <v>3</v>
+      </c>
+      <c r="P534" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q534" s="1">
+        <v>2</v>
+      </c>
+      <c r="R534" s="1">
+        <v>3</v>
+      </c>
+      <c r="S534" s="1">
+        <v>3</v>
+      </c>
+      <c r="T534" s="1">
+        <v>2</v>
+      </c>
+      <c r="U534" s="1">
+        <v>2</v>
+      </c>
+      <c r="V534" s="1">
+        <v>3</v>
+      </c>
+      <c r="W534" s="1">
+        <v>3</v>
+      </c>
+      <c r="X534" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y534" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z534" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA534" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB534" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC534" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD534" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE534" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF534" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG534" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH534" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI534" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ534" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="2">
+        <v>45227.548782997685</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D535" s="1">
+        <v>20236778</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F535" s="3">
+        <v>4.6527777776645962E-2</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H535" s="1">
+        <v>2</v>
+      </c>
+      <c r="I535" s="1">
+        <v>3</v>
+      </c>
+      <c r="J535" s="1">
+        <v>5</v>
+      </c>
+      <c r="K535" s="1">
+        <v>4</v>
+      </c>
+      <c r="L535" s="1">
+        <v>3</v>
+      </c>
+      <c r="M535" s="1">
+        <v>3</v>
+      </c>
+      <c r="N535" s="1">
+        <v>5</v>
+      </c>
+      <c r="O535" s="1">
+        <v>3</v>
+      </c>
+      <c r="P535" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q535" s="1">
+        <v>2</v>
+      </c>
+      <c r="R535" s="1">
+        <v>6</v>
+      </c>
+      <c r="S535" s="1">
+        <v>5</v>
+      </c>
+      <c r="T535" s="1">
+        <v>2</v>
+      </c>
+      <c r="U535" s="1">
+        <v>3</v>
+      </c>
+      <c r="V535" s="1">
+        <v>5</v>
+      </c>
+      <c r="W535" s="1">
+        <v>5</v>
+      </c>
+      <c r="X535" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y535" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z535" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA535" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB535" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC535" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD535" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE535" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF535" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG535" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH535" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI535" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ535" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="2">
+        <v>45227.549113946763</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D536" s="1">
+        <v>20235130</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F536" s="3">
+        <v>0.54583333333721384</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK536" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL536" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM536" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN536" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO536" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP536" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ536" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR536" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS536" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT536" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU536" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV536" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW536" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX536" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY536" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ536" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA536" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB536" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC536" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD536" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="2">
+        <v>45227.556234976852</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D537" s="1">
+        <v>20232356</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F537" s="3">
+        <v>0.55555555555474712</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H537" s="1">
+        <v>3</v>
+      </c>
+      <c r="I537" s="1">
+        <v>4</v>
+      </c>
+      <c r="J537" s="1">
+        <v>3</v>
+      </c>
+      <c r="K537" s="1">
+        <v>4</v>
+      </c>
+      <c r="L537" s="1">
+        <v>5</v>
+      </c>
+      <c r="M537" s="1">
+        <v>3</v>
+      </c>
+      <c r="N537" s="1">
+        <v>3</v>
+      </c>
+      <c r="O537" s="1">
+        <v>3</v>
+      </c>
+      <c r="P537" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q537" s="1">
+        <v>3</v>
+      </c>
+      <c r="R537" s="1">
+        <v>2</v>
+      </c>
+      <c r="S537" s="1">
+        <v>4</v>
+      </c>
+      <c r="T537" s="1">
+        <v>5</v>
+      </c>
+      <c r="U537" s="1">
+        <v>4</v>
+      </c>
+      <c r="V537" s="1">
+        <v>4</v>
+      </c>
+      <c r="W537" s="1">
+        <v>4</v>
+      </c>
+      <c r="X537" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y537" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z537" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA537" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB537" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC537" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD537" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE537" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF537" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG537" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH537" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI537" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ537" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="2">
+        <v>45227.56459991898</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D538" s="1">
+        <v>20231537</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F538" s="3">
+        <v>0.56111111110658385</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H538" s="1">
+        <v>2</v>
+      </c>
+      <c r="I538" s="1">
+        <v>3</v>
+      </c>
+      <c r="J538" s="1">
+        <v>3</v>
+      </c>
+      <c r="K538" s="1">
+        <v>3</v>
+      </c>
+      <c r="L538" s="1">
+        <v>2</v>
+      </c>
+      <c r="M538" s="1">
+        <v>4</v>
+      </c>
+      <c r="N538" s="1">
+        <v>4</v>
+      </c>
+      <c r="O538" s="1">
+        <v>3</v>
+      </c>
+      <c r="P538" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q538" s="1">
+        <v>3</v>
+      </c>
+      <c r="R538" s="1">
+        <v>4</v>
+      </c>
+      <c r="S538" s="1">
+        <v>4</v>
+      </c>
+      <c r="T538" s="1">
+        <v>2</v>
+      </c>
+      <c r="U538" s="1">
+        <v>2</v>
+      </c>
+      <c r="V538" s="1">
+        <v>5</v>
+      </c>
+      <c r="W538" s="1">
+        <v>4</v>
+      </c>
+      <c r="X538" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y538" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z538" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA538" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB538" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC538" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD538" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE538" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF538" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG538" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH538" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI538" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ538" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="2">
+        <v>45227.583439780094</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D539" s="1">
+        <v>20233534</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F539" s="3">
+        <v>0.57986111110949423</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H539" s="1">
+        <v>3</v>
+      </c>
+      <c r="I539" s="1">
+        <v>3</v>
+      </c>
+      <c r="J539" s="1">
+        <v>3</v>
+      </c>
+      <c r="K539" s="1">
+        <v>3</v>
+      </c>
+      <c r="L539" s="1">
+        <v>2</v>
+      </c>
+      <c r="M539" s="1">
+        <v>3</v>
+      </c>
+      <c r="N539" s="1">
+        <v>2</v>
+      </c>
+      <c r="O539" s="1">
+        <v>2</v>
+      </c>
+      <c r="P539" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q539" s="1">
+        <v>3</v>
+      </c>
+      <c r="R539" s="1">
+        <v>3</v>
+      </c>
+      <c r="S539" s="1">
+        <v>3</v>
+      </c>
+      <c r="T539" s="1">
+        <v>2</v>
+      </c>
+      <c r="U539" s="1">
+        <v>2</v>
+      </c>
+      <c r="V539" s="1">
+        <v>3</v>
+      </c>
+      <c r="W539" s="1">
+        <v>3</v>
+      </c>
+      <c r="X539" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y539" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z539" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA539" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB539" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC539" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD539" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE539" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF539" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG539" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH539" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI539" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ539" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="2">
+        <v>45227.620968680552</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D540" s="1">
+        <v>20235155</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F540" s="3">
+        <v>0.62013888888759539</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY540" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ540" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA540" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB540" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC540" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD540" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A541" s="2">
+        <v>45227.661314594909</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D541" s="1">
+        <v>20231057</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F541" s="3">
+        <v>0.64236111110949423</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK541" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL541" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM541" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN541" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO541" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP541" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ541" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR541" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS541" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT541" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU541" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV541" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW541" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX541" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY541" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ541" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA541" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB541" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC541" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD541" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A542" s="2">
+        <v>45227.686413194446</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D542" s="1">
+        <v>20226403</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F542" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK542" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL542" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN542" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO542" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP542" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ542" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR542" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS542" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT542" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU542" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV542" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW542" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX542" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY542" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ542" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA542" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB542" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC542" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD542" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE542" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF542" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG542" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH542" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI542" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ542" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK542" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL542" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM542" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="2">
+        <v>45227.693415057875</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D543" s="1">
+        <v>20232592</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F543" s="3">
+        <v>0.68680555555329192</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK543" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL543" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM543" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN543" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO543" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP543" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ543" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR543" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS543" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT543" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU543" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV543" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW543" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX543" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY543" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ543" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA543" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB543" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC543" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD543" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE543" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF543" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG543" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH543" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI543" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ543" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK543" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL543" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM543" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A544" s="2">
+        <v>45227.715620370371</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D544" s="1">
+        <v>20226178</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F544" s="3">
+        <v>0.71527777778101154</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK544" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL544" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM544" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN544" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO544" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP544" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ544" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR544" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS544" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT544" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU544" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV544" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW544" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX544" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY544" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ544" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA544" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB544" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC544" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD544" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE544" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF544" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG544" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH544" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI544" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ544" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK544" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL544" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM544" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A545" s="2">
+        <v>45227.723467696764</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D545" s="1">
+        <v>20232114</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F545" s="3">
+        <v>0.72222222221898846</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H545" s="1">
+        <v>4</v>
+      </c>
+      <c r="I545" s="1">
+        <v>3</v>
+      </c>
+      <c r="J545" s="1">
+        <v>4</v>
+      </c>
+      <c r="K545" s="1">
+        <v>5</v>
+      </c>
+      <c r="L545" s="1">
+        <v>2</v>
+      </c>
+      <c r="M545" s="1">
+        <v>2</v>
+      </c>
+      <c r="N545" s="1">
+        <v>2</v>
+      </c>
+      <c r="O545" s="1">
+        <v>5</v>
+      </c>
+      <c r="P545" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q545" s="1">
+        <v>3</v>
+      </c>
+      <c r="R545" s="1">
+        <v>6</v>
+      </c>
+      <c r="S545" s="1">
+        <v>4</v>
+      </c>
+      <c r="T545" s="1">
+        <v>2</v>
+      </c>
+      <c r="U545" s="1">
+        <v>2</v>
+      </c>
+      <c r="V545" s="1">
+        <v>4</v>
+      </c>
+      <c r="W545" s="1">
+        <v>4</v>
+      </c>
+      <c r="X545" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y545" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z545" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA545" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB545" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC545" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD545" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE545" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF545" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG545" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH545" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI545" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ545" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A546" s="2">
+        <v>45227.726476469907</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D546" s="1">
+        <v>20222347</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F546" s="3">
+        <v>0.72291666666569654</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H546" s="1">
+        <v>3</v>
+      </c>
+      <c r="I546" s="1">
+        <v>3</v>
+      </c>
+      <c r="J546" s="1">
+        <v>4</v>
+      </c>
+      <c r="K546" s="1">
+        <v>2</v>
+      </c>
+      <c r="L546" s="1">
+        <v>1</v>
+      </c>
+      <c r="M546" s="1">
+        <v>2</v>
+      </c>
+      <c r="N546" s="1">
+        <v>4</v>
+      </c>
+      <c r="O546" s="1">
+        <v>3</v>
+      </c>
+      <c r="P546" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q546" s="1">
+        <v>2</v>
+      </c>
+      <c r="R546" s="1">
+        <v>5</v>
+      </c>
+      <c r="S546" s="1">
+        <v>4</v>
+      </c>
+      <c r="T546" s="1">
+        <v>2</v>
+      </c>
+      <c r="U546" s="1">
+        <v>2</v>
+      </c>
+      <c r="V546" s="1">
+        <v>3</v>
+      </c>
+      <c r="W546" s="1">
+        <v>5</v>
+      </c>
+      <c r="X546" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y546" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z546" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA546" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB546" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC546" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD546" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE546" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF546" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG546" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH546" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI546" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ546" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A547" s="2">
+        <v>45227.730135787038</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D547" s="1">
+        <v>20202216</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F547" s="3">
+        <v>0.72708333333139308</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H547" s="1">
+        <v>1</v>
+      </c>
+      <c r="I547" s="1">
+        <v>2</v>
+      </c>
+      <c r="J547" s="1">
+        <v>4</v>
+      </c>
+      <c r="K547" s="1">
+        <v>2</v>
+      </c>
+      <c r="L547" s="1">
+        <v>1</v>
+      </c>
+      <c r="M547" s="1">
+        <v>2</v>
+      </c>
+      <c r="N547" s="1">
+        <v>5</v>
+      </c>
+      <c r="O547" s="1">
+        <v>5</v>
+      </c>
+      <c r="P547" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q547" s="1">
+        <v>2</v>
+      </c>
+      <c r="R547" s="1">
+        <v>5</v>
+      </c>
+      <c r="S547" s="1">
+        <v>4</v>
+      </c>
+      <c r="T547" s="1">
+        <v>2</v>
+      </c>
+      <c r="U547" s="1">
+        <v>3</v>
+      </c>
+      <c r="V547" s="1">
+        <v>5</v>
+      </c>
+      <c r="W547" s="1">
+        <v>4</v>
+      </c>
+      <c r="X547" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y547" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z547" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA547" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB547" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC547" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD547" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE547" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF547" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG547" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH547" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ547" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A548" s="2">
+        <v>45227.752132164351</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D548" s="1">
+        <v>20232523</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F548" s="3">
+        <v>0.72777777777810115</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK548" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL548" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM548" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN548" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO548" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP548" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ548" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR548" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS548" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT548" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU548" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV548" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW548" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX548" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY548" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ548" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA548" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB548" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC548" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD548" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE548" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF548" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG548" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH548" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI548" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ548" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK548" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL548" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM548" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="2">
+        <v>45227.757828692134</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D549" s="1">
+        <v>20183515</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F549" s="3">
+        <v>0.70833333333575865</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H549" s="1">
+        <v>2</v>
+      </c>
+      <c r="I549" s="1">
+        <v>4</v>
+      </c>
+      <c r="J549" s="1">
+        <v>4</v>
+      </c>
+      <c r="K549" s="1">
+        <v>3</v>
+      </c>
+      <c r="L549" s="1">
+        <v>1</v>
+      </c>
+      <c r="M549" s="1">
+        <v>2</v>
+      </c>
+      <c r="N549" s="1">
+        <v>5</v>
+      </c>
+      <c r="O549" s="1">
+        <v>5</v>
+      </c>
+      <c r="P549" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q549" s="1">
+        <v>5</v>
+      </c>
+      <c r="R549" s="1">
+        <v>4</v>
+      </c>
+      <c r="S549" s="1">
+        <v>4</v>
+      </c>
+      <c r="T549" s="1">
+        <v>2</v>
+      </c>
+      <c r="U549" s="1">
+        <v>2</v>
+      </c>
+      <c r="V549" s="1">
+        <v>5</v>
+      </c>
+      <c r="W549" s="1">
+        <v>5</v>
+      </c>
+      <c r="X549" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y549" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z549" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA549" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB549" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC549" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD549" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE549" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF549" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG549" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH549" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ549" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="2">
+        <v>45227.765170196755</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D550" s="1">
+        <v>20231240</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F550" s="3">
+        <v>0.76041666666424135</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK550" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL550" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM550" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN550" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO550" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP550" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ550" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR550" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS550" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT550" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU550" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV550" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW550" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX550" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY550" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ550" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA550" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB550" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC550" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD550" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE550" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF550" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG550" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH550" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI550" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ550" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK550" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL550" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM550" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A551" s="2">
+        <v>45227.77030290509</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D551" s="1">
+        <v>20226256</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F551" s="3">
+        <v>0.75624999999854481</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H551" s="1">
+        <v>2</v>
+      </c>
+      <c r="I551" s="1">
+        <v>4</v>
+      </c>
+      <c r="J551" s="1">
+        <v>4</v>
+      </c>
+      <c r="K551" s="1">
+        <v>4</v>
+      </c>
+      <c r="L551" s="1">
+        <v>2</v>
+      </c>
+      <c r="M551" s="1">
+        <v>4</v>
+      </c>
+      <c r="N551" s="1">
+        <v>4</v>
+      </c>
+      <c r="O551" s="1">
+        <v>3</v>
+      </c>
+      <c r="P551" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q551" s="1">
+        <v>4</v>
+      </c>
+      <c r="R551" s="1">
+        <v>5</v>
+      </c>
+      <c r="S551" s="1">
+        <v>5</v>
+      </c>
+      <c r="T551" s="1">
+        <v>3</v>
+      </c>
+      <c r="U551" s="1">
+        <v>5</v>
+      </c>
+      <c r="V551" s="1">
+        <v>5</v>
+      </c>
+      <c r="W551" s="1">
+        <v>4</v>
+      </c>
+      <c r="X551" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y551" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z551" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA551" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB551" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC551" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD551" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE551" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF551" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG551" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH551" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ551" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A552" s="2">
+        <v>45227.798145590277</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D552" s="1">
+        <v>20232639</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F552" s="3">
+        <v>0.79513888889050577</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H552" s="1">
+        <v>2</v>
+      </c>
+      <c r="I552" s="1">
+        <v>5</v>
+      </c>
+      <c r="J552" s="1">
+        <v>5</v>
+      </c>
+      <c r="K552" s="1">
+        <v>4</v>
+      </c>
+      <c r="L552" s="1">
+        <v>4</v>
+      </c>
+      <c r="M552" s="1">
+        <v>2</v>
+      </c>
+      <c r="N552" s="1">
+        <v>5</v>
+      </c>
+      <c r="O552" s="1">
+        <v>4</v>
+      </c>
+      <c r="P552" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q552" s="1">
+        <v>2</v>
+      </c>
+      <c r="R552" s="1">
+        <v>6</v>
+      </c>
+      <c r="S552" s="1">
+        <v>5</v>
+      </c>
+      <c r="T552" s="1">
+        <v>3</v>
+      </c>
+      <c r="U552" s="1">
+        <v>3</v>
+      </c>
+      <c r="V552" s="1">
+        <v>6</v>
+      </c>
+      <c r="W552" s="1">
+        <v>6</v>
+      </c>
+      <c r="X552" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y552" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z552" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA552" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB552" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC552" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD552" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE552" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF552" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG552" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH552" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI552" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ552" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A553" s="2">
+        <v>45227.815961805551</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D553" s="1">
+        <v>20235270</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F553" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H553" s="1">
+        <v>2</v>
+      </c>
+      <c r="I553" s="1">
+        <v>5</v>
+      </c>
+      <c r="J553" s="1">
+        <v>4</v>
+      </c>
+      <c r="K553" s="1">
+        <v>2</v>
+      </c>
+      <c r="L553" s="1">
+        <v>3</v>
+      </c>
+      <c r="M553" s="1">
+        <v>2</v>
+      </c>
+      <c r="N553" s="1">
+        <v>3</v>
+      </c>
+      <c r="O553" s="1">
+        <v>3</v>
+      </c>
+      <c r="P553" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q553" s="1">
+        <v>4</v>
+      </c>
+      <c r="R553" s="1">
+        <v>4</v>
+      </c>
+      <c r="S553" s="1">
+        <v>2</v>
+      </c>
+      <c r="T553" s="1">
+        <v>5</v>
+      </c>
+      <c r="U553" s="1">
+        <v>2</v>
+      </c>
+      <c r="V553" s="1">
+        <v>4</v>
+      </c>
+      <c r="W553" s="1">
+        <v>5</v>
+      </c>
+      <c r="X553" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y553" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z553" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA553" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB553" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC553" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD553" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE553" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF553" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG553" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH553" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI553" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ553" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A554" s="2">
+        <v>45227.819403125002</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D554" s="1">
+        <v>20233625</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F554" s="3">
+        <v>0.93611111110658385</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY554" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL554" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM554" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A555" s="2">
+        <v>45227.837335439814</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D555" s="1">
+        <v>20232214</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F555" s="3">
+        <v>0.83541666666860692</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK555" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL555" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM555" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN555" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO555" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP555" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ555" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR555" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS555" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT555" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU555" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV555" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW555" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX555" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY555" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ555" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA555" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB555" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC555" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD555" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE555" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF555" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG555" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH555" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI555" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ555" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK555" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL555" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM555" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A556" s="2">
+        <v>45227.841154537033</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D556" s="1">
+        <v>20226647</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F556" s="3">
+        <v>0.77430555555474712</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H556" s="1">
+        <v>2</v>
+      </c>
+      <c r="I556" s="1">
+        <v>4</v>
+      </c>
+      <c r="J556" s="1">
+        <v>3</v>
+      </c>
+      <c r="K556" s="1">
+        <v>3</v>
+      </c>
+      <c r="L556" s="1">
+        <v>3</v>
+      </c>
+      <c r="M556" s="1">
+        <v>3</v>
+      </c>
+      <c r="N556" s="1">
+        <v>2</v>
+      </c>
+      <c r="O556" s="1">
+        <v>3</v>
+      </c>
+      <c r="P556" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q556" s="1">
+        <v>4</v>
+      </c>
+      <c r="R556" s="1">
+        <v>4</v>
+      </c>
+      <c r="S556" s="1">
+        <v>3</v>
+      </c>
+      <c r="T556" s="1">
+        <v>2</v>
+      </c>
+      <c r="U556" s="1">
+        <v>4</v>
+      </c>
+      <c r="V556" s="1">
+        <v>3</v>
+      </c>
+      <c r="W556" s="1">
+        <v>4</v>
+      </c>
+      <c r="X556" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y556" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z556" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA556" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB556" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC556" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD556" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE556" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF556" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG556" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH556" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ556" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A557" s="2">
+        <v>45227.859846956024</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D557" s="1">
+        <v>20231230</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F557" s="3">
+        <v>0.85763888889050577</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H557" s="1">
+        <v>2</v>
+      </c>
+      <c r="I557" s="1">
+        <v>5</v>
+      </c>
+      <c r="J557" s="1">
+        <v>3</v>
+      </c>
+      <c r="K557" s="1">
+        <v>3</v>
+      </c>
+      <c r="L557" s="1">
+        <v>3</v>
+      </c>
+      <c r="M557" s="1">
+        <v>3</v>
+      </c>
+      <c r="N557" s="1">
+        <v>4</v>
+      </c>
+      <c r="O557" s="1">
+        <v>4</v>
+      </c>
+      <c r="P557" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q557" s="1">
+        <v>3</v>
+      </c>
+      <c r="R557" s="1">
+        <v>6</v>
+      </c>
+      <c r="S557" s="1">
+        <v>2</v>
+      </c>
+      <c r="T557" s="1">
+        <v>4</v>
+      </c>
+      <c r="U557" s="1">
+        <v>5</v>
+      </c>
+      <c r="V557" s="1">
+        <v>3</v>
+      </c>
+      <c r="W557" s="1">
+        <v>3</v>
+      </c>
+      <c r="X557" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y557" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z557" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA557" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB557" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC557" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD557" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE557" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF557" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG557" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH557" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI557" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ557" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A558" s="2">
+        <v>45227.865871493057</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D558" s="1">
+        <v>20232747</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F558" s="3">
+        <v>0.8631944444423425</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H558" s="1">
+        <v>5</v>
+      </c>
+      <c r="I558" s="1">
+        <v>1</v>
+      </c>
+      <c r="J558" s="1">
+        <v>2</v>
+      </c>
+      <c r="K558" s="1">
+        <v>4</v>
+      </c>
+      <c r="L558" s="1">
+        <v>4</v>
+      </c>
+      <c r="M558" s="1">
+        <v>6</v>
+      </c>
+      <c r="N558" s="1">
+        <v>3</v>
+      </c>
+      <c r="O558" s="1">
+        <v>2</v>
+      </c>
+      <c r="P558" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q558" s="1">
+        <v>6</v>
+      </c>
+      <c r="R558" s="1">
+        <v>6</v>
+      </c>
+      <c r="S558" s="1">
+        <v>2</v>
+      </c>
+      <c r="T558" s="1">
+        <v>5</v>
+      </c>
+      <c r="U558" s="1">
+        <v>6</v>
+      </c>
+      <c r="V558" s="1">
+        <v>2</v>
+      </c>
+      <c r="W558" s="1">
+        <v>3</v>
+      </c>
+      <c r="X558" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y558" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z558" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA558" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB558" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC558" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD558" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE558" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF558" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG558" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH558" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ558" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="559" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A559" s="2">
+        <v>45227.866023263894</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D559" s="1">
+        <v>20203340</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F559" s="3">
+        <v>0.86458333333575865</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H559" s="1">
+        <v>2</v>
+      </c>
+      <c r="I559" s="1">
+        <v>3</v>
+      </c>
+      <c r="J559" s="1">
+        <v>5</v>
+      </c>
+      <c r="K559" s="1">
+        <v>3</v>
+      </c>
+      <c r="L559" s="1">
+        <v>2</v>
+      </c>
+      <c r="M559" s="1">
+        <v>2</v>
+      </c>
+      <c r="N559" s="1">
+        <v>4</v>
+      </c>
+      <c r="O559" s="1">
+        <v>4</v>
+      </c>
+      <c r="P559" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q559" s="1">
+        <v>3</v>
+      </c>
+      <c r="R559" s="1">
+        <v>5</v>
+      </c>
+      <c r="S559" s="1">
+        <v>4</v>
+      </c>
+      <c r="T559" s="1">
+        <v>2</v>
+      </c>
+      <c r="U559" s="1">
+        <v>2</v>
+      </c>
+      <c r="V559" s="1">
+        <v>5</v>
+      </c>
+      <c r="W559" s="1">
+        <v>4</v>
+      </c>
+      <c r="X559" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y559" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z559" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA559" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB559" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC559" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD559" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE559" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF559" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG559" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH559" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI559" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ559" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A560" s="2">
+        <v>45227.86775986111</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D560" s="1">
+        <v>20175224</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F560" s="3">
+        <v>0.86527777777519077</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK560" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL560" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM560" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN560" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO560" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP560" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ560" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR560" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS560" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT560" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU560" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV560" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW560" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX560" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY560" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ560" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA560" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB560" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC560" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD560" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE560" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF560" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG560" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH560" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI560" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ560" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK560" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL560" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM560" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A561" s="2">
+        <v>45227.872846041668</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D561" s="1">
+        <v>20233969</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F561" s="3">
+        <v>0.36388888888905058</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H561" s="1">
+        <v>2</v>
+      </c>
+      <c r="I561" s="1">
+        <v>3</v>
+      </c>
+      <c r="J561" s="1">
+        <v>4</v>
+      </c>
+      <c r="K561" s="1">
+        <v>3</v>
+      </c>
+      <c r="L561" s="1">
+        <v>2</v>
+      </c>
+      <c r="M561" s="1">
+        <v>3</v>
+      </c>
+      <c r="N561" s="1">
+        <v>4</v>
+      </c>
+      <c r="O561" s="1">
+        <v>3</v>
+      </c>
+      <c r="P561" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q561" s="1">
+        <v>3</v>
+      </c>
+      <c r="R561" s="1">
+        <v>5</v>
+      </c>
+      <c r="S561" s="1">
+        <v>4</v>
+      </c>
+      <c r="T561" s="1">
+        <v>3</v>
+      </c>
+      <c r="U561" s="1">
+        <v>3</v>
+      </c>
+      <c r="V561" s="1">
+        <v>4</v>
+      </c>
+      <c r="W561" s="1">
+        <v>4</v>
+      </c>
+      <c r="X561" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y561" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z561" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA561" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB561" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC561" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD561" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE561" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF561" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG561" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH561" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI561" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ561" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A562" s="2">
+        <v>45227.878034641202</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D562" s="1">
+        <v>20232113</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F562" s="3">
+        <v>0.87638888889341615</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H562" s="1">
+        <v>1</v>
+      </c>
+      <c r="I562" s="1">
+        <v>4</v>
+      </c>
+      <c r="J562" s="1">
+        <v>4</v>
+      </c>
+      <c r="K562" s="1">
+        <v>5</v>
+      </c>
+      <c r="L562" s="1">
+        <v>3</v>
+      </c>
+      <c r="M562" s="1">
+        <v>4</v>
+      </c>
+      <c r="N562" s="1">
+        <v>4</v>
+      </c>
+      <c r="O562" s="1">
+        <v>5</v>
+      </c>
+      <c r="P562" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q562" s="1">
+        <v>2</v>
+      </c>
+      <c r="R562" s="1">
+        <v>5</v>
+      </c>
+      <c r="S562" s="1">
+        <v>3</v>
+      </c>
+      <c r="T562" s="1">
+        <v>1</v>
+      </c>
+      <c r="U562" s="1">
+        <v>4</v>
+      </c>
+      <c r="V562" s="1">
+        <v>4</v>
+      </c>
+      <c r="W562" s="1">
+        <v>4</v>
+      </c>
+      <c r="X562" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y562" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z562" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA562" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB562" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC562" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD562" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE562" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF562" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG562" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH562" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ562" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A563" s="2">
+        <v>45227.881465474537</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D563" s="1">
+        <v>20226425</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F563" s="3">
+        <v>0.87916666666569654</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H563" s="1">
+        <v>1</v>
+      </c>
+      <c r="I563" s="1">
+        <v>5</v>
+      </c>
+      <c r="J563" s="1">
+        <v>6</v>
+      </c>
+      <c r="K563" s="1">
+        <v>6</v>
+      </c>
+      <c r="L563" s="1">
+        <v>4</v>
+      </c>
+      <c r="M563" s="1">
+        <v>1</v>
+      </c>
+      <c r="N563" s="1">
+        <v>6</v>
+      </c>
+      <c r="O563" s="1">
+        <v>4</v>
+      </c>
+      <c r="P563" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q563" s="1">
+        <v>1</v>
+      </c>
+      <c r="R563" s="1">
+        <v>6</v>
+      </c>
+      <c r="S563" s="1">
+        <v>6</v>
+      </c>
+      <c r="T563" s="1">
+        <v>1</v>
+      </c>
+      <c r="U563" s="1">
+        <v>4</v>
+      </c>
+      <c r="V563" s="1">
+        <v>6</v>
+      </c>
+      <c r="W563" s="1">
+        <v>6</v>
+      </c>
+      <c r="X563" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y563" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z563" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA563" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB563" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC563" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD563" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE563" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF563" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG563" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH563" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ563" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A564" s="2">
+        <v>45227.896697789351</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D564" s="1">
+        <v>20236617</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F564" s="3">
+        <v>0.89583333333575865</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK564" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL564" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM564" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN564" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO564" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP564" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ564" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR564" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS564" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT564" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU564" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV564" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW564" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX564" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY564" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ564" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA564" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB564" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC564" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD564" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE564" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF564" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG564" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH564" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI564" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ564" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK564" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL564" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM564" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A565" s="2">
+        <v>45227.898448611115</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D565" s="1">
+        <v>20231217</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F565" s="3">
+        <v>0.89652777777519077</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H565" s="1">
+        <v>2</v>
+      </c>
+      <c r="I565" s="1">
+        <v>5</v>
+      </c>
+      <c r="J565" s="1">
+        <v>5</v>
+      </c>
+      <c r="K565" s="1">
+        <v>3</v>
+      </c>
+      <c r="L565" s="1">
+        <v>2</v>
+      </c>
+      <c r="M565" s="1">
+        <v>3</v>
+      </c>
+      <c r="N565" s="1">
+        <v>5</v>
+      </c>
+      <c r="O565" s="1">
+        <v>3</v>
+      </c>
+      <c r="P565" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q565" s="1">
+        <v>1</v>
+      </c>
+      <c r="R565" s="1">
+        <v>5</v>
+      </c>
+      <c r="S565" s="1">
+        <v>5</v>
+      </c>
+      <c r="T565" s="1">
+        <v>2</v>
+      </c>
+      <c r="U565" s="1">
+        <v>3</v>
+      </c>
+      <c r="V565" s="1">
+        <v>5</v>
+      </c>
+      <c r="W565" s="1">
+        <v>5</v>
+      </c>
+      <c r="X565" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y565" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z565" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA565" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB565" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC565" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD565" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE565" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF565" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG565" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH565" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ565" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A566" s="2">
+        <v>45227.905593495372</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D566" s="1">
+        <v>20233814</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F566" s="3">
+        <v>0.90208333333430346</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK566" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL566" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM566" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN566" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO566" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP566" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ566" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR566" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS566" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT566" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU566" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV566" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW566" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX566" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY566" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ566" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA566" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB566" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC566" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD566" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE566" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF566" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG566" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH566" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI566" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ566" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK566" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL566" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM566" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A567" s="2">
+        <v>45227.907414490735</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D567" s="1">
+        <v>20193934</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F567" s="3">
+        <v>0.90416666666715173</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H567" s="1">
+        <v>3</v>
+      </c>
+      <c r="I567" s="1">
+        <v>2</v>
+      </c>
+      <c r="J567" s="1">
+        <v>4</v>
+      </c>
+      <c r="K567" s="1">
+        <v>3</v>
+      </c>
+      <c r="L567" s="1">
+        <v>2</v>
+      </c>
+      <c r="M567" s="1">
+        <v>3</v>
+      </c>
+      <c r="N567" s="1">
+        <v>3</v>
+      </c>
+      <c r="O567" s="1">
+        <v>4</v>
+      </c>
+      <c r="P567" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q567" s="1">
+        <v>3</v>
+      </c>
+      <c r="R567" s="1">
+        <v>4</v>
+      </c>
+      <c r="S567" s="1">
+        <v>4</v>
+      </c>
+      <c r="T567" s="1">
+        <v>1</v>
+      </c>
+      <c r="U567" s="1">
+        <v>3</v>
+      </c>
+      <c r="V567" s="1">
+        <v>4</v>
+      </c>
+      <c r="W567" s="1">
+        <v>3</v>
+      </c>
+      <c r="X567" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y567" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z567" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA567" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB567" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC567" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD567" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE567" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF567" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG567" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH567" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI567" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ567" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A568" s="2">
+        <v>45227.91191012731</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D568" s="1">
+        <v>20231213</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F568" s="3">
+        <v>0.90972222221898846</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK568" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL568" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM568" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN568" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO568" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP568" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ568" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR568" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS568" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT568" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU568" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV568" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW568" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX568" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY568" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ568" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA568" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB568" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC568" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD568" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE568" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF568" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG568" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH568" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI568" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ568" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK568" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL568" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM568" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A569" s="2">
+        <v>45227.918227326387</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D569" s="1">
+        <v>20202355</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F569" s="3">
+        <v>0.91527777777810115</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK569" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL569" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM569" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN569" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO569" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP569" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ569" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR569" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS569" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT569" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU569" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV569" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW569" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX569" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY569" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ569" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA569" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB569" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC569" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD569" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE569" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF569" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG569" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH569" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI569" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ569" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK569" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL569" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM569" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A570" s="2">
+        <v>45227.92501324074</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D570" s="1">
+        <v>20236429</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F570" s="3">
+        <v>0.91458333333139308</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW570" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX570" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY570" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ570" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA570" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB570" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC570" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD570" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE570" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF570" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG570" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH570" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI570" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ570" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK570" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL570" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM570" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A571" s="2">
+        <v>45227.925029143516</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D571" s="1">
+        <v>20226429</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F571" s="3">
+        <v>0.92361111110949423</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO571" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT571" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX571" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY571" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ571" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA571" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB571" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC571" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD571" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE571" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF571" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG571" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH571" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI571" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ571" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK571" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL571" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM571" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A572" s="2">
+        <v>45227.933649120372</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D572" s="1">
+        <v>20202331</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F572" s="3">
+        <v>0.93194444444088731</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK572" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL572" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM572" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN572" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO572" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP572" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ572" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR572" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS572" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT572" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU572" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV572" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW572" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX572" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY572" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ572" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA572" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB572" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC572" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD572" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE572" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF572" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG572" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH572" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI572" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ572" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK572" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL572" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM572" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A573" s="2">
+        <v>45227.953089780094</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D573" s="1">
+        <v>20231209</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F573" s="3">
+        <v>0.95138888889050577</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK573" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL573" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM573" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN573" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO573" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP573" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ573" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR573" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS573" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT573" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU573" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV573" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW573" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX573" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY573" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ573" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA573" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB573" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC573" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD573" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE573" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF573" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG573" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH573" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI573" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ573" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK573" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL573" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM573" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/oxford_231016.xlsx
+++ b/R/data/oxford_231016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370706BA-6FC8-0847-8394-4F90C88A8A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251EB47B-9D1F-B747-9300-48B538DE051C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="500" windowWidth="38500" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="1425">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3905,6 +3905,396 @@
   </si>
   <si>
     <t>김정서</t>
+  </si>
+  <si>
+    <t>u01022994088@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어융합학과</t>
+  </si>
+  <si>
+    <t>구광모</t>
+  </si>
+  <si>
+    <t>tjr5457@naver.com</t>
+  </si>
+  <si>
+    <t>정현석</t>
+  </si>
+  <si>
+    <t>kimeunjin829@naver.com</t>
+  </si>
+  <si>
+    <t>김은진</t>
+  </si>
+  <si>
+    <t>xhaexeon@naver.com</t>
+  </si>
+  <si>
+    <t>김채연</t>
+  </si>
+  <si>
+    <t>kwakyeeun624@naver.com</t>
+  </si>
+  <si>
+    <t>곽예은</t>
+  </si>
+  <si>
+    <t>goldmoon1217@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 - 콘텐츠IT전공(학과)</t>
+  </si>
+  <si>
+    <t>정진영</t>
+  </si>
+  <si>
+    <t>dlstn3085@naver.com</t>
+  </si>
+  <si>
+    <t>한인수</t>
+  </si>
+  <si>
+    <t>impact0219@naver.com</t>
+  </si>
+  <si>
+    <t>김서언</t>
+  </si>
+  <si>
+    <t>plzmxn@naver.com</t>
+  </si>
+  <si>
+    <t>현상희</t>
+  </si>
+  <si>
+    <t>codmsrjf@naver.com</t>
+  </si>
+  <si>
+    <t>정채은</t>
+  </si>
+  <si>
+    <t>urica45642@gmail.com</t>
+  </si>
+  <si>
+    <t>유시현</t>
+  </si>
+  <si>
+    <t>ehdus040127@naver.com</t>
+  </si>
+  <si>
+    <t>00kimdayeon@naver.com</t>
+  </si>
+  <si>
+    <t>김다연</t>
+  </si>
+  <si>
+    <t>h01072223723@gmail.com</t>
+  </si>
+  <si>
+    <t>최정헌</t>
+  </si>
+  <si>
+    <t>tlaaldhktlaa@naver.com</t>
+  </si>
+  <si>
+    <t>박심미</t>
+  </si>
+  <si>
+    <t>leegijae040209@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤</t>
+  </si>
+  <si>
+    <t>parkjiune@naver.com</t>
+  </si>
+  <si>
+    <t>yeonjoon9900@gmail.com</t>
+  </si>
+  <si>
+    <t>이연준</t>
+  </si>
+  <si>
+    <t>gahyun030405@gmail.com</t>
+  </si>
+  <si>
+    <t>윤가현</t>
+  </si>
+  <si>
+    <t>coolsw98@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부 정보법과학전공</t>
+  </si>
+  <si>
+    <t>sc4153349@gmail.com</t>
+  </si>
+  <si>
+    <t>차승윤</t>
+  </si>
+  <si>
+    <t>hakyung060411@naver.com</t>
+  </si>
+  <si>
+    <t>박하경</t>
+  </si>
+  <si>
+    <t>limhyuksang@naver.com</t>
+  </si>
+  <si>
+    <t>임혁상</t>
+  </si>
+  <si>
+    <t>smiledjwj@naver.com</t>
+  </si>
+  <si>
+    <t>김지우</t>
+  </si>
+  <si>
+    <t>limjm1617@gmail.com</t>
+  </si>
+  <si>
+    <t>임진서</t>
+  </si>
+  <si>
+    <t>jsk8070@naver.com</t>
+  </si>
+  <si>
+    <t>김세아</t>
+  </si>
+  <si>
+    <t>yunbi0405@naver.com</t>
+  </si>
+  <si>
+    <t>최윤비</t>
+  </si>
+  <si>
+    <t>emily_2003@naver.com</t>
+  </si>
+  <si>
+    <t>천예령</t>
+  </si>
+  <si>
+    <t>ryuthgud@navee.com</t>
+  </si>
+  <si>
+    <t>류소형</t>
+  </si>
+  <si>
+    <t>chaeseungwoo99@gmail.com</t>
+  </si>
+  <si>
+    <t>식품영양</t>
+  </si>
+  <si>
+    <t>채승우</t>
+  </si>
+  <si>
+    <t>lin031215@naver.com</t>
+  </si>
+  <si>
+    <t>cje03112@naver.com</t>
+  </si>
+  <si>
+    <t>최민석</t>
+  </si>
+  <si>
+    <t>wnruddms@naver.com</t>
+  </si>
+  <si>
+    <t>주경은</t>
+  </si>
+  <si>
+    <t>02c06c@naver.com</t>
+  </si>
+  <si>
+    <t>김채현</t>
+  </si>
+  <si>
+    <t>dlwjdgh0808@naver.com</t>
+  </si>
+  <si>
+    <t>이정호</t>
+  </si>
+  <si>
+    <t>milovany03@gmail.com</t>
+  </si>
+  <si>
+    <t>박진옥</t>
+  </si>
+  <si>
+    <t>limsoowan@naver.com</t>
+  </si>
+  <si>
+    <t>임수완</t>
+  </si>
+  <si>
+    <t>chs1886@naver.com</t>
+  </si>
+  <si>
+    <t>최현승</t>
+  </si>
+  <si>
+    <t>seoseo2276@naver.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>suani3176@gmail.com</t>
+  </si>
+  <si>
+    <t>박수안</t>
+  </si>
+  <si>
+    <t>jonahkim4415@gmail.com</t>
+  </si>
+  <si>
+    <t>김요나</t>
+  </si>
+  <si>
+    <t>1004soeun@naver.com</t>
+  </si>
+  <si>
+    <t>김소은</t>
+  </si>
+  <si>
+    <t>ans1929@gmail.com</t>
+  </si>
+  <si>
+    <t>조유진</t>
+  </si>
+  <si>
+    <t>dbwjdrms21@naver.com</t>
+  </si>
+  <si>
+    <t>유정근</t>
+  </si>
+  <si>
+    <t>dennis121691@gmail.com</t>
+  </si>
+  <si>
+    <t>서동욱</t>
+  </si>
+  <si>
+    <t>junwon5424@naver.com</t>
+  </si>
+  <si>
+    <t>김준원</t>
+  </si>
+  <si>
+    <t>sdw0820@gmail.com</t>
+  </si>
+  <si>
+    <t>성동휘</t>
+  </si>
+  <si>
+    <t>20162715@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김현욱</t>
+  </si>
+  <si>
+    <t>kimyebin0628@naver.com</t>
+  </si>
+  <si>
+    <t>김예빈</t>
+  </si>
+  <si>
+    <t>duswn8911@naver.com</t>
+  </si>
+  <si>
+    <t>김연주</t>
+  </si>
+  <si>
+    <t>psm4155@gmail.com</t>
+  </si>
+  <si>
+    <t>박진주</t>
+  </si>
+  <si>
+    <t>skaguddl92@naver.com</t>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+  </si>
+  <si>
+    <t>김남형</t>
+  </si>
+  <si>
+    <t>luv312750@gmail.com</t>
+  </si>
+  <si>
+    <t>임아리</t>
+  </si>
+  <si>
+    <t>kbk0880@naver.com</t>
+  </si>
+  <si>
+    <t>사학과</t>
+  </si>
+  <si>
+    <t>강병철</t>
+  </si>
+  <si>
+    <t>unsc2438@gmail.com</t>
+  </si>
+  <si>
+    <t>최찬환</t>
+  </si>
+  <si>
+    <t>qwerty052799@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학</t>
+  </si>
+  <si>
+    <t>박성현</t>
+  </si>
+  <si>
+    <t>jjyyjj5463@gmail.com</t>
+  </si>
+  <si>
+    <t>정예진</t>
+  </si>
+  <si>
+    <t>leah0820@naver.com</t>
+  </si>
+  <si>
+    <t>심채린</t>
+  </si>
+  <si>
+    <t>dlwlgy0001@naver.com</t>
+  </si>
+  <si>
+    <t>이지효</t>
+  </si>
+  <si>
+    <t>clara9398@naver.com</t>
+  </si>
+  <si>
+    <t>양은지</t>
+  </si>
+  <si>
+    <t>zmcnvb@naver.com</t>
+  </si>
+  <si>
+    <t>dndbql123@naver.com</t>
+  </si>
+  <si>
+    <t>전유비</t>
+  </si>
+  <si>
+    <t>kangsamy2@gmail.com</t>
+  </si>
+  <si>
+    <t>강새미</t>
+  </si>
+  <si>
+    <t>giovanni1199@naver.com</t>
+  </si>
+  <si>
+    <t>신재현</t>
   </si>
 </sst>
 </file>
@@ -4179,11 +4569,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM573"/>
+  <dimension ref="A1:BM637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F581" sqref="F581"/>
+      <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E644" sqref="E644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -67146,6 +67536,7046 @@
         <v>1</v>
       </c>
     </row>
+    <row r="574" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A574" s="2">
+        <v>45227.96116903935</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D574" s="1">
+        <v>20225111</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F574" s="3">
+        <v>0.95416666666278616</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK574" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL574" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM574" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN574" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO574" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP574" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ574" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR574" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS574" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT574" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU574" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV574" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW574" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX574" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY574" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ574" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA574" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB574" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC574" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD574" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE574" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF574" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG574" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH574" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI574" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ574" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK574" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL574" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM574" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A575" s="2">
+        <v>45227.964459664348</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D575" s="1">
+        <v>20193344</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F575" s="3">
+        <v>0.96180555555474712</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK575" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL575" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM575" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN575" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO575" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP575" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ575" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR575" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS575" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT575" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU575" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV575" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW575" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX575" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY575" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ575" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA575" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB575" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC575" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD575" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE575" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF575" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG575" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH575" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI575" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ575" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK575" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL575" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM575" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A576" s="2">
+        <v>45227.971578009259</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D576" s="1">
+        <v>20202321</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F576" s="3">
+        <v>0.96944444444670808</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK576" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL576" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM576" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN576" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO576" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP576" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ576" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR576" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS576" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT576" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU576" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV576" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW576" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX576" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY576" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ576" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA576" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB576" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC576" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD576" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE576" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF576" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG576" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH576" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI576" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ576" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK576" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL576" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM576" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A577" s="2">
+        <v>45227.971792893513</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D577" s="1">
+        <v>20212210</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F577" s="3">
+        <v>0.96944444444670808</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H577" s="1">
+        <v>2</v>
+      </c>
+      <c r="I577" s="1">
+        <v>3</v>
+      </c>
+      <c r="J577" s="1">
+        <v>4</v>
+      </c>
+      <c r="K577" s="1">
+        <v>3</v>
+      </c>
+      <c r="L577" s="1">
+        <v>2</v>
+      </c>
+      <c r="M577" s="1">
+        <v>2</v>
+      </c>
+      <c r="N577" s="1">
+        <v>4</v>
+      </c>
+      <c r="O577" s="1">
+        <v>3</v>
+      </c>
+      <c r="P577" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q577" s="1">
+        <v>5</v>
+      </c>
+      <c r="R577" s="1">
+        <v>5</v>
+      </c>
+      <c r="S577" s="1">
+        <v>4</v>
+      </c>
+      <c r="T577" s="1">
+        <v>2</v>
+      </c>
+      <c r="U577" s="1">
+        <v>2</v>
+      </c>
+      <c r="V577" s="1">
+        <v>4</v>
+      </c>
+      <c r="W577" s="1">
+        <v>4</v>
+      </c>
+      <c r="X577" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y577" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z577" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA577" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB577" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC577" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD577" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE577" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF577" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG577" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH577" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI577" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ577" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A578" s="2">
+        <v>45227.972919224536</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D578" s="1">
+        <v>20236204</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F578" s="3">
+        <v>0.97222222221898846</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H578" s="1">
+        <v>3</v>
+      </c>
+      <c r="I578" s="1">
+        <v>3</v>
+      </c>
+      <c r="J578" s="1">
+        <v>2</v>
+      </c>
+      <c r="K578" s="1">
+        <v>2</v>
+      </c>
+      <c r="L578" s="1">
+        <v>2</v>
+      </c>
+      <c r="M578" s="1">
+        <v>4</v>
+      </c>
+      <c r="N578" s="1">
+        <v>3</v>
+      </c>
+      <c r="O578" s="1">
+        <v>2</v>
+      </c>
+      <c r="P578" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q578" s="1">
+        <v>3</v>
+      </c>
+      <c r="R578" s="1">
+        <v>3</v>
+      </c>
+      <c r="S578" s="1">
+        <v>2</v>
+      </c>
+      <c r="T578" s="1">
+        <v>4</v>
+      </c>
+      <c r="U578" s="1">
+        <v>4</v>
+      </c>
+      <c r="V578" s="1">
+        <v>3</v>
+      </c>
+      <c r="W578" s="1">
+        <v>4</v>
+      </c>
+      <c r="X578" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y578" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z578" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA578" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB578" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC578" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD578" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE578" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF578" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG578" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH578" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI578" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ578" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A579" s="2">
+        <v>45227.974623472226</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D579" s="1">
+        <v>20205252</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F579" s="3">
+        <v>0.96527777778101154</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK579" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL579" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM579" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN579" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO579" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP579" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ579" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR579" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS579" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT579" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU579" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV579" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW579" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX579" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY579" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ579" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA579" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB579" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC579" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD579" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE579" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF579" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG579" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH579" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI579" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ579" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK579" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL579" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM579" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A580" s="2">
+        <v>45227.979648807872</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D580" s="1">
+        <v>20192145</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F580" s="3">
+        <v>0.97916666666424135</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK580" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL580" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM580" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN580" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO580" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP580" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ580" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR580" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS580" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT580" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU580" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV580" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW580" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX580" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY580" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ580" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA580" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB580" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC580" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD580" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE580" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF580" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG580" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH580" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI580" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ580" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK580" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL580" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM580" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A581" s="2">
+        <v>45227.985517106485</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D581" s="1">
+        <v>20236218</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F581" s="3">
+        <v>0.97708333333139308</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK581" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL581" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM581" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN581" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO581" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP581" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ581" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR581" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS581" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT581" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU581" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV581" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW581" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX581" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY581" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ581" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA581" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB581" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC581" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD581" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE581" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF581" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG581" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH581" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI581" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ581" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK581" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL581" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM581" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A582" s="2">
+        <v>45227.986576504627</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D582" s="1">
+        <v>20232642</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F582" s="3">
+        <v>0.98611111110949423</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK582" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL582" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM582" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN582" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO582" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP582" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ582" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR582" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS582" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT582" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU582" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV582" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW582" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX582" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY582" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ582" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA582" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB582" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC582" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD582" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE582" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF582" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG582" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH582" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI582" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ582" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK582" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL582" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM582" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A583" s="2">
+        <v>45227.993120439816</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D583" s="1">
+        <v>20205253</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F583" s="3">
+        <v>0.98611111110949423</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK583" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL583" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM583" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN583" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO583" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP583" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ583" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR583" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS583" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT583" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU583" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV583" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW583" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX583" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY583" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ583" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA583" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB583" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC583" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD583" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE583" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF583" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG583" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH583" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI583" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ583" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK583" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL583" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM583" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A584" s="2">
+        <v>45228.040345243055</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D584" s="1">
+        <v>20235215</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F584" s="3">
+        <v>0.53472222221898846</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H584" s="1">
+        <v>2</v>
+      </c>
+      <c r="I584" s="1">
+        <v>4</v>
+      </c>
+      <c r="J584" s="1">
+        <v>4</v>
+      </c>
+      <c r="K584" s="1">
+        <v>3</v>
+      </c>
+      <c r="L584" s="1">
+        <v>2</v>
+      </c>
+      <c r="M584" s="1">
+        <v>2</v>
+      </c>
+      <c r="N584" s="1">
+        <v>4</v>
+      </c>
+      <c r="O584" s="1">
+        <v>5</v>
+      </c>
+      <c r="P584" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q584" s="1">
+        <v>3</v>
+      </c>
+      <c r="R584" s="1">
+        <v>5</v>
+      </c>
+      <c r="S584" s="1">
+        <v>4</v>
+      </c>
+      <c r="T584" s="1">
+        <v>3</v>
+      </c>
+      <c r="U584" s="1">
+        <v>2</v>
+      </c>
+      <c r="V584" s="1">
+        <v>3</v>
+      </c>
+      <c r="W584" s="1">
+        <v>6</v>
+      </c>
+      <c r="X584" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y584" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z584" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA584" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB584" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC584" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD584" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE584" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF584" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG584" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH584" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ584" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A585" s="2">
+        <v>45228.044643229165</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D585" s="1">
+        <v>20232307</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F585" s="3">
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK585" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL585" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM585" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN585" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO585" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP585" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ585" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR585" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS585" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT585" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU585" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV585" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW585" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX585" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY585" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ585" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA585" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB585" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC585" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD585" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE585" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF585" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG585" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH585" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI585" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ585" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK585" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL585" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM585" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A586" s="2">
+        <v>45228.04499844907</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D586" s="1">
+        <v>20192818</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F586" s="3">
+        <v>4.2361111110949423E-2</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK586" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL586" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM586" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN586" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO586" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP586" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ586" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR586" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS586" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT586" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU586" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV586" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW586" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX586" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY586" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ586" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA586" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB586" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC586" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD586" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE586" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF586" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG586" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH586" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI586" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ586" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK586" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL586" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM586" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A587" s="2">
+        <v>45228.078299907407</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D587" s="1">
+        <v>20235271</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F587" s="3">
+        <v>7.6388888890505768E-2</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H587" s="1">
+        <v>2</v>
+      </c>
+      <c r="I587" s="1">
+        <v>5</v>
+      </c>
+      <c r="J587" s="1">
+        <v>4</v>
+      </c>
+      <c r="K587" s="1">
+        <v>3</v>
+      </c>
+      <c r="L587" s="1">
+        <v>3</v>
+      </c>
+      <c r="M587" s="1">
+        <v>2</v>
+      </c>
+      <c r="N587" s="1">
+        <v>4</v>
+      </c>
+      <c r="O587" s="1">
+        <v>3</v>
+      </c>
+      <c r="P587" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q587" s="1">
+        <v>2</v>
+      </c>
+      <c r="R587" s="1">
+        <v>3</v>
+      </c>
+      <c r="S587" s="1">
+        <v>4</v>
+      </c>
+      <c r="T587" s="1">
+        <v>4</v>
+      </c>
+      <c r="U587" s="1">
+        <v>5</v>
+      </c>
+      <c r="V587" s="1">
+        <v>5</v>
+      </c>
+      <c r="W587" s="1">
+        <v>5</v>
+      </c>
+      <c r="X587" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y587" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z587" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA587" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB587" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC587" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD587" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE587" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF587" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG587" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH587" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI587" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ587" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A588" s="2">
+        <v>45228.078820787036</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D588" s="1">
+        <v>20217069</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F588" s="3">
+        <v>7.6388888890505768E-2</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK588" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL588" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY588" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ588" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA588" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB588" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC588" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD588" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE588" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF588" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG588" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH588" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI588" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ588" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK588" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL588" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM588" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A589" s="2">
+        <v>45228.125247627315</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D589" s="1">
+        <v>20236761</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F589" s="3">
+        <v>0.11875000000145519</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK589" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL589" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM589" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN589" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO589" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP589" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ589" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR589" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS589" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT589" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU589" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV589" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW589" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX589" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY589" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ589" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA589" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB589" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC589" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD589" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE589" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF589" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG589" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH589" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI589" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ589" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK589" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL589" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM589" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A590" s="2">
+        <v>45228.149307060186</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D590" s="1">
+        <v>20232961</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F590" s="3">
+        <v>0.14652777777519077</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H590" s="1">
+        <v>6</v>
+      </c>
+      <c r="I590" s="1">
+        <v>4</v>
+      </c>
+      <c r="J590" s="1">
+        <v>3</v>
+      </c>
+      <c r="K590" s="1">
+        <v>3</v>
+      </c>
+      <c r="L590" s="1">
+        <v>5</v>
+      </c>
+      <c r="M590" s="1">
+        <v>5</v>
+      </c>
+      <c r="N590" s="1">
+        <v>3</v>
+      </c>
+      <c r="O590" s="1">
+        <v>2</v>
+      </c>
+      <c r="P590" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q590" s="1">
+        <v>6</v>
+      </c>
+      <c r="R590" s="1">
+        <v>5</v>
+      </c>
+      <c r="S590" s="1">
+        <v>3</v>
+      </c>
+      <c r="T590" s="1">
+        <v>5</v>
+      </c>
+      <c r="U590" s="1">
+        <v>5</v>
+      </c>
+      <c r="V590" s="1">
+        <v>4</v>
+      </c>
+      <c r="W590" s="1">
+        <v>5</v>
+      </c>
+      <c r="X590" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y590" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z590" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA590" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB590" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC590" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD590" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE590" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF590" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG590" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH590" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI590" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ590" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A591" s="2">
+        <v>45228.156811967594</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D591" s="1">
+        <v>20236275</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F591" s="3">
+        <v>0.15555555555329192</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK591" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL591" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM591" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN591" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO591" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP591" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ591" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR591" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS591" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT591" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU591" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV591" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW591" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX591" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY591" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ591" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA591" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB591" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC591" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD591" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE591" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF591" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG591" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH591" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI591" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ591" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK591" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL591" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM591" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A592" s="2">
+        <v>45228.18487125</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D592" s="1">
+        <v>20236419</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F592" s="3">
+        <v>0.18125000000145519</v>
+      </c>
+      <c r="G592" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK592" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL592" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM592" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN592" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO592" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP592" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ592" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR592" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS592" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT592" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU592" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV592" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW592" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX592" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY592" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ592" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA592" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB592" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC592" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD592" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE592" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF592" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG592" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH592" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI592" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ592" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK592" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL592" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM592" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A593" s="2">
+        <v>45228.188843692129</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D593" s="1">
+        <v>20206410</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F593" s="3">
+        <v>0.18472222222044365</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK593" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL593" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM593" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN593" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO593" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP593" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ593" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR593" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS593" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT593" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU593" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV593" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW593" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX593" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY593" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ593" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA593" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB593" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC593" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD593" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE593" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF593" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG593" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH593" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI593" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ593" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK593" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL593" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM593" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A594" s="2">
+        <v>45228.204528194445</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D594" s="1">
+        <v>20232138</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F594" s="3">
+        <v>0.20277777777664596</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H594" s="1">
+        <v>1</v>
+      </c>
+      <c r="I594" s="1">
+        <v>4</v>
+      </c>
+      <c r="J594" s="1">
+        <v>6</v>
+      </c>
+      <c r="K594" s="1">
+        <v>3</v>
+      </c>
+      <c r="L594" s="1">
+        <v>2</v>
+      </c>
+      <c r="M594" s="1">
+        <v>2</v>
+      </c>
+      <c r="N594" s="1">
+        <v>4</v>
+      </c>
+      <c r="O594" s="1">
+        <v>5</v>
+      </c>
+      <c r="P594" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q594" s="1">
+        <v>4</v>
+      </c>
+      <c r="R594" s="1">
+        <v>5</v>
+      </c>
+      <c r="S594" s="1">
+        <v>4</v>
+      </c>
+      <c r="T594" s="1">
+        <v>1</v>
+      </c>
+      <c r="U594" s="1">
+        <v>1</v>
+      </c>
+      <c r="V594" s="1">
+        <v>4</v>
+      </c>
+      <c r="W594" s="1">
+        <v>4</v>
+      </c>
+      <c r="X594" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y594" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z594" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA594" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB594" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC594" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD594" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE594" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF594" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG594" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH594" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI594" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ594" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A595" s="2">
+        <v>45228.363941354168</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D595" s="1">
+        <v>20233929</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F595" s="3">
+        <v>0.36180555555620231</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H595" s="1">
+        <v>1</v>
+      </c>
+      <c r="I595" s="1">
+        <v>5</v>
+      </c>
+      <c r="J595" s="1">
+        <v>5</v>
+      </c>
+      <c r="K595" s="1">
+        <v>4</v>
+      </c>
+      <c r="L595" s="1">
+        <v>2</v>
+      </c>
+      <c r="M595" s="1">
+        <v>3</v>
+      </c>
+      <c r="N595" s="1">
+        <v>4</v>
+      </c>
+      <c r="O595" s="1">
+        <v>4</v>
+      </c>
+      <c r="P595" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q595" s="1">
+        <v>2</v>
+      </c>
+      <c r="R595" s="1">
+        <v>5</v>
+      </c>
+      <c r="S595" s="1">
+        <v>4</v>
+      </c>
+      <c r="T595" s="1">
+        <v>2</v>
+      </c>
+      <c r="U595" s="1">
+        <v>4</v>
+      </c>
+      <c r="V595" s="1">
+        <v>6</v>
+      </c>
+      <c r="W595" s="1">
+        <v>3</v>
+      </c>
+      <c r="X595" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y595" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z595" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA595" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB595" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC595" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD595" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE595" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF595" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG595" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH595" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI595" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ595" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A596" s="2">
+        <v>45228.367438333335</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D596" s="1">
+        <v>20222429</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F596" s="3">
+        <v>0.36527777777519077</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H596" s="1">
+        <v>2</v>
+      </c>
+      <c r="I596" s="1">
+        <v>3</v>
+      </c>
+      <c r="J596" s="1">
+        <v>4</v>
+      </c>
+      <c r="K596" s="1">
+        <v>5</v>
+      </c>
+      <c r="L596" s="1">
+        <v>4</v>
+      </c>
+      <c r="M596" s="1">
+        <v>2</v>
+      </c>
+      <c r="N596" s="1">
+        <v>4</v>
+      </c>
+      <c r="O596" s="1">
+        <v>4</v>
+      </c>
+      <c r="P596" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q596" s="1">
+        <v>1</v>
+      </c>
+      <c r="R596" s="1">
+        <v>4</v>
+      </c>
+      <c r="S596" s="1">
+        <v>4</v>
+      </c>
+      <c r="T596" s="1">
+        <v>2</v>
+      </c>
+      <c r="U596" s="1">
+        <v>6</v>
+      </c>
+      <c r="V596" s="1">
+        <v>5</v>
+      </c>
+      <c r="W596" s="1">
+        <v>4</v>
+      </c>
+      <c r="X596" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y596" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z596" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA596" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB596" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC596" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD596" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE596" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF596" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG596" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH596" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI596" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ596" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A597" s="2">
+        <v>45228.41003756944</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D597" s="1">
+        <v>20231511</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F597" s="3">
+        <v>0.40694444444670808</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H597" s="1">
+        <v>6</v>
+      </c>
+      <c r="I597" s="1">
+        <v>6</v>
+      </c>
+      <c r="J597" s="1">
+        <v>2</v>
+      </c>
+      <c r="K597" s="1">
+        <v>2</v>
+      </c>
+      <c r="L597" s="1">
+        <v>2</v>
+      </c>
+      <c r="M597" s="1">
+        <v>5</v>
+      </c>
+      <c r="N597" s="1">
+        <v>2</v>
+      </c>
+      <c r="O597" s="1">
+        <v>1</v>
+      </c>
+      <c r="P597" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q597" s="1">
+        <v>4</v>
+      </c>
+      <c r="R597" s="1">
+        <v>6</v>
+      </c>
+      <c r="S597" s="1">
+        <v>2</v>
+      </c>
+      <c r="T597" s="1">
+        <v>4</v>
+      </c>
+      <c r="U597" s="1">
+        <v>2</v>
+      </c>
+      <c r="V597" s="1">
+        <v>2</v>
+      </c>
+      <c r="W597" s="1">
+        <v>5</v>
+      </c>
+      <c r="X597" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y597" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z597" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA597" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB597" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC597" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD597" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE597" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF597" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG597" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH597" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI597" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ597" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A598" s="2">
+        <v>45228.425829490741</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D598" s="1">
+        <v>20236424</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F598" s="3">
+        <v>0.42291666666278616</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK598" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL598" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM598" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN598" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO598" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP598" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ598" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR598" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS598" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT598" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU598" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV598" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW598" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX598" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY598" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ598" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA598" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB598" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC598" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD598" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE598" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF598" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG598" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH598" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI598" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ598" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK598" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL598" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM598" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A599" s="2">
+        <v>45228.437470046294</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D599" s="1">
+        <v>20207064</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F599" s="3">
+        <v>0.43680555555329192</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H599" s="1">
+        <v>3</v>
+      </c>
+      <c r="I599" s="1">
+        <v>3</v>
+      </c>
+      <c r="J599" s="1">
+        <v>3</v>
+      </c>
+      <c r="K599" s="1">
+        <v>3</v>
+      </c>
+      <c r="L599" s="1">
+        <v>3</v>
+      </c>
+      <c r="M599" s="1">
+        <v>3</v>
+      </c>
+      <c r="N599" s="1">
+        <v>3</v>
+      </c>
+      <c r="O599" s="1">
+        <v>3</v>
+      </c>
+      <c r="P599" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q599" s="1">
+        <v>2</v>
+      </c>
+      <c r="R599" s="1">
+        <v>3</v>
+      </c>
+      <c r="S599" s="1">
+        <v>3</v>
+      </c>
+      <c r="T599" s="1">
+        <v>3</v>
+      </c>
+      <c r="U599" s="1">
+        <v>3</v>
+      </c>
+      <c r="V599" s="1">
+        <v>3</v>
+      </c>
+      <c r="W599" s="1">
+        <v>3</v>
+      </c>
+      <c r="X599" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y599" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z599" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA599" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB599" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC599" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD599" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE599" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF599" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG599" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH599" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI599" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ599" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A600" s="2">
+        <v>45228.463087847224</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D600" s="1">
+        <v>20195270</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F600" s="3">
+        <v>0.46180555555474712</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN600" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO600" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY600" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL600" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM600" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A601" s="2">
+        <v>45228.463318148148</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D601" s="1">
+        <v>20222432</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F601" s="3">
+        <v>0.46180555555474712</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H601" s="1">
+        <v>3</v>
+      </c>
+      <c r="I601" s="1">
+        <v>2</v>
+      </c>
+      <c r="J601" s="1">
+        <v>4</v>
+      </c>
+      <c r="K601" s="1">
+        <v>3</v>
+      </c>
+      <c r="L601" s="1">
+        <v>6</v>
+      </c>
+      <c r="M601" s="1">
+        <v>5</v>
+      </c>
+      <c r="N601" s="1">
+        <v>3</v>
+      </c>
+      <c r="O601" s="1">
+        <v>2</v>
+      </c>
+      <c r="P601" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q601" s="1">
+        <v>5</v>
+      </c>
+      <c r="R601" s="1">
+        <v>5</v>
+      </c>
+      <c r="S601" s="1">
+        <v>4</v>
+      </c>
+      <c r="T601" s="1">
+        <v>2</v>
+      </c>
+      <c r="U601" s="1">
+        <v>5</v>
+      </c>
+      <c r="V601" s="1">
+        <v>2</v>
+      </c>
+      <c r="W601" s="1">
+        <v>2</v>
+      </c>
+      <c r="X601" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y601" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z601" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA601" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB601" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC601" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD601" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE601" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF601" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG601" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH601" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI601" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ601" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A602" s="2">
+        <v>45228.469396574073</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D602" s="1">
+        <v>20232947</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F602" s="3">
+        <v>0.46527777778101154</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK602" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL602" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM602" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN602" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO602" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP602" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ602" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR602" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS602" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT602" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU602" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV602" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW602" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX602" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY602" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ602" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA602" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB602" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC602" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD602" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE602" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF602" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG602" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH602" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI602" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ602" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK602" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL602" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM602" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A603" s="2">
+        <v>45228.471009270834</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D603" s="1">
+        <v>20183845</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F603" s="3">
+        <v>0.46944444444670808</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H603" s="1">
+        <v>1</v>
+      </c>
+      <c r="I603" s="1">
+        <v>3</v>
+      </c>
+      <c r="J603" s="1">
+        <v>6</v>
+      </c>
+      <c r="K603" s="1">
+        <v>2</v>
+      </c>
+      <c r="L603" s="1">
+        <v>1</v>
+      </c>
+      <c r="M603" s="1">
+        <v>3</v>
+      </c>
+      <c r="N603" s="1">
+        <v>5</v>
+      </c>
+      <c r="O603" s="1">
+        <v>2</v>
+      </c>
+      <c r="P603" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q603" s="1">
+        <v>6</v>
+      </c>
+      <c r="R603" s="1">
+        <v>6</v>
+      </c>
+      <c r="S603" s="1">
+        <v>6</v>
+      </c>
+      <c r="T603" s="1">
+        <v>5</v>
+      </c>
+      <c r="U603" s="1">
+        <v>2</v>
+      </c>
+      <c r="V603" s="1">
+        <v>4</v>
+      </c>
+      <c r="W603" s="1">
+        <v>4</v>
+      </c>
+      <c r="X603" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y603" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z603" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA603" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB603" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC603" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD603" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE603" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF603" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG603" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH603" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI603" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ603" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A604" s="2">
+        <v>45228.473820266205</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D604" s="1">
+        <v>20222570</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F604" s="3">
+        <v>0.47291666666569654</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK604" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL604" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM604" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN604" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO604" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP604" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ604" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR604" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS604" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT604" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU604" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV604" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW604" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX604" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY604" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ604" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA604" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB604" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC604" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD604" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE604" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF604" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG604" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH604" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI604" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ604" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK604" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL604" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM604" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A605" s="2">
+        <v>45228.474518171293</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D605" s="1">
+        <v>20182580</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F605" s="3">
+        <v>0.47222222221898846</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK605" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL605" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM605" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN605" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO605" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP605" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ605" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR605" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS605" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT605" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU605" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV605" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW605" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX605" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY605" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ605" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA605" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB605" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC605" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD605" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE605" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF605" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG605" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH605" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI605" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ605" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK605" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL605" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM605" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A606" s="2">
+        <v>45228.482714930557</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D606" s="1">
+        <v>20203842</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F606" s="3">
+        <v>0.47986111111094942</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK606" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL606" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM606" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN606" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO606" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP606" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ606" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR606" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS606" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT606" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU606" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV606" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW606" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX606" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY606" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ606" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA606" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB606" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC606" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD606" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE606" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF606" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG606" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH606" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI606" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ606" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK606" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL606" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM606" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A607" s="2">
+        <v>45228.484516053242</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D607" s="1">
+        <v>20217055</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F607" s="3">
+        <v>0.48263888889050577</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK607" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL607" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM607" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN607" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO607" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP607" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ607" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR607" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS607" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT607" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU607" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV607" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW607" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX607" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY607" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ607" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA607" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB607" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC607" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD607" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE607" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF607" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG607" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH607" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI607" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ607" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK607" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL607" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM607" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A608" s="2">
+        <v>45228.484807465276</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D608" s="1">
+        <v>20201083</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F608" s="3">
+        <v>0.48333333333721384</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H608" s="1">
+        <v>2</v>
+      </c>
+      <c r="I608" s="1">
+        <v>4</v>
+      </c>
+      <c r="J608" s="1">
+        <v>5</v>
+      </c>
+      <c r="K608" s="1">
+        <v>5</v>
+      </c>
+      <c r="L608" s="1">
+        <v>2</v>
+      </c>
+      <c r="M608" s="1">
+        <v>2</v>
+      </c>
+      <c r="N608" s="1">
+        <v>4</v>
+      </c>
+      <c r="O608" s="1">
+        <v>4</v>
+      </c>
+      <c r="P608" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q608" s="1">
+        <v>3</v>
+      </c>
+      <c r="R608" s="1">
+        <v>4</v>
+      </c>
+      <c r="S608" s="1">
+        <v>5</v>
+      </c>
+      <c r="T608" s="1">
+        <v>1</v>
+      </c>
+      <c r="U608" s="1">
+        <v>3</v>
+      </c>
+      <c r="V608" s="1">
+        <v>4</v>
+      </c>
+      <c r="W608" s="1">
+        <v>5</v>
+      </c>
+      <c r="X608" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y608" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z608" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA608" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB608" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC608" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD608" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE608" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF608" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG608" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH608" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI608" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ608" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A609" s="2">
+        <v>45228.486185358794</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D609" s="1">
+        <v>20202223</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F609" s="3">
+        <v>0.47916666666424135</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK609" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL609" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM609" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN609" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO609" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP609" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ609" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR609" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS609" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT609" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU609" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV609" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW609" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX609" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY609" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ609" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA609" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB609" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC609" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD609" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE609" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF609" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG609" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH609" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI609" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ609" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK609" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL609" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM609" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A610" s="2">
+        <v>45228.48698548611</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D610" s="1">
+        <v>20224138</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F610" s="3">
+        <v>0.45833333333575865</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM610" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY610" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL610" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM610" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A611" s="2">
+        <v>45228.492250081021</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D611" s="1">
+        <v>20193009</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F611" s="3">
+        <v>0.48888888888905058</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H611" s="1">
+        <v>2</v>
+      </c>
+      <c r="I611" s="1">
+        <v>4</v>
+      </c>
+      <c r="J611" s="1">
+        <v>5</v>
+      </c>
+      <c r="K611" s="1">
+        <v>5</v>
+      </c>
+      <c r="L611" s="1">
+        <v>2</v>
+      </c>
+      <c r="M611" s="1">
+        <v>2</v>
+      </c>
+      <c r="N611" s="1">
+        <v>4</v>
+      </c>
+      <c r="O611" s="1">
+        <v>3</v>
+      </c>
+      <c r="P611" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q611" s="1">
+        <v>3</v>
+      </c>
+      <c r="R611" s="1">
+        <v>4</v>
+      </c>
+      <c r="S611" s="1">
+        <v>4</v>
+      </c>
+      <c r="T611" s="1">
+        <v>3</v>
+      </c>
+      <c r="U611" s="1">
+        <v>3</v>
+      </c>
+      <c r="V611" s="1">
+        <v>5</v>
+      </c>
+      <c r="W611" s="1">
+        <v>5</v>
+      </c>
+      <c r="X611" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y611" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z611" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA611" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB611" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC611" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD611" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE611" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF611" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG611" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH611" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI611" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ611" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A612" s="2">
+        <v>45228.492862928237</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D612" s="1">
+        <v>20233044</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F612" s="3">
+        <v>0.49097222222189885</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK612" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL612" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM612" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN612" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO612" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP612" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ612" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR612" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS612" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT612" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU612" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV612" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW612" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX612" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY612" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ612" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA612" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB612" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC612" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD612" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE612" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF612" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG612" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH612" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI612" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ612" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK612" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL612" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM612" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A613" s="2">
+        <v>45228.49561471065</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D613" s="1">
+        <v>20232328</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F613" s="3">
+        <v>0.49444444444088731</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY613" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL613" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM613" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A614" s="2">
+        <v>45228.499303078701</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D614" s="1">
+        <v>20223409</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F614" s="3">
+        <v>0.49722222222044365</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK614" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL614" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM614" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN614" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO614" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP614" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ614" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR614" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS614" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT614" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU614" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV614" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW614" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX614" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY614" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ614" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA614" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB614" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC614" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD614" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE614" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF614" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG614" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH614" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI614" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ614" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK614" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL614" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM614" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A615" s="2">
+        <v>45228.508106157409</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D615" s="1">
+        <v>20232514</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F615" s="3">
+        <v>0.50277777777955635</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK615" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL615" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM615" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN615" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO615" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP615" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ615" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR615" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS615" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT615" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU615" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV615" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW615" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX615" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY615" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ615" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA615" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB615" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC615" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD615" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE615" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF615" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG615" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH615" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI615" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ615" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK615" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL615" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM615" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A616" s="2">
+        <v>45228.523432511574</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D616" s="1">
+        <v>20202750</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F616" s="3">
+        <v>0.51597222222335404</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H616" s="1">
+        <v>4</v>
+      </c>
+      <c r="I616" s="1">
+        <v>5</v>
+      </c>
+      <c r="J616" s="1">
+        <v>3</v>
+      </c>
+      <c r="K616" s="1">
+        <v>1</v>
+      </c>
+      <c r="L616" s="1">
+        <v>2</v>
+      </c>
+      <c r="M616" s="1">
+        <v>4</v>
+      </c>
+      <c r="N616" s="1">
+        <v>3</v>
+      </c>
+      <c r="O616" s="1">
+        <v>3</v>
+      </c>
+      <c r="P616" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q616" s="1">
+        <v>5</v>
+      </c>
+      <c r="R616" s="1">
+        <v>4</v>
+      </c>
+      <c r="S616" s="1">
+        <v>4</v>
+      </c>
+      <c r="T616" s="1">
+        <v>4</v>
+      </c>
+      <c r="U616" s="1">
+        <v>4</v>
+      </c>
+      <c r="V616" s="1">
+        <v>3</v>
+      </c>
+      <c r="W616" s="1">
+        <v>3</v>
+      </c>
+      <c r="X616" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y616" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z616" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA616" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB616" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC616" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD616" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE616" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF616" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG616" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH616" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI616" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ616" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A617" s="2">
+        <v>45228.523644710644</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D617" s="1">
+        <v>20183829</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F617" s="3">
+        <v>2.1527777775190771E-2</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK617" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL617" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM617" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN617" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO617" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP617" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ617" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR617" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS617" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT617" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU617" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV617" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW617" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX617" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY617" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ617" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA617" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB617" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC617" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD617" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE617" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF617" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG617" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH617" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI617" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ617" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK617" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL617" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM617" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A618" s="2">
+        <v>45228.52454993056</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D618" s="1">
+        <v>20203224</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F618" s="3">
+        <v>0.52291666666860692</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H618" s="1">
+        <v>5</v>
+      </c>
+      <c r="I618" s="1">
+        <v>5</v>
+      </c>
+      <c r="J618" s="1">
+        <v>5</v>
+      </c>
+      <c r="K618" s="1">
+        <v>5</v>
+      </c>
+      <c r="L618" s="1">
+        <v>5</v>
+      </c>
+      <c r="M618" s="1">
+        <v>5</v>
+      </c>
+      <c r="N618" s="1">
+        <v>5</v>
+      </c>
+      <c r="O618" s="1">
+        <v>5</v>
+      </c>
+      <c r="P618" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q618" s="1">
+        <v>5</v>
+      </c>
+      <c r="R618" s="1">
+        <v>5</v>
+      </c>
+      <c r="S618" s="1">
+        <v>5</v>
+      </c>
+      <c r="T618" s="1">
+        <v>5</v>
+      </c>
+      <c r="U618" s="1">
+        <v>5</v>
+      </c>
+      <c r="V618" s="1">
+        <v>5</v>
+      </c>
+      <c r="W618" s="1">
+        <v>5</v>
+      </c>
+      <c r="X618" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y618" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z618" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA618" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB618" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC618" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD618" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE618" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF618" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG618" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH618" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI618" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ618" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A619" s="2">
+        <v>45228.533363912036</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D619" s="1">
+        <v>20226613</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F619" s="3">
+        <v>0.53194444444670808</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY619" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL619" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM619" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A620" s="2">
+        <v>45228.538788483798</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D620" s="1">
+        <v>20233819</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F620" s="3">
+        <v>0.53749999999854481</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H620" s="1">
+        <v>1</v>
+      </c>
+      <c r="I620" s="1">
+        <v>4</v>
+      </c>
+      <c r="J620" s="1">
+        <v>4</v>
+      </c>
+      <c r="K620" s="1">
+        <v>4</v>
+      </c>
+      <c r="L620" s="1">
+        <v>1</v>
+      </c>
+      <c r="M620" s="1">
+        <v>1</v>
+      </c>
+      <c r="N620" s="1">
+        <v>4</v>
+      </c>
+      <c r="O620" s="1">
+        <v>4</v>
+      </c>
+      <c r="P620" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q620" s="1">
+        <v>1</v>
+      </c>
+      <c r="R620" s="1">
+        <v>4</v>
+      </c>
+      <c r="S620" s="1">
+        <v>4</v>
+      </c>
+      <c r="T620" s="1">
+        <v>1</v>
+      </c>
+      <c r="U620" s="1">
+        <v>1</v>
+      </c>
+      <c r="V620" s="1">
+        <v>4</v>
+      </c>
+      <c r="W620" s="1">
+        <v>4</v>
+      </c>
+      <c r="X620" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y620" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z620" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA620" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB620" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC620" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD620" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE620" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF620" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG620" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH620" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI620" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ620" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A621" s="2">
+        <v>45228.539079513888</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D621" s="1">
+        <v>20162715</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F621" s="3">
+        <v>0.53749999999854481</v>
+      </c>
+      <c r="G621" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK621" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL621" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM621" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN621" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO621" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP621" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ621" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR621" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS621" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT621" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU621" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV621" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW621" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX621" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY621" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ621" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA621" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB621" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC621" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD621" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE621" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF621" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG621" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH621" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI621" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ621" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK621" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL621" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM621" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A622" s="2">
+        <v>45228.539240115744</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D622" s="1">
+        <v>20202711</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F622" s="3">
+        <v>0.53333333333284827</v>
+      </c>
+      <c r="G622" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK622" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL622" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM622" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN622" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO622" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP622" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ622" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR622" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS622" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT622" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU622" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV622" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW622" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX622" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY622" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ622" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA622" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB622" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC622" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD622" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE622" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF622" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG622" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH622" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI622" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ622" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK622" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL622" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM622" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A623" s="2">
+        <v>45228.550449745366</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D623" s="1">
+        <v>20217081</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F623" s="3">
+        <v>0.54722222222335404</v>
+      </c>
+      <c r="G623" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H623" s="1">
+        <v>5</v>
+      </c>
+      <c r="I623" s="1">
+        <v>4</v>
+      </c>
+      <c r="J623" s="1">
+        <v>4</v>
+      </c>
+      <c r="K623" s="1">
+        <v>4</v>
+      </c>
+      <c r="L623" s="1">
+        <v>4</v>
+      </c>
+      <c r="M623" s="1">
+        <v>5</v>
+      </c>
+      <c r="N623" s="1">
+        <v>5</v>
+      </c>
+      <c r="O623" s="1">
+        <v>4</v>
+      </c>
+      <c r="P623" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q623" s="1">
+        <v>5</v>
+      </c>
+      <c r="R623" s="1">
+        <v>5</v>
+      </c>
+      <c r="S623" s="1">
+        <v>5</v>
+      </c>
+      <c r="T623" s="1">
+        <v>5</v>
+      </c>
+      <c r="U623" s="1">
+        <v>5</v>
+      </c>
+      <c r="V623" s="1">
+        <v>5</v>
+      </c>
+      <c r="W623" s="1">
+        <v>5</v>
+      </c>
+      <c r="X623" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y623" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z623" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA623" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB623" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC623" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD623" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE623" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF623" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG623" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH623" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI623" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ623" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A624" s="2">
+        <v>45228.551400995369</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D624" s="1">
+        <v>20231518</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F624" s="3">
+        <v>0.54652777777664596</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H624" s="1">
+        <v>2</v>
+      </c>
+      <c r="I624" s="1">
+        <v>2</v>
+      </c>
+      <c r="J624" s="1">
+        <v>5</v>
+      </c>
+      <c r="K624" s="1">
+        <v>3</v>
+      </c>
+      <c r="L624" s="1">
+        <v>3</v>
+      </c>
+      <c r="M624" s="1">
+        <v>2</v>
+      </c>
+      <c r="N624" s="1">
+        <v>4</v>
+      </c>
+      <c r="O624" s="1">
+        <v>5</v>
+      </c>
+      <c r="P624" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q624" s="1">
+        <v>2</v>
+      </c>
+      <c r="R624" s="1">
+        <v>5</v>
+      </c>
+      <c r="S624" s="1">
+        <v>3</v>
+      </c>
+      <c r="T624" s="1">
+        <v>2</v>
+      </c>
+      <c r="U624" s="1">
+        <v>5</v>
+      </c>
+      <c r="V624" s="1">
+        <v>3</v>
+      </c>
+      <c r="W624" s="1">
+        <v>3</v>
+      </c>
+      <c r="X624" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y624" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z624" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA624" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB624" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC624" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD624" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE624" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF624" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG624" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH624" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI624" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ624" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A625" s="2">
+        <v>45228.556734988422</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D625" s="1">
+        <v>20175110</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F625" s="3">
+        <v>0.554861111115315</v>
+      </c>
+      <c r="G625" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H625" s="1">
+        <v>2</v>
+      </c>
+      <c r="I625" s="1">
+        <v>3</v>
+      </c>
+      <c r="J625" s="1">
+        <v>4</v>
+      </c>
+      <c r="K625" s="1">
+        <v>3</v>
+      </c>
+      <c r="L625" s="1">
+        <v>3</v>
+      </c>
+      <c r="M625" s="1">
+        <v>4</v>
+      </c>
+      <c r="N625" s="1">
+        <v>4</v>
+      </c>
+      <c r="O625" s="1">
+        <v>3</v>
+      </c>
+      <c r="P625" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q625" s="1">
+        <v>2</v>
+      </c>
+      <c r="R625" s="1">
+        <v>4</v>
+      </c>
+      <c r="S625" s="1">
+        <v>4</v>
+      </c>
+      <c r="T625" s="1">
+        <v>3</v>
+      </c>
+      <c r="U625" s="1">
+        <v>4</v>
+      </c>
+      <c r="V625" s="1">
+        <v>4</v>
+      </c>
+      <c r="W625" s="1">
+        <v>4</v>
+      </c>
+      <c r="X625" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y625" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z625" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA625" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB625" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC625" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD625" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE625" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF625" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG625" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH625" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI625" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ625" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A626" s="2">
+        <v>45228.561762997684</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D626" s="1">
+        <v>20231080</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F626" s="3">
+        <v>0.55833333333430346</v>
+      </c>
+      <c r="G626" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H626" s="1">
+        <v>1</v>
+      </c>
+      <c r="I626" s="1">
+        <v>5</v>
+      </c>
+      <c r="J626" s="1">
+        <v>6</v>
+      </c>
+      <c r="K626" s="1">
+        <v>5</v>
+      </c>
+      <c r="L626" s="1">
+        <v>2</v>
+      </c>
+      <c r="M626" s="1">
+        <v>1</v>
+      </c>
+      <c r="N626" s="1">
+        <v>6</v>
+      </c>
+      <c r="O626" s="1">
+        <v>6</v>
+      </c>
+      <c r="P626" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q626" s="1">
+        <v>2</v>
+      </c>
+      <c r="R626" s="1">
+        <v>6</v>
+      </c>
+      <c r="S626" s="1">
+        <v>5</v>
+      </c>
+      <c r="T626" s="1">
+        <v>1</v>
+      </c>
+      <c r="U626" s="1">
+        <v>2</v>
+      </c>
+      <c r="V626" s="1">
+        <v>5</v>
+      </c>
+      <c r="W626" s="1">
+        <v>6</v>
+      </c>
+      <c r="X626" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y626" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z626" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA626" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB626" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC626" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD626" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE626" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF626" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG626" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH626" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI626" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ626" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A627" s="2">
+        <v>45228.562488379626</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D627" s="1">
+        <v>20191002</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F627" s="3">
+        <v>0.56041666666715173</v>
+      </c>
+      <c r="G627" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK627" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL627" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM627" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN627" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO627" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP627" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ627" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR627" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS627" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT627" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU627" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV627" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW627" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX627" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY627" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ627" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA627" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB627" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC627" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD627" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE627" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF627" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG627" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH627" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI627" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ627" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK627" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL627" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM627" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A628" s="2">
+        <v>45228.564907511573</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D628" s="1">
+        <v>20225271</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F628" s="3">
+        <v>0.56180555555329192</v>
+      </c>
+      <c r="G628" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H628" s="1">
+        <v>4</v>
+      </c>
+      <c r="I628" s="1">
+        <v>2</v>
+      </c>
+      <c r="J628" s="1">
+        <v>2</v>
+      </c>
+      <c r="K628" s="1">
+        <v>3</v>
+      </c>
+      <c r="L628" s="1">
+        <v>2</v>
+      </c>
+      <c r="M628" s="1">
+        <v>4</v>
+      </c>
+      <c r="N628" s="1">
+        <v>2</v>
+      </c>
+      <c r="O628" s="1">
+        <v>3</v>
+      </c>
+      <c r="P628" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q628" s="1">
+        <v>4</v>
+      </c>
+      <c r="R628" s="1">
+        <v>4</v>
+      </c>
+      <c r="S628" s="1">
+        <v>2</v>
+      </c>
+      <c r="T628" s="1">
+        <v>2</v>
+      </c>
+      <c r="U628" s="1">
+        <v>2</v>
+      </c>
+      <c r="V628" s="1">
+        <v>2</v>
+      </c>
+      <c r="W628" s="1">
+        <v>2</v>
+      </c>
+      <c r="X628" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y628" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z628" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA628" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB628" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC628" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD628" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE628" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF628" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG628" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH628" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI628" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ628" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A629" s="2">
+        <v>45228.566085868057</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D629" s="1">
+        <v>20236722</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F629" s="3">
+        <v>0.56527777777955635</v>
+      </c>
+      <c r="G629" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK629" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL629" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM629" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN629" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO629" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP629" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ629" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR629" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS629" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT629" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU629" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV629" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW629" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX629" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY629" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ629" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA629" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB629" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC629" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD629" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE629" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF629" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG629" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH629" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI629" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ629" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK629" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL629" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM629" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A630" s="2">
+        <v>45228.571767615736</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D630" s="1">
+        <v>20233034</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F630" s="3">
+        <v>0.56944444444525288</v>
+      </c>
+      <c r="G630" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H630" s="1">
+        <v>4</v>
+      </c>
+      <c r="I630" s="1">
+        <v>3</v>
+      </c>
+      <c r="J630" s="1">
+        <v>3</v>
+      </c>
+      <c r="K630" s="1">
+        <v>3</v>
+      </c>
+      <c r="L630" s="1">
+        <v>3</v>
+      </c>
+      <c r="M630" s="1">
+        <v>4</v>
+      </c>
+      <c r="N630" s="1">
+        <v>3</v>
+      </c>
+      <c r="O630" s="1">
+        <v>3</v>
+      </c>
+      <c r="P630" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q630" s="1">
+        <v>4</v>
+      </c>
+      <c r="R630" s="1">
+        <v>4</v>
+      </c>
+      <c r="S630" s="1">
+        <v>3</v>
+      </c>
+      <c r="T630" s="1">
+        <v>4</v>
+      </c>
+      <c r="U630" s="1">
+        <v>4</v>
+      </c>
+      <c r="V630" s="1">
+        <v>3</v>
+      </c>
+      <c r="W630" s="1">
+        <v>4</v>
+      </c>
+      <c r="X630" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y630" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z630" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA630" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB630" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC630" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD630" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE630" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF630" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG630" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH630" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI630" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ630" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A631" s="2">
+        <v>45228.574984351857</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D631" s="1">
+        <v>20232981</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F631" s="3">
+        <v>0.57361111111094942</v>
+      </c>
+      <c r="G631" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H631" s="1">
+        <v>2</v>
+      </c>
+      <c r="I631" s="1">
+        <v>2</v>
+      </c>
+      <c r="J631" s="1">
+        <v>2</v>
+      </c>
+      <c r="K631" s="1">
+        <v>2</v>
+      </c>
+      <c r="L631" s="1">
+        <v>1</v>
+      </c>
+      <c r="M631" s="1">
+        <v>4</v>
+      </c>
+      <c r="N631" s="1">
+        <v>2</v>
+      </c>
+      <c r="O631" s="1">
+        <v>2</v>
+      </c>
+      <c r="P631" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q631" s="1">
+        <v>4</v>
+      </c>
+      <c r="R631" s="1">
+        <v>4</v>
+      </c>
+      <c r="S631" s="1">
+        <v>2</v>
+      </c>
+      <c r="T631" s="1">
+        <v>2</v>
+      </c>
+      <c r="U631" s="1">
+        <v>4</v>
+      </c>
+      <c r="V631" s="1">
+        <v>4</v>
+      </c>
+      <c r="W631" s="1">
+        <v>4</v>
+      </c>
+      <c r="X631" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y631" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z631" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA631" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB631" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC631" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD631" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE631" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF631" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG631" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH631" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI631" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ631" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A632" s="2">
+        <v>45228.588397534724</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D632" s="1">
+        <v>20203024</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F632" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="G632" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK632" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL632" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM632" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN632" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO632" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP632" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ632" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR632" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS632" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT632" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU632" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV632" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW632" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX632" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY632" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ632" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA632" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB632" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC632" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD632" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE632" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF632" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG632" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH632" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI632" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ632" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK632" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL632" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM632" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A633" s="2">
+        <v>45228.589343182874</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D633" s="1">
+        <v>20232552</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F633" s="3">
+        <v>0.58472222222189885</v>
+      </c>
+      <c r="G633" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK633" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL633" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM633" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN633" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO633" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP633" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ633" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR633" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS633" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT633" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU633" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV633" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW633" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX633" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY633" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ633" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA633" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB633" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC633" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD633" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE633" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF633" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG633" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH633" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI633" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ633" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK633" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL633" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM633" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A634" s="2">
+        <v>45228.590649560181</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D634" s="1">
+        <v>20213014</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F634" s="3">
+        <v>0.58750000000145519</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H634" s="1">
+        <v>4</v>
+      </c>
+      <c r="I634" s="1">
+        <v>1</v>
+      </c>
+      <c r="J634" s="1">
+        <v>2</v>
+      </c>
+      <c r="K634" s="1">
+        <v>1</v>
+      </c>
+      <c r="L634" s="1">
+        <v>3</v>
+      </c>
+      <c r="M634" s="1">
+        <v>4</v>
+      </c>
+      <c r="N634" s="1">
+        <v>2</v>
+      </c>
+      <c r="O634" s="1">
+        <v>2</v>
+      </c>
+      <c r="P634" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q634" s="1">
+        <v>4</v>
+      </c>
+      <c r="R634" s="1">
+        <v>2</v>
+      </c>
+      <c r="S634" s="1">
+        <v>2</v>
+      </c>
+      <c r="T634" s="1">
+        <v>3</v>
+      </c>
+      <c r="U634" s="1">
+        <v>6</v>
+      </c>
+      <c r="V634" s="1">
+        <v>2</v>
+      </c>
+      <c r="W634" s="1">
+        <v>2</v>
+      </c>
+      <c r="X634" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y634" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z634" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA634" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB634" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC634" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD634" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE634" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF634" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG634" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH634" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI634" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ634" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="635" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A635" s="2">
+        <v>45228.593437708332</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D635" s="1">
+        <v>20232574</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F635" s="3">
+        <v>9.2361111106583849E-2</v>
+      </c>
+      <c r="G635" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H635" s="1">
+        <v>2</v>
+      </c>
+      <c r="I635" s="1">
+        <v>4</v>
+      </c>
+      <c r="J635" s="1">
+        <v>5</v>
+      </c>
+      <c r="K635" s="1">
+        <v>5</v>
+      </c>
+      <c r="L635" s="1">
+        <v>2</v>
+      </c>
+      <c r="M635" s="1">
+        <v>2</v>
+      </c>
+      <c r="N635" s="1">
+        <v>5</v>
+      </c>
+      <c r="O635" s="1">
+        <v>5</v>
+      </c>
+      <c r="P635" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q635" s="1">
+        <v>2</v>
+      </c>
+      <c r="R635" s="1">
+        <v>5</v>
+      </c>
+      <c r="S635" s="1">
+        <v>5</v>
+      </c>
+      <c r="T635" s="1">
+        <v>2</v>
+      </c>
+      <c r="U635" s="1">
+        <v>2</v>
+      </c>
+      <c r="V635" s="1">
+        <v>5</v>
+      </c>
+      <c r="W635" s="1">
+        <v>5</v>
+      </c>
+      <c r="X635" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y635" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z635" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA635" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB635" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC635" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD635" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE635" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF635" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG635" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH635" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI635" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ635" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A636" s="2">
+        <v>45228.595731724534</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D636" s="1">
+        <v>20232302</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F636" s="3">
+        <v>0.59236111110658385</v>
+      </c>
+      <c r="G636" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H636" s="1">
+        <v>3</v>
+      </c>
+      <c r="I636" s="1">
+        <v>3</v>
+      </c>
+      <c r="J636" s="1">
+        <v>3</v>
+      </c>
+      <c r="K636" s="1">
+        <v>2</v>
+      </c>
+      <c r="L636" s="1">
+        <v>3</v>
+      </c>
+      <c r="M636" s="1">
+        <v>4</v>
+      </c>
+      <c r="N636" s="1">
+        <v>2</v>
+      </c>
+      <c r="O636" s="1">
+        <v>1</v>
+      </c>
+      <c r="P636" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q636" s="1">
+        <v>3</v>
+      </c>
+      <c r="R636" s="1">
+        <v>5</v>
+      </c>
+      <c r="S636" s="1">
+        <v>2</v>
+      </c>
+      <c r="T636" s="1">
+        <v>3</v>
+      </c>
+      <c r="U636" s="1">
+        <v>4</v>
+      </c>
+      <c r="V636" s="1">
+        <v>2</v>
+      </c>
+      <c r="W636" s="1">
+        <v>4</v>
+      </c>
+      <c r="X636" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y636" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z636" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA636" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB636" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC636" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD636" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE636" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF636" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG636" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH636" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI636" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ636" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="637" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A637" s="2">
+        <v>45228.597008912038</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D637" s="1">
+        <v>20235200</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F637" s="3">
+        <v>9.6527777779556345E-2</v>
+      </c>
+      <c r="G637" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK637" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL637" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM637" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN637" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO637" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP637" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ637" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR637" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS637" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT637" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU637" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV637" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW637" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX637" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY637" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ637" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA637" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB637" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC637" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD637" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE637" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF637" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG637" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH637" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI637" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ637" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK637" s="1">
+        <v>6</v>
+      </c>
+      <c r="BL637" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM637" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
